--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EA6C0-1FA8-CE46-A177-C070B37A2667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AFCB20-7F2D-AE4D-ABF7-CCA917C79209}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12660" yWindow="4240" windowWidth="16520" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Revenue</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>55-59 000 (guidance)</t>
-  </si>
-  <si>
-    <t>08/05/2020</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,6 +612,9 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1013,7 +1013,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1040,10 +1040,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="3">
-        <v>310.13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>111</v>
+        <v>133.72</v>
+      </c>
+      <c r="D2" s="67">
+        <v>44195</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1061,11 +1061,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="9">
-        <f>Reports!V21</f>
-        <v>4773.2520000000004</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>17000</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>32</v>
@@ -1085,7 +1081,7 @@
       </c>
       <c r="C4" s="10">
         <f>C3*C2</f>
-        <v>1480328.6427600002</v>
+        <v>2273240</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>33</v>
@@ -1128,7 +1124,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>1350023.6427600002</v>
+        <v>2142935</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>36</v>
@@ -1148,18 +1144,18 @@
       </c>
       <c r="C7" s="15">
         <f>C6/C3</f>
-        <v>282.83100132991092</v>
+        <v>126.05500000000001</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="15">
         <f>F6/C3</f>
-        <v>311.34683303288938</v>
+        <v>87.419817262817972</v>
       </c>
       <c r="G7" s="17">
         <f>F7/C2-1</f>
-        <v>3.9236224579672907E-3</v>
+        <v>-0.34624725349373342</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AFCB20-7F2D-AE4D-ABF7-CCA917C79209}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824E3E6-630B-9F4E-A50A-1D41DC0AF15C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="4240" windowWidth="16520" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68640" yWindow="-5680" windowWidth="34000" windowHeight="26680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t>Revenue</t>
   </si>
@@ -367,10 +367,37 @@
     <t>29/12/2018</t>
   </si>
   <si>
-    <t>S&amp;M+G&amp;A y/y</t>
-  </si>
-  <si>
-    <t>55-59 000 (guidance)</t>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>SG&amp;A y/y</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>OE y/y</t>
   </si>
 </sst>
 </file>
@@ -381,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +469,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -480,7 +515,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,9 +579,6 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -601,12 +633,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -615,6 +641,31 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -638,15 +689,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -662,12 +713,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5549900" y="1333500"/>
-          <a:ext cx="0" cy="7251700"/>
+          <a:off x="7265377" y="1341315"/>
+          <a:ext cx="0" cy="9453685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -693,14 +745,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260839</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260839</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -717,12 +769,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18783300" y="177800"/>
-          <a:ext cx="0" cy="7264400"/>
+          <a:off x="24849993" y="178777"/>
+          <a:ext cx="0" cy="7639538"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1007,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DS64"/>
+  <dimension ref="A1:FU65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1040,10 +1093,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="3">
-        <v>133.72</v>
-      </c>
-      <c r="D2" s="67">
-        <v>44195</v>
+        <v>142.96</v>
+      </c>
+      <c r="D2" s="64">
+        <v>44221</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1061,7 +1114,11 @@
         <v>21</v>
       </c>
       <c r="C3" s="9">
-        <v>17000</v>
+        <f>Reports!AC21</f>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>32</v>
@@ -1081,7 +1138,7 @@
       </c>
       <c r="C4" s="10">
         <f>C3*C2</f>
-        <v>2273240</v>
+        <v>2466992.2421600004</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>33</v>
@@ -1091,7 +1148,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -1099,21 +1156,21 @@
         <v>24</v>
       </c>
       <c r="C5" s="9">
-        <f>Reports!V31</f>
-        <v>130305</v>
+        <f>Reports!AC31</f>
+        <v>84390</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="11">
-        <f>NPV(F4,G26:DS26)</f>
-        <v>1355831.8934679055</v>
+        <f>NPV(F4,I26:FU26)</f>
+        <v>1686649.4069370108</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="I5" s="62"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
@@ -1124,16 +1181,16 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>2142935</v>
+        <v>2382602.2421600004</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>1486136.8934679055</v>
-      </c>
-      <c r="I6" s="62"/>
+        <v>1771039.4069370108</v>
+      </c>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
@@ -1144,18 +1201,18 @@
       </c>
       <c r="C7" s="15">
         <f>C6/C3</f>
-        <v>126.05500000000001</v>
+        <v>138.06967477164142</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="15">
         <f>F6/C3</f>
-        <v>87.419817262817972</v>
+        <v>102.63015395380162</v>
       </c>
       <c r="G7" s="17">
         <f>F7/C2-1</f>
-        <v>-0.34624725349373342</v>
+        <v>-0.28210580614296576</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
@@ -1228,6 +1285,21 @@
       <c r="R9" s="18">
         <v>2030</v>
       </c>
+      <c r="S9" s="18">
+        <v>2030</v>
+      </c>
+      <c r="T9" s="18">
+        <v>2030</v>
+      </c>
+      <c r="U9" s="18">
+        <v>2030</v>
+      </c>
+      <c r="V9" s="18">
+        <v>2030</v>
+      </c>
+      <c r="W9" s="18">
+        <v>2030</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -1254,24 +1326,32 @@
         <v>166699</v>
       </c>
       <c r="G10" s="9">
-        <f>F10*1.02</f>
-        <v>170032.98</v>
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>142381</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" ref="H10:K10" si="1">G10*1.02</f>
-        <v>173433.63960000002</v>
+        <f>SUM(Reports!Z3:AC3)</f>
+        <v>137781</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="1"/>
-        <v>176902.31239200002</v>
+        <f>H10*0.98</f>
+        <v>135025.38</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="1"/>
-        <v>180440.35863984004</v>
+        <f t="shared" ref="J10:M10" si="1">I10*0.98</f>
+        <v>132324.87239999999</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="1"/>
-        <v>184049.16581263684</v>
+        <v>129678.37495199998</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>127084.80745295998</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="1"/>
+        <v>124543.11130390078</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
@@ -1299,24 +1379,32 @@
         <v>18805</v>
       </c>
       <c r="G11" s="9">
-        <f>F11*0.95</f>
-        <v>17864.75</v>
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>21280</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ref="H11:K11" si="2">G11*0.95</f>
-        <v>16971.512500000001</v>
+        <f>SUM(Reports!Z4:AC4)</f>
+        <v>23724</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="2"/>
-        <v>16122.936874999999</v>
+        <f>H11*0.98</f>
+        <v>23249.52</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="2"/>
-        <v>15316.790031249999</v>
+        <f t="shared" ref="J11:M11" si="2">I11*0.98</f>
+        <v>22784.529600000002</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>14550.950529687498</v>
+        <v>22328.839008000003</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="2"/>
+        <v>21882.262227840001</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>21444.616983283202</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
@@ -1344,24 +1432,32 @@
         <v>25484</v>
       </c>
       <c r="G12" s="9">
-        <f>F12*0.99</f>
-        <v>25229.16</v>
+        <f>SUM(Reports!V5:Y5)</f>
+        <v>25740</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" ref="H12:K12" si="3">G12*0.99</f>
-        <v>24976.868399999999</v>
+        <f>SUM(Reports!Z5:AC5)</f>
+        <v>28622</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="3"/>
-        <v>24727.099716000001</v>
+        <f>H12*1.05</f>
+        <v>30053.100000000002</v>
       </c>
       <c r="J12" s="9">
-        <f t="shared" si="3"/>
-        <v>24479.828718839999</v>
+        <f t="shared" ref="J12:M12" si="3">I12*1.05</f>
+        <v>31555.755000000005</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="3"/>
-        <v>24235.030431651598</v>
+        <v>33133.542750000008</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="3"/>
+        <v>34790.21988750001</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="3"/>
+        <v>36529.73088187501</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
@@ -1389,24 +1485,32 @@
         <v>37190</v>
       </c>
       <c r="G13" s="9">
-        <f>F13*1.2</f>
-        <v>44628</v>
+        <f>SUM(Reports!V6:Y6)</f>
+        <v>46291</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ref="H13:K13" si="4">G13*1.2</f>
-        <v>53553.599999999999</v>
+        <f>SUM(Reports!Z6:AC6)</f>
+        <v>53768</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="4"/>
-        <v>64264.319999999992</v>
+        <f t="shared" ref="I13" si="4">H13*1.2</f>
+        <v>64521.599999999999</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="4"/>
-        <v>77117.183999999994</v>
+        <f t="shared" ref="J13" si="5">I13*1.2</f>
+        <v>77425.919999999998</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="4"/>
-        <v>92540.62079999999</v>
+        <f t="shared" ref="K13" si="6">J13*1.2</f>
+        <v>92911.103999999992</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13" si="7">K13*1.2</f>
+        <v>111493.32479999999</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" ref="M13" si="8">L13*1.2</f>
+        <v>133791.98975999997</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
@@ -1434,24 +1538,32 @@
         <v>17417</v>
       </c>
       <c r="G14" s="9">
-        <f>F14*1.2</f>
-        <v>20900.399999999998</v>
+        <f>SUM(Reports!V7:Y7)</f>
+        <v>24482</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" ref="H14:K14" si="5">G14*1.2</f>
-        <v>25080.479999999996</v>
+        <f>SUM(Reports!Z7:AC7)</f>
+        <v>30620</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="5"/>
-        <v>30096.575999999994</v>
+        <f>H14*1.25</f>
+        <v>38275</v>
       </c>
       <c r="J14" s="9">
-        <f t="shared" si="5"/>
-        <v>36115.891199999991</v>
+        <f t="shared" ref="J14:M14" si="9">I14*1.25</f>
+        <v>47843.75</v>
       </c>
       <c r="K14" s="9">
-        <f t="shared" si="5"/>
-        <v>43339.069439999985</v>
+        <f t="shared" si="9"/>
+        <v>59804.6875</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="9"/>
+        <v>74755.859375</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="9"/>
+        <v>93444.82421875</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
@@ -1466,76 +1578,91 @@
         <v>182795</v>
       </c>
       <c r="C16" s="20">
-        <f t="shared" ref="C16:E16" si="6">SUM(C10:C14)</f>
+        <f t="shared" ref="C16:E16" si="10">SUM(C10:C14)</f>
         <v>233715</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>215639</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>229234</v>
       </c>
       <c r="F16" s="20">
         <f>SUM(F10:F14)</f>
         <v>265595</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <f>SUM(G10:G14)</f>
-        <v>278655.29000000004</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" ref="H16:K16" si="7">SUM(H10:H14)</f>
-        <v>294016.1005</v>
+        <v>260174</v>
+      </c>
+      <c r="H16" s="20">
+        <f>SUM(H10:H14)</f>
+        <v>274515</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="7"/>
-        <v>312113.24498299998</v>
+        <f t="shared" ref="I16:M16" si="11">SUM(I10:I14)</f>
+        <v>291124.59999999998</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="7"/>
-        <v>333470.05258993001</v>
+        <f t="shared" si="11"/>
+        <v>311934.82699999999</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="7"/>
-        <v>358714.83701397589</v>
-      </c>
-      <c r="L16" s="22">
-        <f>K16*1.02</f>
-        <v>365889.13375425542</v>
-      </c>
-      <c r="M16" s="22">
-        <f t="shared" ref="M16:R16" si="8">L16*1.02</f>
-        <v>373206.91642934055</v>
+        <f t="shared" si="11"/>
+        <v>337856.54820999998</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="11"/>
+        <v>370006.47374330001</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="11"/>
+        <v>409754.27314780897</v>
       </c>
       <c r="N16" s="22">
-        <f t="shared" si="8"/>
-        <v>380671.05475792737</v>
+        <f t="shared" ref="M16:W16" si="12">M16*1.02</f>
+        <v>417949.35861076514</v>
       </c>
       <c r="O16" s="22">
-        <f t="shared" si="8"/>
-        <v>388284.47585308593</v>
+        <f t="shared" si="12"/>
+        <v>426308.34578298044</v>
       </c>
       <c r="P16" s="22">
-        <f t="shared" si="8"/>
-        <v>396050.16537014768</v>
+        <f t="shared" si="12"/>
+        <v>434834.51269864006</v>
       </c>
       <c r="Q16" s="22">
-        <f t="shared" si="8"/>
-        <v>403971.16867755062</v>
+        <f t="shared" si="12"/>
+        <v>443531.20295261289</v>
       </c>
       <c r="R16" s="22">
-        <f t="shared" si="8"/>
-        <v>412050.59205110162</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" si="12"/>
+        <v>452401.82701166515</v>
+      </c>
+      <c r="S16" s="22">
+        <f t="shared" si="12"/>
+        <v>461449.86355189845</v>
+      </c>
+      <c r="T16" s="22">
+        <f t="shared" si="12"/>
+        <v>470678.8608229364</v>
+      </c>
+      <c r="U16" s="22">
+        <f t="shared" si="12"/>
+        <v>480092.43803939514</v>
+      </c>
+      <c r="V16" s="22">
+        <f t="shared" si="12"/>
+        <v>489694.28680018306</v>
+      </c>
+      <c r="W16" s="22">
+        <f t="shared" si="12"/>
+        <v>499488.17253618676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1560,60 +1687,75 @@
         <v>163756</v>
       </c>
       <c r="G17" s="9">
-        <f>G16-G18</f>
-        <v>171808.48912532243</v>
+        <f>SUM(Reports!V10:Y10)</f>
+        <v>161782</v>
       </c>
       <c r="H17" s="9">
-        <f>H16-H18</f>
-        <v>181279.39363872813</v>
+        <f>SUM(Reports!Z10:AC10)</f>
+        <v>169559</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ref="I17:Q17" si="9">I16-I18</f>
-        <v>192437.41992671604</v>
+        <f t="shared" ref="I17:Q17" si="13">I16-I18</f>
+        <v>179818.21048540151</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="9"/>
-        <v>205605.23327591474</v>
+        <f t="shared" si="13"/>
+        <v>192672.01184377173</v>
       </c>
       <c r="K17" s="9">
         <f>K16-K18</f>
-        <v>221170.22854368735</v>
+        <v>208683.01716823992</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="9"/>
-        <v>225593.63311456112</v>
+        <f t="shared" si="13"/>
+        <v>228540.98202808664</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="9"/>
-        <v>230105.50577685234</v>
+        <f t="shared" si="13"/>
+        <v>253091.90681991636</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="9"/>
-        <v>234707.61589238941</v>
+        <f t="shared" si="13"/>
+        <v>258153.74495631468</v>
       </c>
       <c r="O17" s="9">
-        <f t="shared" si="9"/>
-        <v>239401.76821023721</v>
+        <f t="shared" si="13"/>
+        <v>263316.81985544099</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="9"/>
-        <v>244189.80357444196</v>
+        <f t="shared" si="13"/>
+        <v>268583.15625254984</v>
       </c>
       <c r="Q17" s="9">
-        <f t="shared" si="9"/>
-        <v>249073.59964593078</v>
+        <f t="shared" si="13"/>
+        <v>273954.8193776008</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" ref="R17" si="10">R16-R18</f>
-        <v>254055.07163884939</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R17:S17" si="14">R16-R18</f>
+        <v>279433.91576515284</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="14"/>
+        <v>285022.59408045589</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" ref="T17:W17" si="15">T16-T18</f>
+        <v>290723.04596206499</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="15"/>
+        <v>296537.5068813063</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="15"/>
+        <v>302468.25701893243</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="15"/>
+        <v>308517.62215931108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1626,72 +1768,87 @@
         <v>93626</v>
       </c>
       <c r="D18" s="24">
-        <f t="shared" ref="D18:E18" si="11">D16-D17</f>
+        <f t="shared" ref="D18:E18" si="16">D16-D17</f>
         <v>84263</v>
       </c>
       <c r="E18" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>88186</v>
       </c>
       <c r="F18" s="24">
         <f>F16-F17</f>
         <v>101839</v>
       </c>
-      <c r="G18" s="9">
-        <f>G16*F34</f>
-        <v>106846.80087467762</v>
-      </c>
-      <c r="H18" s="9">
-        <f>H16*G34</f>
-        <v>112736.70686127186</v>
+      <c r="G18" s="24">
+        <f>G16-G17</f>
+        <v>98392</v>
+      </c>
+      <c r="H18" s="24">
+        <f>H16-H17</f>
+        <v>104956</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" ref="I18:Q18" si="12">I16*H34</f>
-        <v>119675.82505628394</v>
+        <f t="shared" ref="I18:Q18" si="17">I16*H35</f>
+        <v>111306.38951459846</v>
       </c>
       <c r="J18" s="9">
-        <f t="shared" si="12"/>
-        <v>127864.81931401526</v>
+        <f t="shared" si="17"/>
+        <v>119262.81515622824</v>
       </c>
       <c r="K18" s="9">
-        <f t="shared" si="12"/>
-        <v>137544.60847028854</v>
+        <f t="shared" si="17"/>
+        <v>129173.53104176004</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="12"/>
-        <v>140295.50063969431</v>
+        <f t="shared" si="17"/>
+        <v>141465.49171521337</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="12"/>
-        <v>143101.41065248821</v>
+        <f t="shared" si="17"/>
+        <v>156662.36632789261</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="12"/>
-        <v>145963.43886553796</v>
+        <f t="shared" si="17"/>
+        <v>159795.61365445046</v>
       </c>
       <c r="O18" s="9">
-        <f t="shared" si="12"/>
-        <v>148882.70764284872</v>
+        <f t="shared" si="17"/>
+        <v>162991.52592753945</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="12"/>
-        <v>151860.36179570571</v>
+        <f t="shared" si="17"/>
+        <v>166251.35644609024</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" si="12"/>
-        <v>154897.56903161985</v>
+        <f t="shared" si="17"/>
+        <v>169576.38357501206</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" ref="R18" si="13">R16*Q34</f>
-        <v>157995.52041225223</v>
-      </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R18:W18" si="18">R16*Q35</f>
+        <v>172967.91124651232</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="18"/>
+        <v>176427.26947144256</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="18"/>
+        <v>179955.81486087141</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="18"/>
+        <v>183554.93115808885</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="18"/>
+        <v>187226.02978125063</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="18"/>
+        <v>190970.55037687568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1716,60 +1873,75 @@
         <v>14236</v>
       </c>
       <c r="G19" s="9">
-        <f>F19*1.2</f>
-        <v>17083.2</v>
+        <f>SUM(Reports!V12:Y12)</f>
+        <v>16217</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" ref="H19:K19" si="14">G19*1.2</f>
-        <v>20499.84</v>
+        <f>SUM(Reports!Z12:AC12)</f>
+        <v>18752</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="14"/>
-        <v>24599.808000000001</v>
+        <f>H19*1.15</f>
+        <v>21564.799999999999</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="14"/>
-        <v>29519.7696</v>
+        <f t="shared" ref="J19:M19" si="19">I19*1.15</f>
+        <v>24799.519999999997</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="14"/>
-        <v>35423.72352</v>
+        <f t="shared" si="19"/>
+        <v>28519.447999999993</v>
       </c>
       <c r="L19" s="9">
-        <f>K19*0.98</f>
-        <v>34715.249049599995</v>
+        <f t="shared" si="19"/>
+        <v>32797.365199999993</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" ref="M19:R19" si="15">L19*0.98</f>
-        <v>34020.944068607998</v>
+        <f t="shared" si="19"/>
+        <v>37716.969979999987</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="15"/>
-        <v>33340.525187235835</v>
+        <f t="shared" ref="M19:W19" si="20">M19*0.98</f>
+        <v>36962.630580399986</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="15"/>
-        <v>32673.714683491118</v>
+        <f t="shared" si="20"/>
+        <v>36223.377968791989</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="15"/>
-        <v>32020.240389821294</v>
+        <f t="shared" si="20"/>
+        <v>35498.910409416145</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="15"/>
-        <v>31379.835582024869</v>
+        <f t="shared" si="20"/>
+        <v>34788.932201227821</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="15"/>
-        <v>30752.238870384372</v>
-      </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" si="20"/>
+        <v>34093.153557203266</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="20"/>
+        <v>33411.290486059203</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="20"/>
+        <v>32743.064676338017</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="20"/>
+        <v>32088.203382811258</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="20"/>
+        <v>31446.439315155032</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="20"/>
+        <v>30817.51052885193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1794,60 +1966,75 @@
         <v>16705</v>
       </c>
       <c r="G20" s="9">
-        <f>F20*1.1</f>
-        <v>18375.5</v>
+        <f>SUM(Reports!V13:Y13)</f>
+        <v>18245</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" ref="H20:K20" si="16">G20*1.1</f>
-        <v>20213.050000000003</v>
+        <f>SUM(Reports!Z13:AC13)</f>
+        <v>19916</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="16"/>
-        <v>22234.355000000003</v>
+        <f>H20*1.1</f>
+        <v>21907.600000000002</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="16"/>
-        <v>24457.790500000006</v>
+        <f t="shared" ref="J20:M20" si="21">I20*1.1</f>
+        <v>24098.360000000004</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="16"/>
-        <v>26903.569550000007</v>
+        <f t="shared" si="21"/>
+        <v>26508.196000000007</v>
       </c>
       <c r="L20" s="9">
-        <f>K20*0.95</f>
-        <v>25558.391072500006</v>
+        <f t="shared" si="21"/>
+        <v>29159.01560000001</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" ref="M20:R20" si="17">L20*0.95</f>
-        <v>24280.471518875005</v>
+        <f t="shared" si="21"/>
+        <v>32074.917160000012</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" si="17"/>
-        <v>23066.447942931252</v>
+        <f t="shared" ref="M20:W20" si="22">M20*0.95</f>
+        <v>30471.17130200001</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" si="17"/>
-        <v>21913.125545784689</v>
+        <f t="shared" si="22"/>
+        <v>28947.61273690001</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="17"/>
-        <v>20817.469268495453</v>
+        <f t="shared" si="22"/>
+        <v>27500.232100055007</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="17"/>
-        <v>19776.595805070679</v>
+        <f t="shared" si="22"/>
+        <v>26125.220495052257</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="17"/>
-        <v>18787.766014817145</v>
-      </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" si="22"/>
+        <v>24818.959470299644</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="22"/>
+        <v>23578.01149678466</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="22"/>
+        <v>22399.110921945427</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="22"/>
+        <v>21279.155375848153</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="22"/>
+        <v>20215.197607055743</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="22"/>
+        <v>19204.437726702956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1860,72 +2047,87 @@
         <v>22396</v>
       </c>
       <c r="D21" s="24">
-        <f t="shared" ref="D21:E21" si="18">SUM(D19:D20)</f>
+        <f t="shared" ref="D21:E21" si="23">SUM(D19:D20)</f>
         <v>24239</v>
       </c>
       <c r="E21" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>26842</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" ref="F21" si="19">SUM(F19:F20)</f>
+        <f t="shared" ref="F21:G21" si="24">SUM(F19:F20)</f>
         <v>30941</v>
       </c>
-      <c r="G21" s="19">
-        <f>SUM(G19:G20)</f>
-        <v>35458.699999999997</v>
-      </c>
-      <c r="H21" s="19">
-        <f t="shared" ref="H21:Q21" si="20">SUM(H19:H20)</f>
-        <v>40712.89</v>
+      <c r="G21" s="24">
+        <f t="shared" si="24"/>
+        <v>34462</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" ref="H21" si="25">SUM(H19:H20)</f>
+        <v>38668</v>
       </c>
       <c r="I21" s="19">
-        <f t="shared" si="20"/>
-        <v>46834.163</v>
+        <f t="shared" ref="I21:Q21" si="26">SUM(I19:I20)</f>
+        <v>43472.4</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="20"/>
-        <v>53977.560100000002</v>
+        <f t="shared" si="26"/>
+        <v>48897.880000000005</v>
       </c>
       <c r="K21" s="19">
-        <f t="shared" si="20"/>
-        <v>62327.293070000007</v>
+        <f t="shared" si="26"/>
+        <v>55027.644</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="20"/>
-        <v>60273.640122099998</v>
+        <f t="shared" si="26"/>
+        <v>61956.380799999999</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="20"/>
-        <v>58301.415587483003</v>
+        <f t="shared" si="26"/>
+        <v>69791.887140000006</v>
       </c>
       <c r="N21" s="19">
-        <f t="shared" si="20"/>
-        <v>56406.973130167084</v>
+        <f t="shared" si="26"/>
+        <v>67433.801882400003</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="20"/>
-        <v>54586.840229275811</v>
+        <f t="shared" si="26"/>
+        <v>65170.990705691998</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="20"/>
-        <v>52837.709658316744</v>
+        <f t="shared" si="26"/>
+        <v>62999.142509471152</v>
       </c>
       <c r="Q21" s="19">
-        <f t="shared" si="20"/>
-        <v>51156.431387095552</v>
+        <f t="shared" si="26"/>
+        <v>60914.152696280078</v>
       </c>
       <c r="R21" s="19">
-        <f t="shared" ref="R21" si="21">SUM(R19:R20)</f>
-        <v>49540.004885201517</v>
-      </c>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-    </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R21:S21" si="27">SUM(R19:R20)</f>
+        <v>58912.113027502914</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="27"/>
+        <v>56989.301982843863</v>
+      </c>
+      <c r="T21" s="19">
+        <f t="shared" ref="T21:W21" si="28">SUM(T19:T20)</f>
+        <v>55142.175598283444</v>
+      </c>
+      <c r="U21" s="19">
+        <f t="shared" si="28"/>
+        <v>53367.358758659408</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="28"/>
+        <v>51661.636922210775</v>
+      </c>
+      <c r="W21" s="19">
+        <f t="shared" si="28"/>
+        <v>50021.948255554889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1938,72 +2140,87 @@
         <v>71230</v>
       </c>
       <c r="D22" s="24">
-        <f t="shared" ref="D22:E22" si="22">D18-D21</f>
+        <f t="shared" ref="D22:E22" si="29">D18-D21</f>
         <v>60024</v>
       </c>
       <c r="E22" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>61344</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" ref="F22" si="23">F18-F21</f>
+        <f t="shared" ref="F22:G22" si="30">F18-F21</f>
         <v>70898</v>
       </c>
-      <c r="G22" s="19">
-        <f>G18-G21</f>
-        <v>71388.100874677621</v>
-      </c>
-      <c r="H22" s="19">
-        <f t="shared" ref="H22:Q22" si="24">H18-H21</f>
-        <v>72023.816861271858</v>
+      <c r="G22" s="24">
+        <f t="shared" si="30"/>
+        <v>63930</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" ref="H22" si="31">H18-H21</f>
+        <v>66288</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="24"/>
-        <v>72841.662056283938</v>
+        <f t="shared" ref="I22:Q22" si="32">I18-I21</f>
+        <v>67833.989514598448</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="24"/>
-        <v>73887.259214015256</v>
+        <f t="shared" si="32"/>
+        <v>70364.935156228239</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="24"/>
-        <v>75217.315400288528</v>
+        <f t="shared" si="32"/>
+        <v>74145.887041760041</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="24"/>
-        <v>80021.860517594308</v>
+        <f t="shared" si="32"/>
+        <v>79509.110915213372</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" si="24"/>
-        <v>84799.995065005205</v>
+        <f t="shared" si="32"/>
+        <v>86870.479187892604</v>
       </c>
       <c r="N22" s="19">
-        <f t="shared" si="24"/>
-        <v>89556.465735370875</v>
+        <f t="shared" si="32"/>
+        <v>92361.811772050452</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="24"/>
-        <v>94295.867413572909</v>
+        <f t="shared" si="32"/>
+        <v>97820.535221847444</v>
       </c>
       <c r="P22" s="19">
-        <f t="shared" si="24"/>
-        <v>99022.65213738897</v>
+        <f t="shared" si="32"/>
+        <v>103252.21393661908</v>
       </c>
       <c r="Q22" s="19">
-        <f t="shared" si="24"/>
-        <v>103741.13764452429</v>
+        <f t="shared" si="32"/>
+        <v>108662.23087873199</v>
       </c>
       <c r="R22" s="19">
-        <f t="shared" ref="R22" si="25">R18-R21</f>
-        <v>108455.51552705071</v>
-      </c>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-    </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R22:S22" si="33">R18-R21</f>
+        <v>114055.7982190094</v>
+      </c>
+      <c r="S22" s="19">
+        <f t="shared" si="33"/>
+        <v>119437.96748859869</v>
+      </c>
+      <c r="T22" s="19">
+        <f t="shared" ref="T22:W22" si="34">T18-T21</f>
+        <v>124813.63926258797</v>
+      </c>
+      <c r="U22" s="19">
+        <f t="shared" si="34"/>
+        <v>130187.57239942944</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="34"/>
+        <v>135564.39285903986</v>
+      </c>
+      <c r="W22" s="19">
+        <f t="shared" si="34"/>
+        <v>140948.60212132079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -2028,60 +2245,75 @@
         <v>2005</v>
       </c>
       <c r="G23" s="9">
-        <f>F38*$F$3</f>
-        <v>1345.6100000000001</v>
+        <f>SUM(Reports!V16:Y16)</f>
+        <v>1807</v>
       </c>
       <c r="H23" s="9">
-        <f>G38*$F$3</f>
-        <v>1927.4796869974211</v>
+        <f>SUM(Reports!Z16:AC16)</f>
+        <v>803</v>
       </c>
       <c r="I23" s="9">
-        <f>H38*$F$3</f>
-        <v>2519.0900593835754</v>
+        <f>H39*$F$3</f>
+        <v>843.9</v>
       </c>
       <c r="J23" s="9">
-        <f>I38*$F$3</f>
-        <v>3121.9760763089157</v>
+        <f>I39*$F$3</f>
+        <v>1393.3231161167876</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" ref="K23:Q23" si="26">J38*$F$3</f>
-        <v>3738.0499586315086</v>
+        <f t="shared" ref="K23:Q23" si="35">J39*$F$3</f>
+        <v>1967.3891822955479</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="26"/>
-        <v>4369.6928815028687</v>
+        <f t="shared" si="35"/>
+        <v>2576.2953920879927</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="26"/>
-        <v>5044.8253086956465</v>
+        <f t="shared" si="35"/>
+        <v>3232.9786425464035</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="26"/>
-        <v>5763.5838716852522</v>
+        <f t="shared" si="35"/>
+        <v>3953.8063051899157</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" si="26"/>
-        <v>6526.1442685417014</v>
+        <f t="shared" si="35"/>
+        <v>4724.3312498078385</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="26"/>
-        <v>7332.7203619986194</v>
+        <f t="shared" si="35"/>
+        <v>5544.6901815810816</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="26"/>
-        <v>8183.5633419937203</v>
+        <f t="shared" si="35"/>
+        <v>6415.0654145266826</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" ref="R23" si="27">Q38*$F$3</f>
-        <v>9078.9609498858645</v>
-      </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R23:W23" si="36">Q39*$F$3</f>
+        <v>7335.6837848727519</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="36"/>
+        <v>8306.8156409038093</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="36"/>
+        <v>9328.7739059398282</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="36"/>
+        <v>10401.913211288052</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="36"/>
+        <v>11526.62909617379</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="36"/>
+        <v>12703.357271815501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -2094,72 +2326,87 @@
         <v>72515</v>
       </c>
       <c r="D24" s="24">
-        <f t="shared" ref="D24:E24" si="28">D22+D23</f>
+        <f t="shared" ref="D24:E24" si="37">D22+D23</f>
         <v>61372</v>
       </c>
       <c r="E24" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>64089</v>
       </c>
       <c r="F24" s="24">
         <f>F22+F23</f>
         <v>72903</v>
       </c>
-      <c r="G24" s="19">
-        <f t="shared" ref="G24:Q24" si="29">G22+G23</f>
-        <v>72733.710874677621</v>
-      </c>
-      <c r="H24" s="19">
-        <f t="shared" si="29"/>
-        <v>73951.296548269282</v>
+      <c r="G24" s="24">
+        <f>G22+G23</f>
+        <v>65737</v>
+      </c>
+      <c r="H24" s="24">
+        <f>H22+H23</f>
+        <v>67091</v>
       </c>
       <c r="I24" s="19">
-        <f t="shared" si="29"/>
-        <v>75360.752115667507</v>
+        <f t="shared" ref="I24:Q24" si="38">I22+I23</f>
+        <v>68677.889514598442</v>
       </c>
       <c r="J24" s="19">
-        <f t="shared" si="29"/>
-        <v>77009.23529032417</v>
+        <f t="shared" si="38"/>
+        <v>71758.258272345032</v>
       </c>
       <c r="K24" s="19">
-        <f t="shared" si="29"/>
-        <v>78955.36535892004</v>
+        <f t="shared" si="38"/>
+        <v>76113.276224055589</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="29"/>
-        <v>84391.553399097174</v>
+        <f t="shared" si="38"/>
+        <v>82085.406307301368</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" si="29"/>
-        <v>89844.820373700844</v>
+        <f t="shared" si="38"/>
+        <v>90103.457830439002</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="29"/>
-        <v>95320.049607056135</v>
+        <f t="shared" si="38"/>
+        <v>96315.618077240375</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="29"/>
-        <v>100822.01168211461</v>
+        <f t="shared" si="38"/>
+        <v>102544.86647165529</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="29"/>
-        <v>106355.37249938759</v>
+        <f t="shared" si="38"/>
+        <v>108796.90411820017</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="29"/>
-        <v>111924.70098651802</v>
+        <f t="shared" si="38"/>
+        <v>115077.29629325868</v>
       </c>
       <c r="R24" s="19">
-        <f t="shared" ref="R24" si="30">R22+R23</f>
-        <v>117534.47647693657</v>
-      </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-    </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R24:S24" si="39">R22+R23</f>
+        <v>121391.48200388215</v>
+      </c>
+      <c r="S24" s="19">
+        <f t="shared" si="39"/>
+        <v>127744.7831295025</v>
+      </c>
+      <c r="T24" s="19">
+        <f t="shared" ref="T24:W24" si="40">T22+T23</f>
+        <v>134142.4131685278</v>
+      </c>
+      <c r="U24" s="19">
+        <f t="shared" si="40"/>
+        <v>140589.4856107175</v>
+      </c>
+      <c r="V24" s="19">
+        <f t="shared" si="40"/>
+        <v>147091.02195521366</v>
+      </c>
+      <c r="W24" s="19">
+        <f t="shared" si="40"/>
+        <v>153651.95939313629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -2184,77 +2431,92 @@
         <v>13372</v>
       </c>
       <c r="G25" s="9">
-        <f>G24*0.2</f>
-        <v>14546.742174935525</v>
+        <f>SUM(Reports!V18:Y18)</f>
+        <v>10481</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" ref="H25:Q25" si="31">H24*0.2</f>
-        <v>14790.259309653857</v>
+        <f>SUM(Reports!Z18:AC18)</f>
+        <v>9680</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="31"/>
-        <v>15072.150423133502</v>
+        <f t="shared" ref="I25:Q25" si="41">I24*0.2</f>
+        <v>13735.577902919689</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="31"/>
-        <v>15401.847058064835</v>
+        <f t="shared" si="41"/>
+        <v>14351.651654469008</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="31"/>
-        <v>15791.073071784009</v>
+        <f t="shared" si="41"/>
+        <v>15222.655244811118</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="31"/>
-        <v>16878.310679819435</v>
+        <f t="shared" si="41"/>
+        <v>16417.081261460273</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="31"/>
-        <v>17968.964074740168</v>
+        <f t="shared" si="41"/>
+        <v>18020.6915660878</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="31"/>
-        <v>19064.009921411227</v>
+        <f t="shared" si="41"/>
+        <v>19263.123615448076</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="31"/>
-        <v>20164.402336422922</v>
+        <f t="shared" si="41"/>
+        <v>20508.973294331059</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="31"/>
-        <v>21271.074499877519</v>
+        <f t="shared" si="41"/>
+        <v>21759.380823640036</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="31"/>
-        <v>22384.940197303604</v>
+        <f t="shared" si="41"/>
+        <v>23015.459258651739</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" ref="R25" si="32">R24*0.2</f>
-        <v>23506.895295387316</v>
-      </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="1:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="R25:S25" si="42">R24*0.2</f>
+        <v>24278.296400776431</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="42"/>
+        <v>25548.956625900501</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" ref="T25:W25" si="43">T24*0.2</f>
+        <v>26828.48263370556</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="43"/>
+        <v>28117.897122143502</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="43"/>
+        <v>29418.204391042731</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="43"/>
+        <v>30730.391878627259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:177" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="20">
-        <f t="shared" ref="B26:E26" si="33">B24-B25</f>
+        <f t="shared" ref="B26:E26" si="44">B24-B25</f>
         <v>39510</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>53394</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>45687</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>48351</v>
       </c>
       <c r="F26" s="20">
@@ -2263,552 +2525,783 @@
       </c>
       <c r="G26" s="25">
         <f>G24-G25</f>
-        <v>58186.968699742094</v>
+        <v>55256</v>
       </c>
       <c r="H26" s="25">
         <f>H24-H25</f>
-        <v>59161.037238615427</v>
+        <v>57411</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" ref="I26:Q26" si="34">I24-I25</f>
-        <v>60288.601692534008</v>
+        <f t="shared" ref="I26:Q26" si="45">I24-I25</f>
+        <v>54942.311611678757</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="34"/>
-        <v>61607.388232259334</v>
+        <f t="shared" si="45"/>
+        <v>57406.606617876023</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="34"/>
-        <v>63164.292287136035</v>
+        <f t="shared" si="45"/>
+        <v>60890.620979244472</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="34"/>
-        <v>67513.24271927774</v>
+        <f t="shared" si="45"/>
+        <v>65668.325045841091</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="34"/>
-        <v>71875.856298960673</v>
+        <f t="shared" si="45"/>
+        <v>72082.766264351201</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="34"/>
-        <v>76256.039685644908</v>
+        <f t="shared" si="45"/>
+        <v>77052.494461792303</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" si="34"/>
-        <v>80657.609345691686</v>
+        <f t="shared" si="45"/>
+        <v>82035.893177324237</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" si="34"/>
-        <v>85084.297999510076</v>
+        <f t="shared" si="45"/>
+        <v>87037.523294560131</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="34"/>
-        <v>89539.760789214415</v>
+        <f t="shared" si="45"/>
+        <v>92061.837034606942</v>
       </c>
       <c r="R26" s="25">
         <f>R24-R25</f>
-        <v>94027.581181549263</v>
+        <v>97113.185603105725</v>
       </c>
       <c r="S26" s="25">
-        <f>R26*($F$2+1)</f>
-        <v>92147.029557918271</v>
+        <f>S24-S25</f>
+        <v>102195.826503602</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" ref="T26:AW26" si="35">S26*($F$2+1)</f>
-        <v>90304.088966759911</v>
+        <f>T24-T25</f>
+        <v>107313.93053482224</v>
       </c>
       <c r="U26" s="25">
-        <f t="shared" si="35"/>
-        <v>88498.007187424708</v>
+        <f>U24-U25</f>
+        <v>112471.58848857399</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" si="35"/>
-        <v>86728.047043676212</v>
+        <f>V24-V25</f>
+        <v>117672.81756417092</v>
       </c>
       <c r="W26" s="25">
-        <f t="shared" si="35"/>
-        <v>84993.486102802679</v>
+        <f>W24-W25</f>
+        <v>122921.56751450904</v>
       </c>
       <c r="X26" s="25">
-        <f t="shared" si="35"/>
-        <v>83293.616380746622</v>
+        <f t="shared" ref="X26:AW26" si="46">W26*($F$2+1)</f>
+        <v>120463.13616421886</v>
       </c>
       <c r="Y26" s="25">
-        <f t="shared" si="35"/>
-        <v>81627.744053131682</v>
+        <f t="shared" si="46"/>
+        <v>118053.87344093448</v>
       </c>
       <c r="Z26" s="25">
-        <f t="shared" si="35"/>
-        <v>79995.189172069047</v>
+        <f t="shared" si="46"/>
+        <v>115692.79597211578</v>
       </c>
       <c r="AA26" s="25">
-        <f t="shared" si="35"/>
-        <v>78395.285388627672</v>
+        <f t="shared" si="46"/>
+        <v>113378.94005267347</v>
       </c>
       <c r="AB26" s="25">
-        <f t="shared" si="35"/>
-        <v>76827.379680855112</v>
+        <f t="shared" si="46"/>
+        <v>111111.36125161999</v>
       </c>
       <c r="AC26" s="25">
-        <f t="shared" si="35"/>
-        <v>75290.832087238014</v>
+        <f t="shared" si="46"/>
+        <v>108889.13402658759</v>
       </c>
       <c r="AD26" s="25">
-        <f t="shared" si="35"/>
-        <v>73785.015445493249</v>
+        <f t="shared" si="46"/>
+        <v>106711.35134605583</v>
       </c>
       <c r="AE26" s="25">
-        <f t="shared" si="35"/>
-        <v>72309.315136583376</v>
+        <f t="shared" si="46"/>
+        <v>104577.12431913472</v>
       </c>
       <c r="AF26" s="25">
-        <f t="shared" si="35"/>
-        <v>70863.128833851704</v>
+        <f t="shared" si="46"/>
+        <v>102485.58183275202</v>
       </c>
       <c r="AG26" s="25">
-        <f t="shared" si="35"/>
-        <v>69445.866257174668</v>
+        <f t="shared" si="46"/>
+        <v>100435.87019609698</v>
       </c>
       <c r="AH26" s="25">
-        <f t="shared" si="35"/>
-        <v>68056.94893203117</v>
+        <f t="shared" si="46"/>
+        <v>98427.152792175038</v>
       </c>
       <c r="AI26" s="25">
-        <f t="shared" si="35"/>
-        <v>66695.809953390548</v>
+        <f t="shared" si="46"/>
+        <v>96458.609736331535</v>
       </c>
       <c r="AJ26" s="25">
-        <f t="shared" si="35"/>
-        <v>65361.893754322737</v>
+        <f t="shared" si="46"/>
+        <v>94529.437541604901</v>
       </c>
       <c r="AK26" s="25">
-        <f t="shared" si="35"/>
-        <v>64054.655879236278</v>
+        <f t="shared" si="46"/>
+        <v>92638.848790772798</v>
       </c>
       <c r="AL26" s="25">
-        <f t="shared" si="35"/>
-        <v>62773.562761651548</v>
+        <f t="shared" si="46"/>
+        <v>90786.071814957337</v>
       </c>
       <c r="AM26" s="25">
-        <f t="shared" si="35"/>
-        <v>61518.091506418517</v>
+        <f t="shared" si="46"/>
+        <v>88970.350378658186</v>
       </c>
       <c r="AN26" s="25">
-        <f t="shared" si="35"/>
-        <v>60287.729676290146</v>
+        <f t="shared" si="46"/>
+        <v>87190.943371085013</v>
       </c>
       <c r="AO26" s="25">
-        <f t="shared" si="35"/>
-        <v>59081.975082764344</v>
+        <f t="shared" si="46"/>
+        <v>85447.124503663304</v>
       </c>
       <c r="AP26" s="25">
-        <f t="shared" si="35"/>
-        <v>57900.335581109059</v>
+        <f t="shared" si="46"/>
+        <v>83738.182013590034</v>
       </c>
       <c r="AQ26" s="25">
-        <f t="shared" si="35"/>
-        <v>56742.328869486875</v>
+        <f t="shared" si="46"/>
+        <v>82063.418373318229</v>
       </c>
       <c r="AR26" s="25">
-        <f t="shared" si="35"/>
-        <v>55607.482292097135</v>
+        <f t="shared" si="46"/>
+        <v>80422.150005851858</v>
       </c>
       <c r="AS26" s="25">
-        <f t="shared" si="35"/>
-        <v>54495.332646255192</v>
+        <f t="shared" si="46"/>
+        <v>78813.707005734817</v>
       </c>
       <c r="AT26" s="25">
-        <f t="shared" si="35"/>
-        <v>53405.425993330085</v>
+        <f t="shared" si="46"/>
+        <v>77237.432865620125</v>
       </c>
       <c r="AU26" s="25">
-        <f t="shared" si="35"/>
-        <v>52337.317473463481</v>
+        <f t="shared" si="46"/>
+        <v>75692.684208307721</v>
       </c>
       <c r="AV26" s="25">
-        <f t="shared" si="35"/>
-        <v>51290.57112399421</v>
+        <f t="shared" si="46"/>
+        <v>74178.830524141566</v>
       </c>
       <c r="AW26" s="25">
-        <f t="shared" si="35"/>
-        <v>50264.759701514326</v>
+        <f t="shared" si="46"/>
+        <v>72695.253913658729</v>
       </c>
       <c r="AX26" s="25">
-        <f t="shared" ref="AX26:CC26" si="36">AW26*($F$2+1)</f>
-        <v>49259.464507484037</v>
+        <f t="shared" ref="AX26:CC26" si="47">AW26*($F$2+1)</f>
+        <v>71241.34883538555</v>
       </c>
       <c r="AY26" s="25">
-        <f t="shared" si="36"/>
-        <v>48274.275217334354</v>
+        <f t="shared" si="47"/>
+        <v>69816.521858677836</v>
       </c>
       <c r="AZ26" s="25">
-        <f t="shared" si="36"/>
-        <v>47308.789712987666</v>
+        <f t="shared" si="47"/>
+        <v>68420.191421504278</v>
       </c>
       <c r="BA26" s="25">
-        <f t="shared" si="36"/>
-        <v>46362.613918727911</v>
+        <f t="shared" si="47"/>
+        <v>67051.787593074187</v>
       </c>
       <c r="BB26" s="25">
-        <f t="shared" si="36"/>
-        <v>45435.361640353352</v>
+        <f t="shared" si="47"/>
+        <v>65710.751841212696</v>
       </c>
       <c r="BC26" s="25">
-        <f t="shared" si="36"/>
-        <v>44526.654407546288</v>
+        <f t="shared" si="47"/>
+        <v>64396.536804388437</v>
       </c>
       <c r="BD26" s="25">
-        <f t="shared" si="36"/>
-        <v>43636.121319395359</v>
+        <f t="shared" si="47"/>
+        <v>63108.606068300665</v>
       </c>
       <c r="BE26" s="25">
-        <f t="shared" si="36"/>
-        <v>42763.398893007448</v>
+        <f t="shared" si="47"/>
+        <v>61846.433946934652</v>
       </c>
       <c r="BF26" s="25">
-        <f t="shared" si="36"/>
-        <v>41908.130915147296</v>
+        <f t="shared" si="47"/>
+        <v>60609.505267995955</v>
       </c>
       <c r="BG26" s="25">
-        <f t="shared" si="36"/>
-        <v>41069.968296844352</v>
+        <f t="shared" si="47"/>
+        <v>59397.315162636034</v>
       </c>
       <c r="BH26" s="25">
-        <f t="shared" si="36"/>
-        <v>40248.568930907466</v>
+        <f t="shared" si="47"/>
+        <v>58209.368859383314</v>
       </c>
       <c r="BI26" s="25">
-        <f t="shared" si="36"/>
-        <v>39443.597552289313</v>
+        <f t="shared" si="47"/>
+        <v>57045.181482195643</v>
       </c>
       <c r="BJ26" s="25">
-        <f t="shared" si="36"/>
-        <v>38654.725601243525</v>
+        <f t="shared" si="47"/>
+        <v>55904.277852551728</v>
       </c>
       <c r="BK26" s="25">
-        <f t="shared" si="36"/>
-        <v>37881.631089218652</v>
+        <f t="shared" si="47"/>
+        <v>54786.192295500696</v>
       </c>
       <c r="BL26" s="25">
-        <f t="shared" si="36"/>
-        <v>37123.998467434278</v>
+        <f t="shared" si="47"/>
+        <v>53690.468449590684</v>
       </c>
       <c r="BM26" s="25">
-        <f t="shared" si="36"/>
-        <v>36381.518498085592</v>
+        <f t="shared" si="47"/>
+        <v>52616.659080598867</v>
       </c>
       <c r="BN26" s="25">
-        <f t="shared" si="36"/>
-        <v>35653.888128123879</v>
+        <f t="shared" si="47"/>
+        <v>51564.325898986892</v>
       </c>
       <c r="BO26" s="25">
-        <f t="shared" si="36"/>
-        <v>34940.810365561403</v>
+        <f t="shared" si="47"/>
+        <v>50533.039381007155</v>
       </c>
       <c r="BP26" s="25">
-        <f t="shared" si="36"/>
-        <v>34241.994158250178</v>
+        <f t="shared" si="47"/>
+        <v>49522.378593387009</v>
       </c>
       <c r="BQ26" s="25">
-        <f t="shared" si="36"/>
-        <v>33557.154275085173</v>
+        <f t="shared" si="47"/>
+        <v>48531.931021519267</v>
       </c>
       <c r="BR26" s="25">
-        <f t="shared" si="36"/>
-        <v>32886.011189583471</v>
+        <f t="shared" si="47"/>
+        <v>47561.292401088882</v>
       </c>
       <c r="BS26" s="25">
-        <f t="shared" si="36"/>
-        <v>32228.290965791799</v>
+        <f t="shared" si="47"/>
+        <v>46610.066553067103</v>
       </c>
       <c r="BT26" s="25">
-        <f t="shared" si="36"/>
-        <v>31583.725146475961</v>
+        <f t="shared" si="47"/>
+        <v>45677.865222005763</v>
       </c>
       <c r="BU26" s="25">
-        <f t="shared" si="36"/>
-        <v>30952.050643546441</v>
+        <f t="shared" si="47"/>
+        <v>44764.307917565646</v>
       </c>
       <c r="BV26" s="25">
-        <f t="shared" si="36"/>
-        <v>30333.009630675511</v>
+        <f t="shared" si="47"/>
+        <v>43869.021759214331</v>
       </c>
       <c r="BW26" s="25">
-        <f t="shared" si="36"/>
-        <v>29726.349438062</v>
+        <f t="shared" si="47"/>
+        <v>42991.641324030046</v>
       </c>
       <c r="BX26" s="25">
-        <f t="shared" si="36"/>
-        <v>29131.822449300758</v>
+        <f t="shared" si="47"/>
+        <v>42131.808497549442</v>
       </c>
       <c r="BY26" s="25">
-        <f t="shared" si="36"/>
-        <v>28549.186000314741</v>
+        <f t="shared" si="47"/>
+        <v>41289.172327598455</v>
       </c>
       <c r="BZ26" s="25">
-        <f t="shared" si="36"/>
-        <v>27978.202280308447</v>
+        <f t="shared" si="47"/>
+        <v>40463.388881046485</v>
       </c>
       <c r="CA26" s="25">
-        <f t="shared" si="36"/>
-        <v>27418.638234702277</v>
+        <f t="shared" si="47"/>
+        <v>39654.121103425554</v>
       </c>
       <c r="CB26" s="25">
-        <f t="shared" si="36"/>
-        <v>26870.265470008231</v>
+        <f t="shared" si="47"/>
+        <v>38861.038681357044</v>
       </c>
       <c r="CC26" s="25">
-        <f t="shared" si="36"/>
-        <v>26332.860160608067</v>
+        <f t="shared" si="47"/>
+        <v>38083.817907729899</v>
       </c>
       <c r="CD26" s="25">
-        <f t="shared" ref="CD26:DI26" si="37">CC26*($F$2+1)</f>
-        <v>25806.202957395904</v>
+        <f t="shared" ref="CD26:DI26" si="48">CC26*($F$2+1)</f>
+        <v>37322.141549575303</v>
       </c>
       <c r="CE26" s="25">
-        <f t="shared" si="37"/>
-        <v>25290.078898247986</v>
+        <f t="shared" si="48"/>
+        <v>36575.698718583793</v>
       </c>
       <c r="CF26" s="25">
-        <f t="shared" si="37"/>
-        <v>24784.277320283025</v>
+        <f t="shared" si="48"/>
+        <v>35844.184744212114</v>
       </c>
       <c r="CG26" s="25">
-        <f t="shared" si="37"/>
-        <v>24288.591773877364</v>
+        <f t="shared" si="48"/>
+        <v>35127.301049327871</v>
       </c>
       <c r="CH26" s="25">
-        <f t="shared" si="37"/>
-        <v>23802.819938399818</v>
+        <f t="shared" si="48"/>
+        <v>34424.755028341315</v>
       </c>
       <c r="CI26" s="25">
-        <f t="shared" si="37"/>
-        <v>23326.763539631822</v>
+        <f t="shared" si="48"/>
+        <v>33736.259927774488</v>
       </c>
       <c r="CJ26" s="25">
-        <f t="shared" si="37"/>
-        <v>22860.228268839186</v>
+        <f t="shared" si="48"/>
+        <v>33061.534729218998</v>
       </c>
       <c r="CK26" s="25">
-        <f t="shared" si="37"/>
-        <v>22403.023703462401</v>
+        <f t="shared" si="48"/>
+        <v>32400.304034634617</v>
       </c>
       <c r="CL26" s="25">
-        <f t="shared" si="37"/>
-        <v>21954.963229393154</v>
+        <f t="shared" si="48"/>
+        <v>31752.297953941925</v>
       </c>
       <c r="CM26" s="25">
-        <f t="shared" si="37"/>
-        <v>21515.863964805289</v>
+        <f t="shared" si="48"/>
+        <v>31117.251994863087</v>
       </c>
       <c r="CN26" s="25">
-        <f t="shared" si="37"/>
-        <v>21085.546685509184</v>
+        <f t="shared" si="48"/>
+        <v>30494.906954965823</v>
       </c>
       <c r="CO26" s="25">
-        <f t="shared" si="37"/>
-        <v>20663.835751799001</v>
+        <f t="shared" si="48"/>
+        <v>29885.008815866506</v>
       </c>
       <c r="CP26" s="25">
-        <f t="shared" si="37"/>
-        <v>20250.559036763021</v>
+        <f t="shared" si="48"/>
+        <v>29287.308639549174</v>
       </c>
       <c r="CQ26" s="25">
-        <f t="shared" si="37"/>
-        <v>19845.547856027759</v>
+        <f t="shared" si="48"/>
+        <v>28701.562466758191</v>
       </c>
       <c r="CR26" s="25">
-        <f t="shared" si="37"/>
-        <v>19448.636898907203</v>
+        <f t="shared" si="48"/>
+        <v>28127.531217423028</v>
       </c>
       <c r="CS26" s="25">
-        <f t="shared" si="37"/>
-        <v>19059.66416092906</v>
+        <f t="shared" si="48"/>
+        <v>27564.980593074568</v>
       </c>
       <c r="CT26" s="25">
-        <f t="shared" si="37"/>
-        <v>18678.470877710479</v>
+        <f t="shared" si="48"/>
+        <v>27013.680981213078</v>
       </c>
       <c r="CU26" s="25">
-        <f t="shared" si="37"/>
-        <v>18304.90146015627</v>
+        <f t="shared" si="48"/>
+        <v>26473.407361588816</v>
       </c>
       <c r="CV26" s="25">
-        <f t="shared" si="37"/>
-        <v>17938.803430953143</v>
+        <f t="shared" si="48"/>
+        <v>25943.93921435704</v>
       </c>
       <c r="CW26" s="25">
-        <f t="shared" si="37"/>
-        <v>17580.02736233408</v>
+        <f t="shared" si="48"/>
+        <v>25425.060430069898</v>
       </c>
       <c r="CX26" s="25">
-        <f t="shared" si="37"/>
-        <v>17228.426815087398</v>
+        <f t="shared" si="48"/>
+        <v>24916.559221468498</v>
       </c>
       <c r="CY26" s="25">
-        <f t="shared" si="37"/>
-        <v>16883.85827878565</v>
+        <f t="shared" si="48"/>
+        <v>24418.228037039127</v>
       </c>
       <c r="CZ26" s="25">
-        <f t="shared" si="37"/>
-        <v>16546.181113209936</v>
+        <f t="shared" si="48"/>
+        <v>23929.863476298346</v>
       </c>
       <c r="DA26" s="25">
-        <f t="shared" si="37"/>
-        <v>16215.257490945736</v>
+        <f t="shared" si="48"/>
+        <v>23451.26620677238</v>
       </c>
       <c r="DB26" s="25">
-        <f t="shared" si="37"/>
-        <v>15890.952341126822</v>
+        <f t="shared" si="48"/>
+        <v>22982.240882636932</v>
       </c>
       <c r="DC26" s="25">
-        <f t="shared" si="37"/>
-        <v>15573.133294304285</v>
+        <f t="shared" si="48"/>
+        <v>22522.596064984195</v>
       </c>
       <c r="DD26" s="25">
-        <f t="shared" si="37"/>
-        <v>15261.6706284182</v>
+        <f t="shared" si="48"/>
+        <v>22072.144143684509</v>
       </c>
       <c r="DE26" s="25">
-        <f t="shared" si="37"/>
-        <v>14956.437215849835</v>
+        <f t="shared" si="48"/>
+        <v>21630.70126081082</v>
       </c>
       <c r="DF26" s="25">
-        <f t="shared" si="37"/>
-        <v>14657.308471532839</v>
+        <f t="shared" si="48"/>
+        <v>21198.087235594601</v>
       </c>
       <c r="DG26" s="25">
-        <f t="shared" si="37"/>
-        <v>14364.162302102182</v>
+        <f t="shared" si="48"/>
+        <v>20774.12549088271</v>
       </c>
       <c r="DH26" s="25">
-        <f t="shared" si="37"/>
-        <v>14076.879056060139</v>
+        <f t="shared" si="48"/>
+        <v>20358.642981065055</v>
       </c>
       <c r="DI26" s="25">
-        <f t="shared" si="37"/>
-        <v>13795.341474938936</v>
+        <f t="shared" si="48"/>
+        <v>19951.470121443755</v>
       </c>
       <c r="DJ26" s="25">
-        <f t="shared" ref="DJ26:DS26" si="38">DI26*($F$2+1)</f>
-        <v>13519.434645440157</v>
+        <f t="shared" ref="DJ26:DS26" si="49">DI26*($F$2+1)</f>
+        <v>19552.440719014881</v>
       </c>
       <c r="DK26" s="25">
-        <f t="shared" si="38"/>
-        <v>13249.045952531353</v>
+        <f t="shared" si="49"/>
+        <v>19161.391904634584</v>
       </c>
       <c r="DL26" s="25">
-        <f t="shared" si="38"/>
-        <v>12984.065033480725</v>
+        <f t="shared" si="49"/>
+        <v>18778.164066541893</v>
       </c>
       <c r="DM26" s="25">
-        <f t="shared" si="38"/>
-        <v>12724.383732811111</v>
+        <f t="shared" si="49"/>
+        <v>18402.600785211056</v>
       </c>
       <c r="DN26" s="25">
-        <f t="shared" si="38"/>
-        <v>12469.896058154889</v>
+        <f t="shared" si="49"/>
+        <v>18034.548769506833</v>
       </c>
       <c r="DO26" s="25">
-        <f t="shared" si="38"/>
-        <v>12220.498136991791</v>
+        <f t="shared" si="49"/>
+        <v>17673.857794116695</v>
       </c>
       <c r="DP26" s="25">
-        <f t="shared" si="38"/>
-        <v>11976.088174251956</v>
+        <f t="shared" si="49"/>
+        <v>17320.380638234361</v>
       </c>
       <c r="DQ26" s="25">
-        <f t="shared" si="38"/>
-        <v>11736.566410766916</v>
+        <f t="shared" si="49"/>
+        <v>16973.973025469673</v>
       </c>
       <c r="DR26" s="25">
-        <f t="shared" si="38"/>
-        <v>11501.835082551577</v>
+        <f t="shared" si="49"/>
+        <v>16634.493564960281</v>
       </c>
       <c r="DS26" s="25">
-        <f t="shared" si="38"/>
-        <v>11271.798380900545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:123" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="64" t="s">
+        <f t="shared" si="49"/>
+        <v>16301.803693661075</v>
+      </c>
+      <c r="DT26" s="25">
+        <f t="shared" ref="DT26" si="50">DS26*($F$2+1)</f>
+        <v>15975.767619787854</v>
+      </c>
+      <c r="DU26" s="25">
+        <f t="shared" ref="DU26" si="51">DT26*($F$2+1)</f>
+        <v>15656.252267392096</v>
+      </c>
+      <c r="DV26" s="25">
+        <f t="shared" ref="DV26" si="52">DU26*($F$2+1)</f>
+        <v>15343.127222044253</v>
+      </c>
+      <c r="DW26" s="25">
+        <f t="shared" ref="DW26" si="53">DV26*($F$2+1)</f>
+        <v>15036.264677603369</v>
+      </c>
+      <c r="DX26" s="25">
+        <f t="shared" ref="DX26" si="54">DW26*($F$2+1)</f>
+        <v>14735.539384051301</v>
+      </c>
+      <c r="DY26" s="25">
+        <f t="shared" ref="DY26" si="55">DX26*($F$2+1)</f>
+        <v>14440.828596370275</v>
+      </c>
+      <c r="DZ26" s="25">
+        <f t="shared" ref="DZ26" si="56">DY26*($F$2+1)</f>
+        <v>14152.012024442869</v>
+      </c>
+      <c r="EA26" s="25">
+        <f t="shared" ref="EA26" si="57">DZ26*($F$2+1)</f>
+        <v>13868.971783954012</v>
+      </c>
+      <c r="EB26" s="25">
+        <f t="shared" ref="EB26" si="58">EA26*($F$2+1)</f>
+        <v>13591.592348274931</v>
+      </c>
+      <c r="EC26" s="25">
+        <f t="shared" ref="EC26" si="59">EB26*($F$2+1)</f>
+        <v>13319.760501309433</v>
+      </c>
+      <c r="ED26" s="25">
+        <f t="shared" ref="ED26" si="60">EC26*($F$2+1)</f>
+        <v>13053.365291283244</v>
+      </c>
+      <c r="EE26" s="25">
+        <f t="shared" ref="EE26" si="61">ED26*($F$2+1)</f>
+        <v>12792.297985457579</v>
+      </c>
+      <c r="EF26" s="25">
+        <f t="shared" ref="EF26" si="62">EE26*($F$2+1)</f>
+        <v>12536.452025748427</v>
+      </c>
+      <c r="EG26" s="25">
+        <f t="shared" ref="EG26" si="63">EF26*($F$2+1)</f>
+        <v>12285.722985233459</v>
+      </c>
+      <c r="EH26" s="25">
+        <f t="shared" ref="EH26" si="64">EG26*($F$2+1)</f>
+        <v>12040.008525528789</v>
+      </c>
+      <c r="EI26" s="25">
+        <f t="shared" ref="EI26" si="65">EH26*($F$2+1)</f>
+        <v>11799.208355018212</v>
+      </c>
+      <c r="EJ26" s="25">
+        <f t="shared" ref="EJ26" si="66">EI26*($F$2+1)</f>
+        <v>11563.224187917847</v>
+      </c>
+      <c r="EK26" s="25">
+        <f t="shared" ref="EK26" si="67">EJ26*($F$2+1)</f>
+        <v>11331.95970415949</v>
+      </c>
+      <c r="EL26" s="25">
+        <f t="shared" ref="EL26" si="68">EK26*($F$2+1)</f>
+        <v>11105.320510076299</v>
+      </c>
+      <c r="EM26" s="25">
+        <f t="shared" ref="EM26" si="69">EL26*($F$2+1)</f>
+        <v>10883.214099874773</v>
+      </c>
+      <c r="EN26" s="25">
+        <f t="shared" ref="EN26" si="70">EM26*($F$2+1)</f>
+        <v>10665.549817877278</v>
+      </c>
+      <c r="EO26" s="25">
+        <f t="shared" ref="EO26" si="71">EN26*($F$2+1)</f>
+        <v>10452.238821519732</v>
+      </c>
+      <c r="EP26" s="25">
+        <f t="shared" ref="EP26" si="72">EO26*($F$2+1)</f>
+        <v>10243.194045089336</v>
+      </c>
+      <c r="EQ26" s="25">
+        <f t="shared" ref="EQ26" si="73">EP26*($F$2+1)</f>
+        <v>10038.33016418755</v>
+      </c>
+      <c r="ER26" s="25">
+        <f t="shared" ref="ER26" si="74">EQ26*($F$2+1)</f>
+        <v>9837.5635609037981</v>
+      </c>
+      <c r="ES26" s="25">
+        <f t="shared" ref="ES26" si="75">ER26*($F$2+1)</f>
+        <v>9640.8122896857221</v>
+      </c>
+      <c r="ET26" s="25">
+        <f t="shared" ref="ET26" si="76">ES26*($F$2+1)</f>
+        <v>9447.9960438920079</v>
+      </c>
+      <c r="EU26" s="25">
+        <f t="shared" ref="EU26" si="77">ET26*($F$2+1)</f>
+        <v>9259.036123014168</v>
+      </c>
+      <c r="EV26" s="25">
+        <f t="shared" ref="EV26" si="78">EU26*($F$2+1)</f>
+        <v>9073.8554005538845</v>
+      </c>
+      <c r="EW26" s="25">
+        <f t="shared" ref="EW26" si="79">EV26*($F$2+1)</f>
+        <v>8892.3782925428059</v>
+      </c>
+      <c r="EX26" s="25">
+        <f t="shared" ref="EX26" si="80">EW26*($F$2+1)</f>
+        <v>8714.5307266919499</v>
+      </c>
+      <c r="EY26" s="25">
+        <f t="shared" ref="EY26" si="81">EX26*($F$2+1)</f>
+        <v>8540.2401121581115</v>
+      </c>
+      <c r="EZ26" s="25">
+        <f t="shared" ref="EZ26" si="82">EY26*($F$2+1)</f>
+        <v>8369.4353099149484</v>
+      </c>
+      <c r="FA26" s="25">
+        <f t="shared" ref="FA26" si="83">EZ26*($F$2+1)</f>
+        <v>8202.0466037166498</v>
+      </c>
+      <c r="FB26" s="25">
+        <f t="shared" ref="FB26" si="84">FA26*($F$2+1)</f>
+        <v>8038.0056716423169</v>
+      </c>
+      <c r="FC26" s="25">
+        <f t="shared" ref="FC26" si="85">FB26*($F$2+1)</f>
+        <v>7877.2455582094708</v>
+      </c>
+      <c r="FD26" s="25">
+        <f t="shared" ref="FD26" si="86">FC26*($F$2+1)</f>
+        <v>7719.7006470452816</v>
+      </c>
+      <c r="FE26" s="25">
+        <f t="shared" ref="FE26" si="87">FD26*($F$2+1)</f>
+        <v>7565.3066341043759</v>
+      </c>
+      <c r="FF26" s="25">
+        <f t="shared" ref="FF26" si="88">FE26*($F$2+1)</f>
+        <v>7414.0005014222879</v>
+      </c>
+      <c r="FG26" s="25">
+        <f t="shared" ref="FG26" si="89">FF26*($F$2+1)</f>
+        <v>7265.7204913938422</v>
+      </c>
+      <c r="FH26" s="25">
+        <f t="shared" ref="FH26" si="90">FG26*($F$2+1)</f>
+        <v>7120.406081565965</v>
+      </c>
+      <c r="FI26" s="25">
+        <f t="shared" ref="FI26" si="91">FH26*($F$2+1)</f>
+        <v>6977.9979599346452</v>
+      </c>
+      <c r="FJ26" s="25">
+        <f t="shared" ref="FJ26" si="92">FI26*($F$2+1)</f>
+        <v>6838.4380007359523</v>
+      </c>
+      <c r="FK26" s="25">
+        <f t="shared" ref="FK26" si="93">FJ26*($F$2+1)</f>
+        <v>6701.6692407212331</v>
+      </c>
+      <c r="FL26" s="25">
+        <f t="shared" ref="FL26" si="94">FK26*($F$2+1)</f>
+        <v>6567.6358559068085</v>
+      </c>
+      <c r="FM26" s="25">
+        <f t="shared" ref="FM26" si="95">FL26*($F$2+1)</f>
+        <v>6436.2831387886727</v>
+      </c>
+      <c r="FN26" s="25">
+        <f t="shared" ref="FN26" si="96">FM26*($F$2+1)</f>
+        <v>6307.5574760128993</v>
+      </c>
+      <c r="FO26" s="25">
+        <f t="shared" ref="FO26" si="97">FN26*($F$2+1)</f>
+        <v>6181.4063264926408</v>
+      </c>
+      <c r="FP26" s="25">
+        <f t="shared" ref="FP26" si="98">FO26*($F$2+1)</f>
+        <v>6057.7781999627878</v>
+      </c>
+      <c r="FQ26" s="25">
+        <f t="shared" ref="FQ26" si="99">FP26*($F$2+1)</f>
+        <v>5936.622635963532</v>
+      </c>
+      <c r="FR26" s="25">
+        <f t="shared" ref="FR26" si="100">FQ26*($F$2+1)</f>
+        <v>5817.8901832442616</v>
+      </c>
+      <c r="FS26" s="25">
+        <f t="shared" ref="FS26" si="101">FR26*($F$2+1)</f>
+        <v>5701.5323795793765</v>
+      </c>
+      <c r="FT26" s="25">
+        <f t="shared" ref="FT26" si="102">FS26*($F$2+1)</f>
+        <v>5587.5017319877888</v>
+      </c>
+      <c r="FU26" s="25">
+        <f t="shared" ref="FU26" si="103">FT26*($F$2+1)</f>
+        <v>5475.7516973480333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:177" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="62">
         <f>B26/B28</f>
         <v>6.6158740790354988</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="62">
         <f>C26/C28</f>
         <v>9.3953897589301434</v>
       </c>
-      <c r="D27" s="65">
-        <f t="shared" ref="D27:E27" si="39">D26/D28</f>
+      <c r="D27" s="62">
+        <f t="shared" ref="D27:E27" si="104">D26/D28</f>
         <v>8.4715371778231034</v>
       </c>
-      <c r="E27" s="65">
-        <f t="shared" si="39"/>
+      <c r="E27" s="62">
+        <f t="shared" si="104"/>
         <v>9.3287671232876708</v>
       </c>
-      <c r="F27" s="65">
-        <f t="shared" ref="F27" si="40">F26/F28</f>
+      <c r="F27" s="62">
+        <f t="shared" ref="F27:H27" si="105">F26/F28</f>
         <v>12.279496699669966</v>
       </c>
-      <c r="G27" s="66">
-        <f t="shared" ref="G27:Q27" si="41">G26/G28</f>
-        <v>12.002262520573865</v>
-      </c>
-      <c r="H27" s="66">
-        <f t="shared" si="41"/>
-        <v>12.20318424888932</v>
-      </c>
-      <c r="I27" s="66">
-        <f t="shared" si="41"/>
-        <v>12.435767675852725</v>
-      </c>
-      <c r="J27" s="66">
-        <f t="shared" si="41"/>
-        <v>12.707794602363725</v>
-      </c>
-      <c r="K27" s="66">
-        <f t="shared" si="41"/>
-        <v>13.028938178039612</v>
-      </c>
-      <c r="L27" s="66">
-        <f t="shared" si="41"/>
-        <v>13.925998910742107</v>
-      </c>
-      <c r="M27" s="66">
-        <f t="shared" si="41"/>
-        <v>14.825877949455585</v>
-      </c>
-      <c r="N27" s="66">
-        <f t="shared" si="41"/>
-        <v>15.729381123276591</v>
-      </c>
-      <c r="O27" s="66">
-        <f t="shared" si="41"/>
-        <v>16.63729565711462</v>
-      </c>
-      <c r="P27" s="66">
-        <f t="shared" si="41"/>
-        <v>17.550391501549107</v>
-      </c>
-      <c r="Q27" s="66">
-        <f t="shared" si="41"/>
-        <v>18.469422605035977</v>
-      </c>
-      <c r="R27" s="66">
-        <f t="shared" ref="R27" si="42">R26/R28</f>
-        <v>19.395128131507686</v>
-      </c>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-    </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="G27" s="62">
+        <f t="shared" si="105"/>
+        <v>3.0559423383898667</v>
+      </c>
+      <c r="H27" s="62">
+        <f t="shared" si="105"/>
+        <v>3.3269162422715448</v>
+      </c>
+      <c r="I27" s="63">
+        <f t="shared" ref="I27:Q27" si="106">I26/I28</f>
+        <v>3.1838579521143777</v>
+      </c>
+      <c r="J27" s="63">
+        <f t="shared" si="106"/>
+        <v>3.3266616496961365</v>
+      </c>
+      <c r="K27" s="63">
+        <f t="shared" si="106"/>
+        <v>3.5285571743716169</v>
+      </c>
+      <c r="L27" s="63">
+        <f t="shared" si="106"/>
+        <v>3.80542086355883</v>
+      </c>
+      <c r="M27" s="63">
+        <f t="shared" si="106"/>
+        <v>4.1771320108120982</v>
+      </c>
+      <c r="N27" s="63">
+        <f t="shared" si="106"/>
+        <v>4.4651233271058688</v>
+      </c>
+      <c r="O27" s="63">
+        <f t="shared" si="106"/>
+        <v>4.7539068377295886</v>
+      </c>
+      <c r="P27" s="63">
+        <f t="shared" si="106"/>
+        <v>5.0437468418205578</v>
+      </c>
+      <c r="Q27" s="63">
+        <f t="shared" si="106"/>
+        <v>5.3349013416207667</v>
+      </c>
+      <c r="R27" s="63">
+        <f t="shared" ref="R27:S27" si="107">R26/R28</f>
+        <v>5.627622485616059</v>
+      </c>
+      <c r="S27" s="63">
+        <f t="shared" si="107"/>
+        <v>5.9221569923394179</v>
+      </c>
+      <c r="T27" s="63">
+        <f t="shared" ref="T27:W27" si="108">T26/T28</f>
+        <v>6.2187465558568986</v>
+      </c>
+      <c r="U27" s="63">
+        <f t="shared" si="108"/>
+        <v>6.5176282339049676</v>
+      </c>
+      <c r="V27" s="63">
+        <f t="shared" si="108"/>
+        <v>6.8190348196007129</v>
+      </c>
+      <c r="W27" s="63">
+        <f t="shared" si="108"/>
+        <v>7.1231951976014765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2833,60 +3326,75 @@
         <v>4848</v>
       </c>
       <c r="G28" s="9">
-        <f>F28</f>
-        <v>4848</v>
+        <f>Reports!Y21</f>
+        <v>18081.492999999999</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28:R28" si="43">G28</f>
-        <v>4848</v>
+        <f>Reports!AC21</f>
+        <v>17256.521000000001</v>
       </c>
       <c r="I28" s="9">
         <f>H28</f>
-        <v>4848</v>
+        <v>17256.521000000001</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" ref="J28:W28" si="109">I28</f>
+        <v>17256.521000000001</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="43"/>
-        <v>4848</v>
-      </c>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.15">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="109"/>
+        <v>17256.521000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:177" x14ac:dyDescent="0.15">
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -2910,782 +3418,983 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="1:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:177" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="26">
-        <f t="shared" ref="C30:R30" si="44">C16/B16-1</f>
+        <f t="shared" ref="C30:W30" si="110">C16/B16-1</f>
         <v>0.27856341803659834</v>
       </c>
       <c r="D30" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="110"/>
         <v>-7.7342061913013738E-2</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="110"/>
         <v>6.304518199398057E-2</v>
       </c>
       <c r="F30" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="110"/>
         <v>0.15861957650261305</v>
       </c>
       <c r="G30" s="26">
-        <f t="shared" si="44"/>
-        <v>4.9173704324253276E-2</v>
+        <f t="shared" si="110"/>
+        <v>-2.04107758052674E-2</v>
       </c>
       <c r="H30" s="26">
-        <f t="shared" si="44"/>
-        <v>5.5124776206473491E-2</v>
+        <f t="shared" si="110"/>
+        <v>5.5120803769784787E-2</v>
       </c>
       <c r="I30" s="26">
-        <f t="shared" si="44"/>
-        <v>6.1551542423099237E-2</v>
+        <f t="shared" si="110"/>
+        <v>6.0505254721963997E-2</v>
       </c>
       <c r="J30" s="26">
-        <f t="shared" si="44"/>
-        <v>6.8426470040043652E-2</v>
+        <f t="shared" si="110"/>
+        <v>7.1482200404912488E-2</v>
       </c>
       <c r="K30" s="26">
-        <f t="shared" si="44"/>
-        <v>7.5703302974224007E-2</v>
+        <f t="shared" si="110"/>
+        <v>8.3099798311395245E-2</v>
       </c>
       <c r="L30" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="110"/>
+        <v>9.5158509443235006E-2</v>
+      </c>
+      <c r="M30" s="26">
+        <f t="shared" si="110"/>
+        <v>0.10742460531132458</v>
+      </c>
+      <c r="N30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="M30" s="26">
-        <f t="shared" si="44"/>
+      <c r="O30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="N30" s="26">
-        <f t="shared" si="44"/>
+      <c r="P30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="O30" s="26">
-        <f t="shared" si="44"/>
+      <c r="Q30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="P30" s="26">
-        <f t="shared" si="44"/>
+      <c r="R30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q30" s="26">
-        <f t="shared" si="44"/>
+      <c r="S30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R30" s="26">
-        <f t="shared" si="44"/>
+      <c r="T30" s="26">
+        <f t="shared" si="110"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-    </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.15">
+      <c r="U30" s="26">
+        <f t="shared" si="110"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="V30" s="26">
+        <f t="shared" si="110"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="W30" s="26">
+        <f t="shared" si="110"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:177" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="27">
-        <f t="shared" ref="C31:R31" si="45">C19/B19-1</f>
+        <f t="shared" ref="C31:W31" si="111">C19/B19-1</f>
         <v>0.33537493792418482</v>
       </c>
       <c r="D31" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="111"/>
         <v>0.24519647948431889</v>
       </c>
       <c r="E31" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="111"/>
         <v>0.15291189646590353</v>
       </c>
       <c r="F31" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="111"/>
         <v>0.22925481391935065</v>
       </c>
       <c r="G31" s="27">
-        <f t="shared" si="45"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="111"/>
+        <v>0.13915425681371163</v>
       </c>
       <c r="H31" s="27">
-        <f t="shared" si="45"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="111"/>
+        <v>0.15631744465684161</v>
       </c>
       <c r="I31" s="27">
-        <f t="shared" si="45"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="111"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="J31" s="27">
-        <f t="shared" si="45"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="111"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="45"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="111"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="L31" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="111"/>
+        <v>0.15000000000000013</v>
+      </c>
+      <c r="M31" s="27">
+        <f t="shared" si="111"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="N31" s="27">
+        <f t="shared" si="111"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O31" s="27">
+        <f t="shared" si="111"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="P31" s="27">
+        <f t="shared" si="111"/>
         <v>-2.0000000000000129E-2</v>
       </c>
-      <c r="M31" s="27">
-        <f t="shared" si="45"/>
+      <c r="Q31" s="27">
+        <f t="shared" si="111"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="R31" s="27">
+        <f t="shared" si="111"/>
         <v>-1.9999999999999907E-2</v>
       </c>
-      <c r="N31" s="27">
-        <f t="shared" si="45"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="O31" s="27">
-        <f t="shared" si="45"/>
+      <c r="S31" s="27">
+        <f t="shared" si="111"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="T31" s="27">
+        <f t="shared" si="111"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P31" s="27">
-        <f t="shared" si="45"/>
+      <c r="U31" s="27">
+        <f t="shared" si="111"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="Q31" s="27">
-        <f t="shared" si="45"/>
+      <c r="V31" s="27">
+        <f t="shared" si="111"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="R31" s="27">
-        <f t="shared" si="45"/>
+      <c r="W31" s="27">
+        <f t="shared" si="111"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-    </row>
-    <row r="32" spans="1:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:177" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="27">
-        <f t="shared" ref="C32:R32" si="46">C20/B20-1</f>
+        <f t="shared" ref="C32:W32" si="112">C20/B20-1</f>
         <v>0.19478028850162588</v>
       </c>
       <c r="D32" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="112"/>
         <v>-9.4214529974178118E-3</v>
       </c>
       <c r="E32" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="112"/>
         <v>7.5172608144286279E-2</v>
       </c>
       <c r="F32" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="112"/>
         <v>9.4620273900792862E-2</v>
       </c>
       <c r="G32" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="112"/>
+        <v>9.2187967674348892E-2</v>
+      </c>
+      <c r="H32" s="27">
+        <f t="shared" si="112"/>
+        <v>9.1586736092080123E-2</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="H32" s="27">
-        <f t="shared" si="46"/>
+      <c r="J32" s="27">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="I32" s="27">
-        <f t="shared" si="46"/>
+      <c r="K32" s="27">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="J32" s="27">
-        <f t="shared" si="46"/>
+      <c r="L32" s="27">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K32" s="27">
-        <f t="shared" si="46"/>
+      <c r="M32" s="27">
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L32" s="27">
-        <f t="shared" si="46"/>
+      <c r="N32" s="27">
+        <f t="shared" si="112"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="M32" s="27">
-        <f t="shared" si="46"/>
+      <c r="O32" s="27">
+        <f t="shared" si="112"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="112"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="N32" s="27">
-        <f t="shared" si="46"/>
+      <c r="Q32" s="27">
+        <f t="shared" si="112"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="112"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="S32" s="27">
+        <f t="shared" si="112"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="T32" s="27">
+        <f t="shared" si="112"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="U32" s="27">
+        <f t="shared" si="112"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="V32" s="27">
+        <f t="shared" si="112"/>
         <v>-5.0000000000000155E-2</v>
       </c>
-      <c r="O32" s="27">
-        <f t="shared" si="46"/>
+      <c r="W32" s="27">
+        <f t="shared" si="112"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="P32" s="27">
-        <f t="shared" si="46"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="Q32" s="27">
-        <f t="shared" si="46"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="R32" s="27">
-        <f t="shared" si="46"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+    </row>
+    <row r="33" spans="1:23" s="77" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76">
+        <f>C21/B21-1</f>
+        <v>0.24187645558389703</v>
+      </c>
+      <c r="D33" s="76">
+        <f t="shared" ref="D33:W33" si="113">D21/C21-1</f>
+        <v>8.229148062153957E-2</v>
+      </c>
+      <c r="E33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.1073889186847643</v>
+      </c>
+      <c r="F33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.15270844199389022</v>
+      </c>
+      <c r="G33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.11379722698038197</v>
+      </c>
+      <c r="H33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.12204747257849236</v>
+      </c>
+      <c r="I33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.1242474397434572</v>
+      </c>
+      <c r="J33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.1248028634259899</v>
+      </c>
+      <c r="K33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.12535848179921083</v>
+      </c>
+      <c r="L33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.12591374618909712</v>
+      </c>
+      <c r="M33" s="76">
+        <f t="shared" si="113"/>
+        <v>0.12646810931861285</v>
+      </c>
+      <c r="N33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.3787383523098735E-2</v>
+      </c>
+      <c r="O33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.3556037380988779E-2</v>
+      </c>
+      <c r="P33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.3325382546795623E-2</v>
+      </c>
+      <c r="Q33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.3095526861776303E-2</v>
+      </c>
+      <c r="R33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.2866576651889079E-2</v>
+      </c>
+      <c r="S33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.2638636535773147E-2</v>
+      </c>
+      <c r="T33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.241180923950393E-2</v>
+      </c>
+      <c r="U33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.2186195418798191E-2</v>
+      </c>
+      <c r="V33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.1961893489283133E-2</v>
+      </c>
+      <c r="W33" s="76">
+        <f t="shared" si="113"/>
+        <v>-3.1738999465402928E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="28">
-        <f t="shared" ref="B34:Q34" si="47">B18/B16</f>
-        <v>0.38588035777783858</v>
-      </c>
-      <c r="C34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.40059902017414373</v>
-      </c>
-      <c r="D34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.39075955648097049</v>
-      </c>
-      <c r="E34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38469860491899105</v>
-      </c>
-      <c r="F34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="G34" s="28">
-        <f>G18/G16</f>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="H34" s="28">
-        <f>H18/H16</f>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="I34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="J34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007905</v>
-      </c>
-      <c r="K34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="L34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="M34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="N34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007894</v>
-      </c>
-      <c r="O34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007894</v>
-      </c>
-      <c r="P34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="Q34" s="28">
-        <f t="shared" si="47"/>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="R34" s="28">
-        <f t="shared" ref="R34" si="48">R18/R16</f>
-        <v>0.38343718820007899</v>
-      </c>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="27">
-        <f t="shared" ref="B35:Q35" si="49">B22/B16</f>
-        <v>0.28722339232473537</v>
-      </c>
-      <c r="C35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.30477290717326661</v>
-      </c>
-      <c r="D35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.27835410106706115</v>
-      </c>
-      <c r="E35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.26760428208729942</v>
-      </c>
-      <c r="F35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.26694026619477024</v>
-      </c>
-      <c r="G35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.25618785444438402</v>
-      </c>
-      <c r="H35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.24496555371895989</v>
-      </c>
-      <c r="I35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.23338215608328777</v>
-      </c>
-      <c r="J35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.22157089861641888</v>
-      </c>
-      <c r="K35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.20968554305256681</v>
-      </c>
-      <c r="L35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.21870521186710051</v>
-      </c>
-      <c r="M35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.22721978433928738</v>
-      </c>
-      <c r="N35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.23525945725587344</v>
-      </c>
-      <c r="O35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.24285253023932732</v>
-      </c>
-      <c r="P35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.25002552907620329</v>
-      </c>
-      <c r="Q35" s="27">
-        <f t="shared" si="49"/>
-        <v>0.25680332085117286</v>
-      </c>
-      <c r="R35" s="27">
-        <f t="shared" ref="R35" si="50">R22/R16</f>
-        <v>0.26320922143851766</v>
-      </c>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B35" s="28">
+        <f t="shared" ref="B35:Q35" si="114">B18/B16</f>
+        <v>0.38588035777783858</v>
+      </c>
+      <c r="C35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.40059902017414373</v>
+      </c>
+      <c r="D35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.39075955648097049</v>
+      </c>
+      <c r="E35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38469860491899105</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38343718820007905</v>
+      </c>
+      <c r="G35" s="28">
+        <f>G18/G16</f>
+        <v>0.37817768109034722</v>
+      </c>
+      <c r="H35" s="28">
+        <f>H18/H16</f>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="I35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="K35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="L35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810871</v>
+      </c>
+      <c r="M35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810871</v>
+      </c>
+      <c r="N35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="P35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="Q35" s="28">
+        <f t="shared" si="114"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="R35" s="28">
+        <f t="shared" ref="R35:S35" si="115">R18/R16</f>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="S35" s="28">
+        <f t="shared" si="115"/>
+        <v>0.38233247727810865</v>
+      </c>
+      <c r="T35" s="28">
+        <f t="shared" ref="T35:W35" si="116">T18/T16</f>
+        <v>0.38233247727810871</v>
+      </c>
+      <c r="U35" s="28">
+        <f t="shared" si="116"/>
+        <v>0.38233247727810871</v>
+      </c>
+      <c r="V35" s="28">
+        <f t="shared" si="116"/>
+        <v>0.38233247727810871</v>
+      </c>
+      <c r="W35" s="28">
+        <f t="shared" si="116"/>
+        <v>0.38233247727810871</v>
+      </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="27">
+        <f t="shared" ref="B36:Q36" si="117">B22/B16</f>
+        <v>0.28722339232473537</v>
+      </c>
+      <c r="C36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.30477290717326661</v>
+      </c>
+      <c r="D36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.27835410106706115</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.26760428208729942</v>
+      </c>
+      <c r="F36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.26694026619477024</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.24572017188496928</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.24147314354406862</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.23300672466221836</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.22557575834976656</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.21945967137411679</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.21488572918963178</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.2120062800578926</v>
+      </c>
+      <c r="N36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.22098804524800505</v>
+      </c>
+      <c r="O36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.22945958292743501</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.23745174525320517</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="117"/>
+        <v>0.24499343035024645</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" ref="R36:S36" si="118">R22/R16</f>
+        <v>0.25211171000878491</v>
+      </c>
+      <c r="S36" s="27">
+        <f t="shared" si="118"/>
+        <v>0.25883194886927452</v>
+      </c>
+      <c r="T36" s="27">
+        <f t="shared" ref="T36:W36" si="119">T22/T16</f>
+        <v>0.26517791566921745</v>
+      </c>
+      <c r="U36" s="27">
+        <f t="shared" si="119"/>
+        <v>0.27117188708718337</v>
+      </c>
+      <c r="V36" s="27">
+        <f t="shared" si="119"/>
+        <v>0.27683474468297425</v>
+      </c>
+      <c r="W36" s="27">
+        <f t="shared" si="119"/>
+        <v>0.28218606539899477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B37" s="27">
         <f>B25/B24</f>
         <v>0.26126058747639436</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C37" s="27">
         <f>C25/C24</f>
         <v>0.26368337585327173</v>
       </c>
-      <c r="D36" s="27">
-        <f t="shared" ref="D36:E36" si="51">D25/D24</f>
+      <c r="D37" s="27">
+        <f t="shared" ref="D37:E37" si="120">D25/D24</f>
         <v>0.25557257381216192</v>
       </c>
-      <c r="E36" s="27">
-        <f t="shared" si="51"/>
+      <c r="E37" s="27">
+        <f t="shared" si="120"/>
         <v>0.24556476150353415</v>
       </c>
-      <c r="F36" s="27">
-        <f t="shared" ref="F36:Q36" si="52">F25/F24</f>
+      <c r="F37" s="27">
+        <f>F25/F24</f>
         <v>0.18342180705869443</v>
       </c>
-      <c r="G36" s="27">
-        <f t="shared" si="52"/>
+      <c r="G37" s="27">
+        <f>G25/G24</f>
+        <v>0.15943836804235059</v>
+      </c>
+      <c r="H37" s="27">
+        <f t="shared" ref="H37:Q37" si="121">H25/H24</f>
+        <v>0.14428164731484103</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="H36" s="27">
-        <f t="shared" si="52"/>
+      <c r="J37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="I36" s="27">
-        <f t="shared" si="52"/>
+      <c r="K37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="J36" s="27">
-        <f t="shared" si="52"/>
+      <c r="L37" s="27">
+        <f t="shared" si="121"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="M37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="K36" s="27">
-        <f t="shared" si="52"/>
+      <c r="N37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="L36" s="27">
-        <f t="shared" si="52"/>
+      <c r="O37" s="27">
+        <f t="shared" si="121"/>
         <v>0.2</v>
       </c>
-      <c r="M36" s="27">
-        <f t="shared" si="52"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="N36" s="27">
-        <f t="shared" si="52"/>
+      <c r="P37" s="27">
+        <f t="shared" si="121"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="Q37" s="27">
+        <f t="shared" si="121"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="R37" s="27">
+        <f t="shared" ref="R37:S37" si="122">R25/R24</f>
         <v>0.2</v>
       </c>
-      <c r="O36" s="27">
-        <f t="shared" si="52"/>
+      <c r="S37" s="27">
+        <f t="shared" si="122"/>
         <v>0.2</v>
       </c>
-      <c r="P36" s="27">
-        <f t="shared" si="52"/>
+      <c r="T37" s="27">
+        <f t="shared" ref="T37:W37" si="123">T25/T24</f>
         <v>0.2</v>
       </c>
-      <c r="Q36" s="27">
-        <f t="shared" si="52"/>
+      <c r="U37" s="27">
+        <f t="shared" si="123"/>
         <v>0.2</v>
       </c>
-      <c r="R36" s="27">
-        <f t="shared" ref="R36" si="53">R25/R24</f>
+      <c r="V37" s="27">
+        <f t="shared" si="123"/>
         <v>0.2</v>
       </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="W37" s="27">
+        <f t="shared" si="123"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="25">
-        <f>Reports!E31</f>
-        <v>126252</v>
-      </c>
-      <c r="C38" s="25">
-        <f>Reports!I31</f>
-        <v>149837</v>
-      </c>
-      <c r="D38" s="25">
-        <f>Reports!M31</f>
-        <v>158658</v>
-      </c>
-      <c r="E38" s="29">
-        <f>Reports!Q31</f>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="29">
+        <f>E40-E41</f>
         <v>165192</v>
       </c>
-      <c r="F38" s="29">
-        <f>Reports!U31</f>
+      <c r="F39" s="29">
+        <f>F40-F41</f>
         <v>134561</v>
       </c>
-      <c r="G38" s="29">
-        <f>F38+G26</f>
-        <v>192747.96869974211</v>
-      </c>
-      <c r="H38" s="29">
-        <f>G38+H26</f>
-        <v>251909.00593835753</v>
-      </c>
-      <c r="I38" s="29">
-        <f t="shared" ref="I38:Q38" si="54">H38+I26</f>
-        <v>312197.60763089155</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" si="54"/>
-        <v>373804.99586315086</v>
-      </c>
-      <c r="K38" s="29">
-        <f t="shared" si="54"/>
-        <v>436969.28815028688</v>
-      </c>
-      <c r="L38" s="29">
-        <f t="shared" si="54"/>
-        <v>504482.53086956462</v>
-      </c>
-      <c r="M38" s="29">
-        <f t="shared" si="54"/>
-        <v>576358.38716852525</v>
-      </c>
-      <c r="N38" s="29">
-        <f t="shared" si="54"/>
-        <v>652614.42685417016</v>
-      </c>
-      <c r="O38" s="29">
-        <f t="shared" si="54"/>
-        <v>733272.0361998619</v>
-      </c>
-      <c r="P38" s="29">
-        <f t="shared" si="54"/>
-        <v>818356.33419937198</v>
-      </c>
-      <c r="Q38" s="29">
-        <f t="shared" si="54"/>
-        <v>907896.09498858638</v>
-      </c>
-      <c r="R38" s="29">
-        <f t="shared" ref="R38" si="55">Q38+R26</f>
-        <v>1001923.6761701356</v>
-      </c>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-    </row>
-    <row r="39" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+      <c r="G39" s="29">
+        <f>G40-G41</f>
+        <v>103831</v>
+      </c>
+      <c r="H39" s="29">
+        <f>H40-H41</f>
+        <v>84390</v>
+      </c>
+      <c r="I39" s="29">
+        <f t="shared" ref="I39:Q39" si="124">H39+I26</f>
+        <v>139332.31161167874</v>
+      </c>
+      <c r="J39" s="29">
+        <f t="shared" si="124"/>
+        <v>196738.91822955478</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" si="124"/>
+        <v>257629.53920879925</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="124"/>
+        <v>323297.86425464036</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" si="124"/>
+        <v>395380.63051899156</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="124"/>
+        <v>472433.12498078385</v>
+      </c>
+      <c r="O39" s="29">
+        <f t="shared" si="124"/>
+        <v>554469.01815810811</v>
+      </c>
+      <c r="P39" s="29">
+        <f t="shared" si="124"/>
+        <v>641506.54145266826</v>
+      </c>
+      <c r="Q39" s="29">
+        <f t="shared" si="124"/>
+        <v>733568.37848727521</v>
+      </c>
+      <c r="R39" s="29">
+        <f t="shared" ref="R39:W39" si="125">Q39+R26</f>
+        <v>830681.56409038091</v>
+      </c>
+      <c r="S39" s="29">
+        <f t="shared" si="125"/>
+        <v>932877.39059398288</v>
+      </c>
+      <c r="T39" s="29">
+        <f t="shared" si="125"/>
+        <v>1040191.3211288052</v>
+      </c>
+      <c r="U39" s="29">
+        <f t="shared" si="125"/>
+        <v>1152662.9096173791</v>
+      </c>
+      <c r="V39" s="29">
+        <f t="shared" si="125"/>
+        <v>1270335.7271815501</v>
+      </c>
+      <c r="W39" s="29">
+        <f t="shared" si="125"/>
+        <v>1393257.2946960591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60">
+        <f>Reports!Q32</f>
+        <v>268895</v>
+      </c>
+      <c r="F40" s="60">
         <f>Reports!U32</f>
         <v>237080</v>
       </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-    </row>
-    <row r="40" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+      <c r="G40" s="60">
+        <f>Reports!Y32</f>
+        <v>205898</v>
+      </c>
+      <c r="H40" s="60">
+        <f>Reports!AC32</f>
+        <v>191830</v>
+      </c>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+    </row>
+    <row r="41" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63">
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60">
+        <f>Reports!Q33</f>
+        <v>103703</v>
+      </c>
+      <c r="F41" s="60">
         <f>Reports!U33</f>
         <v>102519</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
-      <c r="V40" s="63"/>
-      <c r="W40" s="63"/>
-    </row>
-    <row r="41" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
+      <c r="G41" s="60">
+        <f>Reports!Y33</f>
+        <v>102067</v>
+      </c>
+      <c r="H41" s="60">
+        <f>Reports!AC33</f>
+        <v>107440</v>
+      </c>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
     </row>
     <row r="42" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+    </row>
+    <row r="43" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63">
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60">
+        <f>Reports!Q35</f>
+        <v>8015</v>
+      </c>
+      <c r="F43" s="60">
         <f>Reports!U35</f>
         <v>0</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-    </row>
-    <row r="43" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="G43" s="60">
+        <f>Reports!Y35</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="60">
+        <f>Reports!AC35</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+    </row>
+    <row r="44" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63">
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60">
+        <f>Reports!Q36</f>
+        <v>375319</v>
+      </c>
+      <c r="F44" s="60">
         <f>Reports!U36</f>
         <v>365725</v>
       </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-    </row>
-    <row r="44" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="G44" s="60">
+        <f>Reports!Y36</f>
+        <v>338516</v>
+      </c>
+      <c r="H44" s="60">
+        <f>Reports!AC36</f>
+        <v>323888</v>
+      </c>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+    </row>
+    <row r="45" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63">
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60">
+        <f>Reports!Q37</f>
+        <v>100814</v>
+      </c>
+      <c r="F45" s="60">
         <f>Reports!U37</f>
         <v>116866</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="63"/>
-      <c r="W44" s="63"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
+      <c r="G45" s="60">
+        <f>Reports!Y37</f>
+        <v>248028</v>
+      </c>
+      <c r="H45" s="60">
+        <f>Reports!AC37</f>
+        <v>258549</v>
+      </c>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="42">
-        <f>F43-F39-F42</f>
-        <v>128645</v>
-      </c>
+      <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -3706,18 +4415,27 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="42">
-        <f t="shared" ref="F47" si="56">F43-F44</f>
-        <v>248859</v>
-      </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="41">
+        <f>E44-E40-E43</f>
+        <v>98409</v>
+      </c>
+      <c r="F47" s="41">
+        <f>F44-F40-F43</f>
+        <v>128645</v>
+      </c>
+      <c r="G47" s="41">
+        <f>G44-G40-G43</f>
+        <v>132618</v>
+      </c>
+      <c r="H47" s="41">
+        <f>H44-H40-H43</f>
+        <v>132058</v>
+      </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
@@ -3735,13 +4453,28 @@
       <c r="W47" s="30"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="E48" s="41">
+        <f t="shared" ref="E48" si="126">E44-E45</f>
+        <v>274505</v>
+      </c>
+      <c r="F48" s="41">
+        <f t="shared" ref="F48:G48" si="127">F44-F45</f>
+        <v>248859</v>
+      </c>
+      <c r="G48" s="41">
+        <f t="shared" si="127"/>
+        <v>90488</v>
+      </c>
+      <c r="H48" s="41">
+        <f t="shared" ref="H48" si="128">H44-H45</f>
+        <v>65339</v>
+      </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
@@ -3759,17 +4492,11 @@
       <c r="W48" s="30"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="30">
-        <f>F26/F47</f>
-        <v>0.23921578082367928</v>
-      </c>
+      <c r="F49" s="30"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
@@ -3788,553 +4515,700 @@
       <c r="V49" s="30"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74">
+        <f>E26/E48</f>
+        <v>0.17613886814447824</v>
+      </c>
+      <c r="F50" s="74">
+        <f>F26/F48</f>
+        <v>0.23921578082367928</v>
+      </c>
+      <c r="G50" s="74">
+        <f>G26/G48</f>
+        <v>0.61064450534877557</v>
+      </c>
+      <c r="H50" s="74">
+        <f>H26/H48</f>
+        <v>0.87866358530127486</v>
+      </c>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+    </row>
+    <row r="51" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30">
-        <f>F26/F43</f>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74">
+        <f>E26/E44</f>
+        <v>0.12882641166580963</v>
+      </c>
+      <c r="F51" s="74">
+        <f>F26/F44</f>
         <v>0.16277530931710985</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="G51" s="74">
+        <f>G26/G44</f>
+        <v>0.16323009842961633</v>
+      </c>
+      <c r="H51" s="74">
+        <f>H26/H44</f>
+        <v>0.1772557180259843</v>
+      </c>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="74"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="74"/>
+      <c r="W51" s="74"/>
+    </row>
+    <row r="52" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30">
-        <f>F26/(F47-F42)</f>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74">
+        <f>E26/(E48-E43)</f>
+        <v>0.18143645164921759</v>
+      </c>
+      <c r="F52" s="74">
+        <f>F26/(F48-F43)</f>
         <v>0.23921578082367928</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+      <c r="G52" s="74">
+        <f>G26/(G48-G43)</f>
+        <v>0.61064450534877557</v>
+      </c>
+      <c r="H52" s="74">
+        <f>H26/(H48-H43)</f>
+        <v>0.87866358530127486</v>
+      </c>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
+      <c r="W52" s="74"/>
+    </row>
+    <row r="53" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30">
-        <f>F26/F46</f>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74">
+        <f>E26/E47</f>
+        <v>0.49132701277322194</v>
+      </c>
+      <c r="F53" s="74">
+        <f>F26/F47</f>
         <v>0.46275409071475765</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="G53" s="74">
+        <f>G26/G47</f>
+        <v>0.41665535598485876</v>
+      </c>
+      <c r="H53" s="74">
+        <f>H26/H47</f>
+        <v>0.43474079571097546</v>
+      </c>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="74"/>
+      <c r="W53" s="74"/>
+    </row>
+    <row r="54" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="74"/>
+      <c r="W54" s="74"/>
+    </row>
+    <row r="55" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="31">
-        <f t="shared" ref="C54:F58" si="57">C10/B10-1</f>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31">
+        <f t="shared" ref="C55:F59" si="129">C10/B10-1</f>
         <v>0.52014393426870997</v>
       </c>
-      <c r="D54" s="31">
-        <f t="shared" si="57"/>
+      <c r="D55" s="31">
+        <f t="shared" si="129"/>
         <v>-0.11829774059764842</v>
       </c>
-      <c r="E54" s="31">
-        <f t="shared" si="57"/>
+      <c r="E55" s="31">
+        <f t="shared" si="129"/>
         <v>3.3789319678127372E-2</v>
       </c>
-      <c r="F54" s="31">
-        <f t="shared" si="57"/>
+      <c r="F55" s="31">
+        <f t="shared" si="129"/>
         <v>0.1795936852086415</v>
       </c>
-      <c r="G54" s="31">
-        <f t="shared" ref="G54:K54" si="58">G10/F10-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H54" s="31">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I54" s="31">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="J54" s="31">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="K54" s="31">
-        <f t="shared" si="58"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="G55" s="31">
+        <f t="shared" ref="G55:M55" si="130">G10/F10-1</f>
+        <v>-0.14587969933832834</v>
+      </c>
+      <c r="H55" s="31">
+        <f t="shared" si="130"/>
+        <v>-3.2307681502447672E-2</v>
+      </c>
+      <c r="I55" s="31">
+        <f t="shared" si="130"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J55" s="31">
+        <f t="shared" si="130"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="K55" s="31">
+        <f t="shared" si="130"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="L55" s="31">
+        <f t="shared" si="130"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M55" s="31">
+        <f t="shared" si="130"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="31">
-        <f t="shared" si="57"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31">
+        <f t="shared" si="129"/>
         <v>-0.23300201433147305</v>
       </c>
-      <c r="D55" s="31">
-        <f t="shared" si="57"/>
+      <c r="D56" s="31">
+        <f t="shared" si="129"/>
         <v>-0.11189563869634478</v>
       </c>
-      <c r="E55" s="31">
-        <f t="shared" si="57"/>
+      <c r="E56" s="31">
+        <f t="shared" si="129"/>
         <v>-6.8159782819468662E-2</v>
       </c>
-      <c r="F55" s="31">
-        <f t="shared" si="57"/>
+      <c r="F56" s="31">
+        <f t="shared" si="129"/>
         <v>-2.169389241494124E-2</v>
       </c>
-      <c r="G55" s="31">
-        <f t="shared" ref="G55:K55" si="59">G11/F11-1</f>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="H55" s="31">
-        <f t="shared" si="59"/>
-        <v>-4.9999999999999933E-2</v>
-      </c>
-      <c r="I55" s="31">
-        <f t="shared" si="59"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="J55" s="31">
-        <f t="shared" si="59"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="K55" s="31">
-        <f t="shared" si="59"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+      <c r="G56" s="31">
+        <f t="shared" ref="G56:M56" si="131">G11/F11-1</f>
+        <v>0.13161393246477004</v>
+      </c>
+      <c r="H56" s="31">
+        <f t="shared" si="131"/>
+        <v>0.11484962406015042</v>
+      </c>
+      <c r="I56" s="31">
+        <f t="shared" si="131"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="J56" s="31">
+        <f t="shared" si="131"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="K56" s="31">
+        <f t="shared" si="131"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="L56" s="31">
+        <f t="shared" si="131"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M56" s="31">
+        <f t="shared" si="131"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="31">
-        <f t="shared" si="57"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31">
+        <f t="shared" si="129"/>
         <v>5.7809709705552548E-2</v>
       </c>
-      <c r="D56" s="31">
-        <f t="shared" si="57"/>
+      <c r="D57" s="31">
+        <f t="shared" si="129"/>
         <v>-0.10364728514781518</v>
       </c>
-      <c r="E56" s="31">
-        <f t="shared" si="57"/>
+      <c r="E57" s="31">
+        <f t="shared" si="129"/>
         <v>0.13223249091148004</v>
       </c>
-      <c r="F56" s="31">
-        <f t="shared" si="57"/>
+      <c r="F57" s="31">
+        <f t="shared" si="129"/>
         <v>-1.4158607350096664E-2</v>
       </c>
-      <c r="G56" s="31">
-        <f t="shared" ref="G56:K56" si="60">G12/F12-1</f>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="H56" s="31">
-        <f t="shared" si="60"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="I56" s="31">
-        <f t="shared" si="60"/>
-        <v>-9.9999999999998979E-3</v>
-      </c>
-      <c r="J56" s="31">
-        <f t="shared" si="60"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="K56" s="31">
-        <f t="shared" si="60"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="G57" s="31">
+        <f t="shared" ref="G57:M57" si="132">G12/F12-1</f>
+        <v>1.00455187568671E-2</v>
+      </c>
+      <c r="H57" s="31">
+        <f t="shared" si="132"/>
+        <v>0.11196581196581201</v>
+      </c>
+      <c r="I57" s="31">
+        <f t="shared" si="132"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J57" s="31">
+        <f t="shared" si="132"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K57" s="31">
+        <f t="shared" si="132"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L57" s="31">
+        <f t="shared" si="132"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M57" s="31">
+        <f t="shared" si="132"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="31">
-        <f t="shared" si="57"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31">
+        <f t="shared" si="129"/>
         <v>0.10219786303493339</v>
       </c>
-      <c r="D57" s="31">
-        <f t="shared" si="57"/>
+      <c r="D58" s="31">
+        <f t="shared" si="129"/>
         <v>0.22296448842232164</v>
       </c>
-      <c r="E57" s="31">
-        <f t="shared" si="57"/>
+      <c r="E58" s="31">
+        <f t="shared" si="129"/>
         <v>0.23131263348118947</v>
       </c>
-      <c r="F57" s="31">
-        <f t="shared" si="57"/>
+      <c r="F58" s="31">
+        <f t="shared" si="129"/>
         <v>0.24049366244162784</v>
       </c>
-      <c r="G57" s="31">
-        <f t="shared" ref="G57:K57" si="61">G13/F13-1</f>
+      <c r="G58" s="31">
+        <f t="shared" ref="G58:M58" si="133">G13/F13-1</f>
+        <v>0.24471632159182577</v>
+      </c>
+      <c r="H58" s="31">
+        <f t="shared" si="133"/>
+        <v>0.16152167807997242</v>
+      </c>
+      <c r="I58" s="31">
+        <f t="shared" si="133"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="H57" s="31">
-        <f t="shared" si="61"/>
+      <c r="J58" s="31">
+        <f t="shared" si="133"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I57" s="31">
-        <f t="shared" si="61"/>
+      <c r="K58" s="31">
+        <f t="shared" si="133"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="J57" s="31">
-        <f t="shared" si="61"/>
+      <c r="L58" s="31">
+        <f t="shared" si="133"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K57" s="31">
-        <f t="shared" si="61"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="M58" s="31">
+        <f t="shared" si="133"/>
+        <v>0.19999999999999973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="31">
-        <f t="shared" si="57"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31">
+        <f t="shared" si="129"/>
         <v>0.20145602100489324</v>
       </c>
-      <c r="D58" s="31">
-        <f t="shared" si="57"/>
+      <c r="D59" s="31">
+        <f t="shared" si="129"/>
         <v>0.10579119896692157</v>
       </c>
-      <c r="E58" s="31">
-        <f t="shared" si="57"/>
+      <c r="E59" s="31">
+        <f t="shared" si="129"/>
         <v>0.15549766439094492</v>
       </c>
-      <c r="F58" s="31">
-        <f t="shared" si="57"/>
+      <c r="F59" s="31">
+        <f t="shared" si="129"/>
         <v>0.35403871569618284</v>
       </c>
-      <c r="G58" s="31">
-        <f t="shared" ref="G58:K58" si="62">G14/F14-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H58" s="31">
-        <f t="shared" si="62"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I58" s="31">
-        <f t="shared" si="62"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J58" s="31">
-        <f t="shared" si="62"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="K58" s="31">
-        <f t="shared" si="62"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="G59" s="31">
+        <f t="shared" ref="G59:M59" si="134">G14/F14-1</f>
+        <v>0.40563816960440957</v>
+      </c>
+      <c r="H59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25071481088146386</v>
+      </c>
+      <c r="I59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25</v>
+      </c>
+      <c r="J59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25</v>
+      </c>
+      <c r="L59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25</v>
+      </c>
+      <c r="M59" s="31">
+        <f t="shared" si="134"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B61" s="32">
         <f>B10/B16</f>
         <v>0.55795289805519843</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C61" s="32">
         <f>C10/C16</f>
         <v>0.6633763344244058</v>
       </c>
-      <c r="D60" s="32">
-        <f t="shared" ref="D60:F60" si="63">D10/D16</f>
+      <c r="D61" s="32">
+        <f t="shared" ref="D61:F61" si="135">D10/D16</f>
         <v>0.63392985498912535</v>
       </c>
-      <c r="E60" s="32">
-        <f t="shared" si="63"/>
+      <c r="E61" s="32">
+        <f t="shared" si="135"/>
         <v>0.61648359318425716</v>
       </c>
-      <c r="F60" s="32">
-        <f t="shared" si="63"/>
+      <c r="F61" s="32">
+        <f t="shared" si="135"/>
         <v>0.62764359268811531</v>
       </c>
-      <c r="G60" s="32">
-        <f t="shared" ref="G60:K60" si="64">G10/G16</f>
-        <v>0.61019110744317828</v>
-      </c>
-      <c r="H60" s="32">
-        <f t="shared" si="64"/>
-        <v>0.58987803492754654</v>
-      </c>
-      <c r="I60" s="32">
-        <f t="shared" si="64"/>
-        <v>0.56678886665522776</v>
-      </c>
-      <c r="J60" s="32">
-        <f t="shared" si="64"/>
-        <v>0.54109913990306213</v>
-      </c>
-      <c r="K60" s="32">
-        <f t="shared" si="64"/>
-        <v>0.51307932324378902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
+      <c r="G61" s="32">
+        <f t="shared" ref="G61:K61" si="136">G10/G16</f>
+        <v>0.54725299222827795</v>
+      </c>
+      <c r="H61" s="32">
+        <f t="shared" si="136"/>
+        <v>0.50190699961750729</v>
+      </c>
+      <c r="I61" s="32">
+        <f t="shared" si="136"/>
+        <v>0.46380615035623929</v>
+      </c>
+      <c r="J61" s="32">
+        <f t="shared" si="136"/>
+        <v>0.42420679240154224</v>
+      </c>
+      <c r="K61" s="32">
+        <f t="shared" si="136"/>
+        <v>0.38382673249652804</v>
+      </c>
+      <c r="L61" s="32">
+        <f t="shared" ref="L61:M61" si="137">L10/L16</f>
+        <v>0.34346644307939278</v>
+      </c>
+      <c r="M61" s="32">
+        <f t="shared" si="137"/>
+        <v>0.3039458511247175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B62" s="32">
         <f>B11/B16</f>
         <v>0.1656664569599825</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C62" s="32">
         <f>C11/C16</f>
         <v>9.9381725605973081E-2</v>
       </c>
-      <c r="D61" s="32">
-        <f t="shared" ref="D61:F61" si="65">D11/D16</f>
+      <c r="D62" s="32">
+        <f t="shared" ref="D62:F62" si="138">D11/D16</f>
         <v>9.5659875996457047E-2</v>
       </c>
-      <c r="E61" s="32">
-        <f t="shared" si="65"/>
+      <c r="E62" s="32">
+        <f t="shared" si="138"/>
         <v>8.3853180592756746E-2</v>
       </c>
-      <c r="F61" s="32">
-        <f t="shared" si="65"/>
+      <c r="F62" s="32">
+        <f t="shared" si="138"/>
         <v>7.0803290724599482E-2</v>
       </c>
-      <c r="G61" s="32">
-        <f t="shared" ref="G61:K61" si="66">G11/G16</f>
-        <v>6.4110571882557824E-2</v>
-      </c>
-      <c r="H61" s="32">
-        <f t="shared" si="66"/>
-        <v>5.7723071869664501E-2</v>
-      </c>
-      <c r="I61" s="32">
-        <f t="shared" si="66"/>
-        <v>5.1657329940862251E-2</v>
-      </c>
-      <c r="J61" s="32">
-        <f t="shared" si="66"/>
-        <v>4.5931530919465023E-2</v>
-      </c>
-      <c r="K61" s="32">
-        <f t="shared" si="66"/>
-        <v>4.0564116753053561E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+      <c r="G62" s="32">
+        <f t="shared" ref="G62:K62" si="139">G11/G16</f>
+        <v>8.1791416513564003E-2</v>
+      </c>
+      <c r="H62" s="32">
+        <f t="shared" si="139"/>
+        <v>8.6421507021474234E-2</v>
+      </c>
+      <c r="I62" s="32">
+        <f t="shared" si="139"/>
+        <v>7.9861062926320905E-2</v>
+      </c>
+      <c r="J62" s="32">
+        <f t="shared" si="139"/>
+        <v>7.3042596170257074E-2</v>
+      </c>
+      <c r="K62" s="32">
+        <f t="shared" si="139"/>
+        <v>6.6089703237366779E-2</v>
+      </c>
+      <c r="L62" s="32">
+        <f t="shared" ref="L62:M62" si="140">L11/L16</f>
+        <v>5.9140214511547419E-2</v>
+      </c>
+      <c r="M62" s="32">
+        <f t="shared" si="140"/>
+        <v>5.2335310181249955E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B63" s="32">
         <f>B12/B16</f>
         <v>0.13172679777893267</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C63" s="32">
         <f>C12/C16</f>
         <v>0.10898316325439103</v>
       </c>
-      <c r="D62" s="32">
-        <f t="shared" ref="D62:E62" si="67">D12/D16</f>
+      <c r="D63" s="32">
+        <f t="shared" ref="D63:E63" si="141">D12/D16</f>
         <v>0.10587602428132202</v>
       </c>
-      <c r="E62" s="32">
-        <f t="shared" si="67"/>
+      <c r="E63" s="32">
+        <f t="shared" si="141"/>
         <v>0.11276686704415576</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F63" s="32">
         <f>F12/F16</f>
         <v>9.5950601479696529E-2</v>
       </c>
-      <c r="G62" s="32">
-        <f t="shared" ref="G62:K62" si="68">G12/G16</f>
-        <v>9.0538959443404052E-2</v>
-      </c>
-      <c r="H62" s="32">
-        <f t="shared" si="68"/>
-        <v>8.4950682488219714E-2</v>
-      </c>
-      <c r="I62" s="32">
-        <f t="shared" si="68"/>
-        <v>7.9224768937142739E-2</v>
-      </c>
-      <c r="J62" s="32">
-        <f t="shared" si="68"/>
-        <v>7.3409376730278628E-2</v>
-      </c>
-      <c r="K62" s="32">
-        <f t="shared" si="68"/>
-        <v>6.7560713778636858E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="G63" s="32">
+        <f t="shared" ref="G63:K63" si="142">G12/G16</f>
+        <v>9.8933790463305332E-2</v>
+      </c>
+      <c r="H63" s="32">
+        <f t="shared" si="142"/>
+        <v>0.10426388357648944</v>
+      </c>
+      <c r="I63" s="32">
+        <f t="shared" si="142"/>
+        <v>0.10323105639303586</v>
+      </c>
+      <c r="J63" s="32">
+        <f t="shared" si="142"/>
+        <v>0.10116137176308308</v>
+      </c>
+      <c r="K63" s="32">
+        <f t="shared" si="142"/>
+        <v>9.8069855166475386E-2</v>
+      </c>
+      <c r="L63" s="32">
+        <f t="shared" ref="L63:M63" si="143">L12/L16</f>
+        <v>9.4025976182342361E-2</v>
+      </c>
+      <c r="M63" s="32">
+        <f t="shared" si="143"/>
+        <v>8.9150335397961286E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B64" s="32">
         <f>B13/B16</f>
         <v>9.8815613118520745E-2</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C64" s="32">
         <f>C13/C16</f>
         <v>8.518494747876687E-2</v>
       </c>
-      <c r="D63" s="32">
-        <f t="shared" ref="D63:F63" si="69">D13/D16</f>
+      <c r="D64" s="32">
+        <f t="shared" ref="D64:F64" si="144">D13/D16</f>
         <v>0.11291092984107698</v>
       </c>
-      <c r="E63" s="32">
-        <f t="shared" si="69"/>
+      <c r="E64" s="32">
+        <f t="shared" si="144"/>
         <v>0.13078339164347347</v>
       </c>
-      <c r="F63" s="32">
-        <f t="shared" si="69"/>
+      <c r="F64" s="32">
+        <f t="shared" si="144"/>
         <v>0.14002522637850864</v>
       </c>
-      <c r="G63" s="32">
-        <f t="shared" ref="G63:K63" si="70">G13/G16</f>
-        <v>0.16015486373863563</v>
-      </c>
-      <c r="H63" s="32">
-        <f t="shared" si="70"/>
-        <v>0.18214512711694167</v>
-      </c>
-      <c r="I63" s="32">
-        <f t="shared" si="70"/>
-        <v>0.20590064994998949</v>
-      </c>
-      <c r="J63" s="32">
-        <f t="shared" si="70"/>
-        <v>0.23125670026756923</v>
-      </c>
-      <c r="K63" s="32">
-        <f t="shared" si="70"/>
-        <v>0.25797823577727985</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+      <c r="G64" s="32">
+        <f t="shared" ref="G64:K64" si="145">G13/G16</f>
+        <v>0.17792323598822327</v>
+      </c>
+      <c r="H64" s="32">
+        <f t="shared" si="145"/>
+        <v>0.19586543540425841</v>
+      </c>
+      <c r="I64" s="32">
+        <f t="shared" si="145"/>
+        <v>0.22162881460378134</v>
+      </c>
+      <c r="J64" s="32">
+        <f t="shared" si="145"/>
+        <v>0.24821184843204444</v>
+      </c>
+      <c r="K64" s="32">
+        <f t="shared" si="145"/>
+        <v>0.27500163750637047</v>
+      </c>
+      <c r="L64" s="32">
+        <f t="shared" ref="L64:M64" si="146">L13/L16</f>
+        <v>0.30132803805306091</v>
+      </c>
+      <c r="M64" s="32">
+        <f t="shared" si="146"/>
+        <v>0.3265176192848091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B65" s="32">
         <f>B14/B16</f>
         <v>4.5838234087365627E-2</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C65" s="32">
         <f>C14/C16</f>
         <v>4.3073829236463211E-2</v>
       </c>
-      <c r="D64" s="32">
-        <f t="shared" ref="D64:F64" si="71">D14/D16</f>
+      <c r="D65" s="32">
+        <f t="shared" ref="D65:F65" si="147">D14/D16</f>
         <v>5.1623314892018608E-2</v>
       </c>
-      <c r="E64" s="32">
-        <f t="shared" si="71"/>
+      <c r="E65" s="32">
+        <f t="shared" si="147"/>
         <v>5.6112967535356884E-2</v>
       </c>
-      <c r="F64" s="32">
-        <f t="shared" si="71"/>
+      <c r="F65" s="32">
+        <f t="shared" si="147"/>
         <v>6.5577288729079988E-2</v>
       </c>
-      <c r="G64" s="32">
-        <f t="shared" ref="G64:K64" si="72">G14/G16</f>
-        <v>7.5004497492224154E-2</v>
-      </c>
-      <c r="H64" s="32">
-        <f t="shared" si="72"/>
-        <v>8.5303083597627657E-2</v>
-      </c>
-      <c r="I64" s="32">
-        <f t="shared" si="72"/>
-        <v>9.6428384516777807E-2</v>
-      </c>
-      <c r="J64" s="32">
-        <f t="shared" si="72"/>
-        <v>0.10830325217962497</v>
-      </c>
-      <c r="K64" s="32">
-        <f t="shared" si="72"/>
-        <v>0.12081761044724072</v>
+      <c r="G65" s="32">
+        <f t="shared" ref="G65:K65" si="148">G14/G16</f>
+        <v>9.4098564806629412E-2</v>
+      </c>
+      <c r="H65" s="32">
+        <f t="shared" si="148"/>
+        <v>0.11154217438027066</v>
+      </c>
+      <c r="I65" s="32">
+        <f t="shared" si="148"/>
+        <v>0.13147291572062272</v>
+      </c>
+      <c r="J65" s="32">
+        <f t="shared" si="148"/>
+        <v>0.1533773912330732</v>
+      </c>
+      <c r="K65" s="32">
+        <f t="shared" si="148"/>
+        <v>0.17701207159325935</v>
+      </c>
+      <c r="L65" s="32">
+        <f t="shared" ref="L65:M65" si="149">L14/L16</f>
+        <v>0.20203932817365647</v>
+      </c>
+      <c r="M65" s="32">
+        <f t="shared" si="149"/>
+        <v>0.22805088401126211</v>
       </c>
     </row>
   </sheetData>
@@ -4351,18 +5225,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T39" sqref="T39:T40"/>
+      <selection pane="bottomRight" activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="18"/>
     <col min="6" max="6" width="10.83203125" style="35"/>
     <col min="7" max="9" width="10.83203125" style="18"/>
@@ -4374,11 +5248,12 @@
     <col min="19" max="21" width="10.83203125" style="18"/>
     <col min="22" max="22" width="10.83203125" style="35"/>
     <col min="23" max="25" width="10.83203125" style="18"/>
-    <col min="26" max="16384" width="10.83203125" style="3"/>
+    <col min="26" max="26" width="10.83203125" style="72"/>
+    <col min="27" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="33" t="s">
@@ -4453,9 +5328,33 @@
       <c r="Y1" s="33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="Z1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65"/>
       <c r="B2" s="18" t="s">
         <v>90</v>
       </c>
@@ -4519,12 +5418,30 @@
       <c r="V2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="W2" s="67">
+        <v>43554</v>
+      </c>
+      <c r="X2" s="67">
+        <v>43645</v>
+      </c>
+      <c r="Y2" s="67">
+        <v>43736</v>
+      </c>
+      <c r="Z2" s="70">
+        <v>43827</v>
+      </c>
+      <c r="AA2" s="67">
+        <v>43918</v>
+      </c>
+      <c r="AB2" s="67">
+        <v>44009</v>
+      </c>
+      <c r="AC2" s="67">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="66" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="33">
@@ -4593,9 +5510,30 @@
       <c r="V3" s="34">
         <v>51982</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="W3" s="33">
+        <v>31051</v>
+      </c>
+      <c r="X3" s="33">
+        <v>25986</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>33362</v>
+      </c>
+      <c r="Z3" s="71">
+        <v>55957</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>28962</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>26418</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>26444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="33">
@@ -4664,9 +5602,30 @@
       <c r="V4" s="34">
         <v>6729</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="W4" s="33">
+        <v>4872</v>
+      </c>
+      <c r="X4" s="33">
+        <v>5023</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>4656</v>
+      </c>
+      <c r="Z4" s="71">
+        <v>5977</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>4368</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>6582</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>6797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="33">
@@ -4735,9 +5694,30 @@
       <c r="V5" s="34">
         <v>7416</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="W5" s="33">
+        <v>5513</v>
+      </c>
+      <c r="X5" s="33">
+        <v>5820</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>6991</v>
+      </c>
+      <c r="Z5" s="71">
+        <v>7160</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>5351</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>7079</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="33">
@@ -4806,9 +5786,30 @@
       <c r="V6" s="34">
         <v>10875</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="W6" s="33">
+        <v>11450</v>
+      </c>
+      <c r="X6" s="33">
+        <v>11455</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>12511</v>
+      </c>
+      <c r="Z6" s="71">
+        <v>12715</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>13348</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>13156</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>14549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="33">
@@ -4881,8 +5882,30 @@
       <c r="V7" s="34">
         <v>7308</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W7" s="33">
+        <v>5129</v>
+      </c>
+      <c r="X7" s="33">
+        <v>5525</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>6520</v>
+      </c>
+      <c r="Z7" s="71">
+        <v>10010</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>6284</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>6450</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="66"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -4895,18 +5918,24 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="W8" s="60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="33">
+        <v>55000</v>
+      </c>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="71"/>
+    </row>
+    <row r="9" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="38">
@@ -4993,14 +6022,37 @@
         <f>SUM(V3:V7)</f>
         <v>84310</v>
       </c>
-      <c r="W9" s="61">
-        <v>55000</v>
-      </c>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="W9" s="40">
+        <f>SUM(W3:W7)</f>
+        <v>58015</v>
+      </c>
+      <c r="X9" s="40">
+        <f>SUM(X3:X7)</f>
+        <v>53809</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>SUM(Y3:Y7)</f>
+        <v>64040</v>
+      </c>
+      <c r="Z9" s="39">
+        <f>SUM(Z3:Z7)</f>
+        <v>91819</v>
+      </c>
+      <c r="AA9" s="40">
+        <f>SUM(AA3:AA7)</f>
+        <v>58313</v>
+      </c>
+      <c r="AB9" s="40">
+        <f>SUM(AB3:AB7)</f>
+        <v>59685</v>
+      </c>
+      <c r="AC9" s="40">
+        <f>SUM(AC3:AC7)</f>
+        <v>64698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="66" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="33">
@@ -5066,98 +6118,147 @@
       <c r="V10" s="34">
         <v>52279</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="W10" s="33">
+        <v>36194</v>
+      </c>
+      <c r="X10" s="33">
+        <v>33582</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>39727</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>56602</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>35943</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>37005</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>40009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <f>B9-B10</f>
         <v>21846</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f t="shared" ref="C11:E11" si="2">C9-C10</f>
         <v>17947</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <f t="shared" si="2"/>
         <v>14735</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <f t="shared" si="2"/>
         <v>16009</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <f>F9-F10</f>
         <v>29741</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <f t="shared" ref="G11:I11" si="3">G9-G10</f>
         <v>23656</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <f t="shared" si="3"/>
         <v>19681</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="41">
         <f t="shared" si="3"/>
         <v>20548</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="42">
         <f t="shared" ref="J11:U11" si="4">J9-J10</f>
         <v>30423</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <f t="shared" si="4"/>
         <v>19921</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="41">
         <f t="shared" si="4"/>
         <v>16106</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="41">
         <f t="shared" si="4"/>
         <v>17813</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="42">
         <f t="shared" si="4"/>
         <v>30176</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <f t="shared" si="4"/>
         <v>20591</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="41">
         <f t="shared" si="4"/>
         <v>17488</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="41">
         <f>Q9-Q10</f>
         <v>19931</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <f>R9-R10</f>
         <v>33912</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="41">
         <f t="shared" si="4"/>
         <v>23422</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="41">
         <f t="shared" si="4"/>
         <v>20421</v>
       </c>
-      <c r="U11" s="42">
+      <c r="U11" s="41">
         <f t="shared" si="4"/>
         <v>24084</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="42">
         <f t="shared" ref="V11" si="5">V9-V10</f>
         <v>32031</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="W11" s="41">
+        <f t="shared" ref="W11:Y11" si="6">W9-W10</f>
+        <v>21821</v>
+      </c>
+      <c r="X11" s="41">
+        <f t="shared" si="6"/>
+        <v>20227</v>
+      </c>
+      <c r="Y11" s="41">
+        <f t="shared" si="6"/>
+        <v>24313</v>
+      </c>
+      <c r="Z11" s="42">
+        <f t="shared" ref="Z11:AC11" si="7">Z9-Z10</f>
+        <v>35217</v>
+      </c>
+      <c r="AA11" s="41">
+        <f t="shared" si="7"/>
+        <v>22370</v>
+      </c>
+      <c r="AB11" s="41">
+        <f t="shared" si="7"/>
+        <v>22680</v>
+      </c>
+      <c r="AC11" s="41">
+        <f t="shared" si="7"/>
+        <v>24689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="33">
@@ -5223,10 +6324,31 @@
       <c r="V12" s="34">
         <v>3902</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>45</v>
+      <c r="W12" s="33">
+        <v>3948</v>
+      </c>
+      <c r="X12" s="33">
+        <v>4257</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>4110</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>4451</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>4565</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>4758</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="66" t="s">
+        <v>113</v>
       </c>
       <c r="B13" s="33">
         <v>3053</v>
@@ -5291,187 +6413,264 @@
       <c r="V13" s="34">
         <v>4783</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="W13" s="33">
+        <v>4458</v>
+      </c>
+      <c r="X13" s="33">
+        <v>4426</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>4578</v>
+      </c>
+      <c r="Z13" s="71">
+        <v>5197</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>4952</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>4831</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="44">
-        <f t="shared" ref="B14:E14" si="6">SUM(B12:B13)</f>
+      <c r="B14" s="43">
+        <f t="shared" ref="B14:E14" si="8">SUM(B12:B13)</f>
         <v>4383</v>
       </c>
-      <c r="C14" s="44">
-        <f t="shared" si="6"/>
+      <c r="C14" s="43">
+        <f t="shared" si="8"/>
         <v>4354</v>
       </c>
-      <c r="D14" s="44">
-        <f t="shared" si="6"/>
+      <c r="D14" s="43">
+        <f t="shared" si="8"/>
         <v>4453</v>
       </c>
-      <c r="E14" s="44">
-        <f t="shared" si="6"/>
+      <c r="E14" s="43">
+        <f t="shared" si="8"/>
         <v>4844</v>
       </c>
-      <c r="F14" s="43">
-        <f t="shared" ref="F14:T14" si="7">SUM(F12:F13)</f>
+      <c r="F14" s="42">
+        <f t="shared" ref="F14:T14" si="9">SUM(F12:F13)</f>
         <v>5495</v>
       </c>
-      <c r="G14" s="44">
-        <f t="shared" si="7"/>
+      <c r="G14" s="43">
+        <f t="shared" si="9"/>
         <v>5378</v>
       </c>
-      <c r="H14" s="44">
-        <f t="shared" si="7"/>
+      <c r="H14" s="43">
+        <f t="shared" si="9"/>
         <v>5598</v>
       </c>
-      <c r="I14" s="44">
-        <f t="shared" si="7"/>
+      <c r="I14" s="43">
+        <f t="shared" si="9"/>
         <v>5925</v>
       </c>
-      <c r="J14" s="43">
-        <f t="shared" si="7"/>
+      <c r="J14" s="42">
+        <f t="shared" si="9"/>
         <v>6252</v>
       </c>
-      <c r="K14" s="42">
-        <f t="shared" si="7"/>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
         <v>5934</v>
       </c>
-      <c r="L14" s="42">
-        <f t="shared" si="7"/>
+      <c r="L14" s="41">
+        <f t="shared" si="9"/>
         <v>6001</v>
       </c>
-      <c r="M14" s="42">
-        <f t="shared" si="7"/>
+      <c r="M14" s="41">
+        <f t="shared" si="9"/>
         <v>6052</v>
       </c>
-      <c r="N14" s="43">
-        <f t="shared" si="7"/>
+      <c r="N14" s="42">
+        <f t="shared" si="9"/>
         <v>6817</v>
       </c>
-      <c r="O14" s="42">
-        <f t="shared" si="7"/>
+      <c r="O14" s="41">
+        <f t="shared" si="9"/>
         <v>6494</v>
       </c>
-      <c r="P14" s="42">
-        <f t="shared" si="7"/>
+      <c r="P14" s="41">
+        <f t="shared" si="9"/>
         <v>6720</v>
       </c>
-      <c r="Q14" s="42">
-        <f t="shared" si="7"/>
+      <c r="Q14" s="41">
+        <f t="shared" si="9"/>
         <v>6811</v>
       </c>
-      <c r="R14" s="43">
-        <f t="shared" si="7"/>
+      <c r="R14" s="42">
+        <f t="shared" si="9"/>
         <v>7638</v>
       </c>
-      <c r="S14" s="42">
-        <f t="shared" si="7"/>
+      <c r="S14" s="41">
+        <f t="shared" si="9"/>
         <v>7528</v>
       </c>
-      <c r="T14" s="42">
-        <f t="shared" si="7"/>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
         <v>7809</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="41">
         <f>SUM(U12:U13)</f>
         <v>7966</v>
       </c>
-      <c r="V14" s="43">
-        <f t="shared" ref="V14" si="8">SUM(V12:V13)</f>
+      <c r="V14" s="42">
+        <f t="shared" ref="V14:W14" si="10">SUM(V12:V13)</f>
         <v>8685</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="W14" s="41">
+        <f t="shared" si="10"/>
+        <v>8406</v>
+      </c>
+      <c r="X14" s="41">
+        <f t="shared" ref="X14:Y14" si="11">SUM(X12:X13)</f>
+        <v>8683</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="11"/>
+        <v>8688</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" ref="Z14:AA14" si="12">SUM(Z12:Z13)</f>
+        <v>9648</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="12"/>
+        <v>9517</v>
+      </c>
+      <c r="AB14" s="41">
+        <f t="shared" ref="AB14:AC14" si="13">SUM(AB12:AB13)</f>
+        <v>9589</v>
+      </c>
+      <c r="AC14" s="41">
+        <f t="shared" si="13"/>
+        <v>9914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="44">
-        <f t="shared" ref="B15:E15" si="9">B11-B14</f>
+      <c r="B15" s="43">
+        <f t="shared" ref="B15:E15" si="14">B11-B14</f>
         <v>17463</v>
       </c>
-      <c r="C15" s="44">
-        <f t="shared" si="9"/>
+      <c r="C15" s="43">
+        <f t="shared" si="14"/>
         <v>13593</v>
       </c>
-      <c r="D15" s="44">
-        <f t="shared" si="9"/>
+      <c r="D15" s="43">
+        <f t="shared" si="14"/>
         <v>10282</v>
       </c>
-      <c r="E15" s="44">
-        <f t="shared" si="9"/>
+      <c r="E15" s="43">
+        <f t="shared" si="14"/>
         <v>11165</v>
       </c>
-      <c r="F15" s="43">
-        <f t="shared" ref="F15:U15" si="10">F11-F14</f>
+      <c r="F15" s="42">
+        <f t="shared" ref="F15:U15" si="15">F11-F14</f>
         <v>24246</v>
       </c>
-      <c r="G15" s="44">
-        <f t="shared" si="10"/>
+      <c r="G15" s="43">
+        <f t="shared" si="15"/>
         <v>18278</v>
       </c>
-      <c r="H15" s="44">
-        <f t="shared" si="10"/>
+      <c r="H15" s="43">
+        <f t="shared" si="15"/>
         <v>14083</v>
       </c>
-      <c r="I15" s="44">
-        <f t="shared" si="10"/>
+      <c r="I15" s="43">
+        <f t="shared" si="15"/>
         <v>14623</v>
       </c>
-      <c r="J15" s="43">
-        <f t="shared" si="10"/>
+      <c r="J15" s="42">
+        <f t="shared" si="15"/>
         <v>24171</v>
       </c>
-      <c r="K15" s="42">
-        <f t="shared" si="10"/>
+      <c r="K15" s="41">
+        <f t="shared" si="15"/>
         <v>13987</v>
       </c>
-      <c r="L15" s="42">
-        <f t="shared" si="10"/>
+      <c r="L15" s="41">
+        <f t="shared" si="15"/>
         <v>10105</v>
       </c>
-      <c r="M15" s="42">
-        <f t="shared" si="10"/>
+      <c r="M15" s="41">
+        <f t="shared" si="15"/>
         <v>11761</v>
       </c>
-      <c r="N15" s="43">
-        <f t="shared" si="10"/>
+      <c r="N15" s="42">
+        <f t="shared" si="15"/>
         <v>23359</v>
       </c>
-      <c r="O15" s="42">
-        <f t="shared" si="10"/>
+      <c r="O15" s="41">
+        <f t="shared" si="15"/>
         <v>14097</v>
       </c>
-      <c r="P15" s="42">
-        <f t="shared" si="10"/>
+      <c r="P15" s="41">
+        <f t="shared" si="15"/>
         <v>10768</v>
       </c>
-      <c r="Q15" s="42">
-        <f t="shared" si="10"/>
+      <c r="Q15" s="41">
+        <f t="shared" si="15"/>
         <v>13120</v>
       </c>
-      <c r="R15" s="43">
-        <f t="shared" si="10"/>
+      <c r="R15" s="42">
+        <f t="shared" si="15"/>
         <v>26274</v>
       </c>
-      <c r="S15" s="42">
-        <f t="shared" si="10"/>
+      <c r="S15" s="41">
+        <f t="shared" si="15"/>
         <v>15894</v>
       </c>
-      <c r="T15" s="42">
-        <f t="shared" si="10"/>
+      <c r="T15" s="41">
+        <f t="shared" si="15"/>
         <v>12612</v>
       </c>
-      <c r="U15" s="42">
-        <f t="shared" si="10"/>
+      <c r="U15" s="41">
+        <f t="shared" si="15"/>
         <v>16118</v>
       </c>
-      <c r="V15" s="43">
-        <f t="shared" ref="V15" si="11">V11-V14</f>
+      <c r="V15" s="42">
+        <f t="shared" ref="V15:W15" si="16">V11-V14</f>
         <v>23346</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="W15" s="41">
+        <f t="shared" si="16"/>
+        <v>13415</v>
+      </c>
+      <c r="X15" s="41">
+        <f t="shared" ref="X15:Y15" si="17">X11-X14</f>
+        <v>11544</v>
+      </c>
+      <c r="Y15" s="41">
+        <f t="shared" si="17"/>
+        <v>15625</v>
+      </c>
+      <c r="Z15" s="42">
+        <f t="shared" ref="Z15:AA15" si="18">Z11-Z14</f>
+        <v>25569</v>
+      </c>
+      <c r="AA15" s="41">
+        <f t="shared" si="18"/>
+        <v>12853</v>
+      </c>
+      <c r="AB15" s="41">
+        <f t="shared" ref="AB15:AC15" si="19">AB11-AB14</f>
+        <v>13091</v>
+      </c>
+      <c r="AC15" s="41">
+        <f t="shared" si="19"/>
+        <v>14775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="33">
@@ -5537,98 +6736,147 @@
       <c r="V16" s="34">
         <v>560</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="W16" s="33">
+        <v>378</v>
+      </c>
+      <c r="X16" s="33">
+        <v>367</v>
+      </c>
+      <c r="Y16" s="33">
+        <v>502</v>
+      </c>
+      <c r="Z16" s="71">
+        <v>349</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>282</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>46</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44">
-        <f t="shared" ref="B17:E17" si="12">B15+B16</f>
+      <c r="B17" s="43">
+        <f t="shared" ref="B17:E17" si="20">B15+B16</f>
         <v>17709</v>
       </c>
-      <c r="C17" s="44">
-        <f t="shared" si="12"/>
+      <c r="C17" s="43">
+        <f t="shared" si="20"/>
         <v>13818</v>
       </c>
-      <c r="D17" s="44">
-        <f t="shared" si="12"/>
+      <c r="D17" s="43">
+        <f t="shared" si="20"/>
         <v>10484</v>
       </c>
-      <c r="E17" s="44">
-        <f t="shared" si="12"/>
+      <c r="E17" s="43">
+        <f t="shared" si="20"/>
         <v>11472</v>
       </c>
-      <c r="F17" s="43">
-        <f t="shared" ref="F17:M17" si="13">F15+F16</f>
+      <c r="F17" s="42">
+        <f t="shared" ref="F17:M17" si="21">F15+F16</f>
         <v>24416</v>
       </c>
-      <c r="G17" s="44">
-        <f t="shared" si="13"/>
+      <c r="G17" s="43">
+        <f t="shared" si="21"/>
         <v>18564</v>
       </c>
-      <c r="H17" s="44">
-        <f t="shared" si="13"/>
+      <c r="H17" s="43">
+        <f t="shared" si="21"/>
         <v>14473</v>
       </c>
-      <c r="I17" s="44">
-        <f t="shared" si="13"/>
+      <c r="I17" s="43">
+        <f t="shared" si="21"/>
         <v>15062</v>
       </c>
-      <c r="J17" s="43">
-        <f t="shared" si="13"/>
+      <c r="J17" s="42">
+        <f t="shared" si="21"/>
         <v>24573</v>
       </c>
-      <c r="K17" s="42">
-        <f t="shared" si="13"/>
+      <c r="K17" s="41">
+        <f t="shared" si="21"/>
         <v>14142</v>
       </c>
-      <c r="L17" s="42">
-        <f t="shared" si="13"/>
+      <c r="L17" s="41">
+        <f t="shared" si="21"/>
         <v>10469</v>
       </c>
-      <c r="M17" s="42">
-        <f t="shared" si="13"/>
+      <c r="M17" s="41">
+        <f t="shared" si="21"/>
         <v>12188</v>
       </c>
-      <c r="N17" s="43">
-        <f t="shared" ref="N17:P17" si="14">N15+N16</f>
+      <c r="N17" s="42">
+        <f t="shared" ref="N17:P17" si="22">N15+N16</f>
         <v>24180</v>
       </c>
-      <c r="O17" s="42">
-        <f t="shared" si="14"/>
+      <c r="O17" s="41">
+        <f t="shared" si="22"/>
         <v>14684</v>
       </c>
-      <c r="P17" s="42">
-        <f t="shared" si="14"/>
+      <c r="P17" s="41">
+        <f t="shared" si="22"/>
         <v>11308</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="41">
         <f>Q15+Q16</f>
         <v>13917</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="42">
         <f>R15+R16</f>
         <v>27030</v>
       </c>
-      <c r="S17" s="42">
-        <f t="shared" ref="S17:T17" si="15">S15+S16</f>
+      <c r="S17" s="41">
+        <f t="shared" ref="S17:T17" si="23">S15+S16</f>
         <v>16168</v>
       </c>
-      <c r="T17" s="42">
-        <f t="shared" si="15"/>
+      <c r="T17" s="41">
+        <f t="shared" si="23"/>
         <v>13284</v>
       </c>
-      <c r="U17" s="42">
-        <f t="shared" ref="U17:V17" si="16">U15+U16</f>
+      <c r="U17" s="41">
+        <f t="shared" ref="U17:V17" si="24">U15+U16</f>
         <v>16421</v>
       </c>
-      <c r="V17" s="43">
-        <f t="shared" si="16"/>
+      <c r="V17" s="42">
+        <f t="shared" si="24"/>
         <v>23906</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="W17" s="41">
+        <f t="shared" ref="W17:Y17" si="25">W15+W16</f>
+        <v>13793</v>
+      </c>
+      <c r="X17" s="41">
+        <f t="shared" si="25"/>
+        <v>11911</v>
+      </c>
+      <c r="Y17" s="41">
+        <f t="shared" si="25"/>
+        <v>16127</v>
+      </c>
+      <c r="Z17" s="42">
+        <f t="shared" ref="Z17:AC17" si="26">Z15+Z16</f>
+        <v>25918</v>
+      </c>
+      <c r="AA17" s="41">
+        <f t="shared" si="26"/>
+        <v>13135</v>
+      </c>
+      <c r="AB17" s="41">
+        <f t="shared" si="26"/>
+        <v>13137</v>
+      </c>
+      <c r="AC17" s="41">
+        <f t="shared" si="26"/>
+        <v>14901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="33">
@@ -5694,9 +6942,30 @@
       <c r="V18" s="34">
         <v>3941</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="W18" s="33">
+        <v>2232</v>
+      </c>
+      <c r="X18" s="33">
+        <v>1867</v>
+      </c>
+      <c r="Y18" s="33">
+        <v>2441</v>
+      </c>
+      <c r="Z18" s="71">
+        <v>3682</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>1886</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>1884</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="38">
@@ -5704,15 +6973,15 @@
         <v>13072</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" ref="C19:E19" si="17">C17-C18</f>
+        <f t="shared" ref="C19:E19" si="27">C17-C18</f>
         <v>10223</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7748</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8467</v>
       </c>
       <c r="F19" s="39">
@@ -5720,59 +6989,59 @@
         <v>18024</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" ref="G19:L19" si="18">G17-G18</f>
+        <f t="shared" ref="G19:L19" si="28">G17-G18</f>
         <v>13569</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>10677</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>11124</v>
       </c>
       <c r="J19" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>18361</v>
       </c>
       <c r="K19" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>10516</v>
       </c>
       <c r="L19" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7796</v>
       </c>
       <c r="M19" s="40">
-        <f t="shared" ref="M19:Q19" si="19">M17-M18</f>
+        <f t="shared" ref="M19:Q19" si="29">M17-M18</f>
         <v>9014</v>
       </c>
       <c r="N19" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>17891</v>
       </c>
       <c r="O19" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>11029</v>
       </c>
       <c r="P19" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>8717</v>
       </c>
       <c r="Q19" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>10714</v>
       </c>
       <c r="R19" s="39">
-        <f t="shared" ref="R19:S19" si="20">R17-R18</f>
+        <f t="shared" ref="R19:S19" si="30">R17-R18</f>
         <v>20065</v>
       </c>
       <c r="S19" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>13822</v>
       </c>
       <c r="T19" s="40">
-        <f t="shared" ref="T19:V19" si="21">T17-T18</f>
+        <f t="shared" ref="T19:W19" si="31">T17-T18</f>
         <v>11519</v>
       </c>
       <c r="U19" s="40">
@@ -5780,104 +7049,157 @@
         <v>14125</v>
       </c>
       <c r="V19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>19965</v>
       </c>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="W19" s="40">
+        <f t="shared" si="31"/>
+        <v>11561</v>
+      </c>
+      <c r="X19" s="40">
+        <f t="shared" ref="X19:Y19" si="32">X17-X18</f>
+        <v>10044</v>
+      </c>
+      <c r="Y19" s="40">
+        <f t="shared" si="32"/>
+        <v>13686</v>
+      </c>
+      <c r="Z19" s="39">
+        <f t="shared" ref="Z19:AA19" si="33">Z17-Z18</f>
+        <v>22236</v>
+      </c>
+      <c r="AA19" s="40">
+        <f t="shared" si="33"/>
+        <v>11249</v>
+      </c>
+      <c r="AB19" s="40">
+        <f t="shared" ref="AB19:AC19" si="34">AB17-AB18</f>
+        <v>11253</v>
+      </c>
+      <c r="AC19" s="40">
+        <f t="shared" si="34"/>
+        <v>12673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="44">
         <f>B19/B21</f>
         <v>14.508324084350722</v>
       </c>
-      <c r="C20" s="45">
-        <f t="shared" ref="C20:E20" si="22">C19/C21</f>
+      <c r="C20" s="44">
+        <f t="shared" ref="C20:E20" si="35">C19/C21</f>
         <v>11.617045454545455</v>
       </c>
-      <c r="D20" s="45">
-        <f t="shared" si="22"/>
+      <c r="D20" s="44">
+        <f t="shared" si="35"/>
         <v>1.2802379378717779</v>
       </c>
-      <c r="E20" s="45">
-        <f t="shared" si="22"/>
+      <c r="E20" s="44">
+        <f t="shared" si="35"/>
         <v>1.4177829872739451</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <f>F19/F21</f>
         <v>3.0642638558313497</v>
       </c>
-      <c r="G20" s="45">
-        <f t="shared" ref="G20:L20" si="23">G19/G21</f>
+      <c r="G20" s="44">
+        <f t="shared" ref="G20:L20" si="36">G19/G21</f>
         <v>2.3254498714652958</v>
       </c>
-      <c r="H20" s="45">
-        <f t="shared" si="23"/>
+      <c r="H20" s="44">
+        <f t="shared" si="36"/>
         <v>1.8494716785033778</v>
       </c>
-      <c r="I20" s="45">
-        <f t="shared" si="23"/>
+      <c r="I20" s="44">
+        <f t="shared" si="36"/>
         <v>1.957416857293683</v>
       </c>
-      <c r="J20" s="46">
-        <f t="shared" si="23"/>
+      <c r="J20" s="45">
+        <f t="shared" si="36"/>
         <v>3.2822667143367896</v>
       </c>
-      <c r="K20" s="47">
-        <f t="shared" si="23"/>
+      <c r="K20" s="46">
+        <f t="shared" si="36"/>
         <v>1.8978523732178307</v>
       </c>
-      <c r="L20" s="47">
-        <f t="shared" si="23"/>
+      <c r="L20" s="46">
+        <f t="shared" si="36"/>
         <v>1.4244472866800657</v>
       </c>
-      <c r="M20" s="47">
-        <f t="shared" ref="M20:Q20" si="24">M19/M21</f>
+      <c r="M20" s="46">
+        <f t="shared" ref="M20:Q20" si="37">M19/M21</f>
         <v>1.6714259224921195</v>
       </c>
-      <c r="N20" s="46">
-        <f t="shared" si="24"/>
+      <c r="N20" s="45">
+        <f t="shared" si="37"/>
         <v>3.3579204204204203</v>
       </c>
-      <c r="O20" s="47">
-        <f t="shared" si="24"/>
+      <c r="O20" s="46">
+        <f t="shared" si="37"/>
         <v>2.0959711136450019</v>
       </c>
-      <c r="P20" s="47">
-        <f t="shared" si="24"/>
+      <c r="P20" s="46">
+        <f t="shared" si="37"/>
         <v>1.6657748901203899</v>
       </c>
-      <c r="Q20" s="47">
-        <f t="shared" si="24"/>
+      <c r="Q20" s="46">
+        <f t="shared" si="37"/>
         <v>2.0671425815164963</v>
       </c>
-      <c r="R20" s="46">
-        <f t="shared" ref="R20:S20" si="25">R19/R21</f>
+      <c r="R20" s="45">
+        <f t="shared" ref="R20:S20" si="38">R19/R21</f>
         <v>3.8900736719658782</v>
       </c>
-      <c r="S20" s="47">
-        <f t="shared" si="25"/>
+      <c r="S20" s="46">
+        <f t="shared" si="38"/>
         <v>2.7273086029992109</v>
       </c>
-      <c r="T20" s="47">
-        <f t="shared" ref="T20:U20" si="26">T19/T21</f>
+      <c r="T20" s="46">
+        <f t="shared" ref="T20:U20" si="39">T19/T21</f>
         <v>2.3379338339760505</v>
       </c>
-      <c r="U20" s="47">
-        <f t="shared" si="26"/>
+      <c r="U20" s="46">
+        <f t="shared" si="39"/>
         <v>2.913572607260726</v>
       </c>
-      <c r="V20" s="46">
-        <f t="shared" ref="V20" si="27">V19/V21</f>
+      <c r="V20" s="45">
+        <f t="shared" ref="V20:W20" si="40">V19/V21</f>
         <v>4.182683001023201</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="W20" s="46">
+        <f t="shared" si="40"/>
+        <v>2.4594491906006111</v>
+      </c>
+      <c r="X20" s="46">
+        <f t="shared" ref="X20:Y20" si="41">X19/X21</f>
+        <v>2.1828234138454117</v>
+      </c>
+      <c r="Y20" s="46">
+        <f t="shared" si="41"/>
+        <v>0.75690652315049434</v>
+      </c>
+      <c r="Z20" s="45">
+        <f t="shared" ref="Z20:AA20" si="42">Z19/Z21</f>
+        <v>4.9916894969788554</v>
+      </c>
+      <c r="AA20" s="46">
+        <f t="shared" si="42"/>
+        <v>2.5538681374016932</v>
+      </c>
+      <c r="AB20" s="46">
+        <f t="shared" ref="AB20:AC20" si="43">AB19/AB21</f>
+        <v>2.5840523120758121</v>
+      </c>
+      <c r="AC20" s="46">
+        <f t="shared" si="43"/>
+        <v>0.73438904632051849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="66" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="33">
@@ -5943,8 +7265,29 @@
       <c r="V21" s="34">
         <v>4773.2520000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W21" s="33">
+        <v>4700.6459999999997</v>
+      </c>
+      <c r="X21" s="33">
+        <v>4601.38</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>18081.492999999999</v>
+      </c>
+      <c r="Z21" s="71">
+        <v>4454.6040000000003</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>4404.6909999999998</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>4354.7879999999996</v>
+      </c>
+      <c r="AC21" s="36">
+        <v>17256.521000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5961,237 +7304,316 @@
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
-    </row>
-    <row r="23" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="AC22" s="37"/>
+    </row>
+    <row r="23" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="56">
+      <c r="F23" s="55">
         <f>(F9/B9)-1</f>
         <v>0.29525645032468661</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="56">
         <f>(G9/C9)-1</f>
         <v>0.27086710774218981</v>
       </c>
-      <c r="H23" s="57">
-        <f t="shared" ref="H23" si="28">(H9/D9)-1</f>
+      <c r="H23" s="56">
+        <f t="shared" ref="H23" si="44">(H9/D9)-1</f>
         <v>0.32520303483650359</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="56">
         <f>(I9/E9)-1</f>
         <v>0.22263371554732569</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="55">
         <f>(J9/F9)-1</f>
         <v>1.7064571911151516E-2</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="56">
         <f>(K9/G9)-1</f>
         <v>-0.12847784864678502</v>
       </c>
-      <c r="L23" s="57">
-        <f t="shared" ref="L23:P23" si="29">(L9/H9)-1</f>
+      <c r="L23" s="56">
+        <f t="shared" ref="L23:P23" si="45">(L9/H9)-1</f>
         <v>-0.14609414373551055</v>
       </c>
-      <c r="M23" s="57">
-        <f t="shared" si="29"/>
+      <c r="M23" s="56">
+        <f t="shared" si="45"/>
         <v>-9.0270091842876821E-2</v>
       </c>
-      <c r="N23" s="56">
-        <f t="shared" si="29"/>
+      <c r="N23" s="55">
+        <f t="shared" si="45"/>
         <v>3.2673450021088124E-2</v>
       </c>
-      <c r="O23" s="57">
-        <f t="shared" si="29"/>
+      <c r="O23" s="56">
+        <f t="shared" si="45"/>
         <v>4.626461221987066E-2</v>
       </c>
-      <c r="P23" s="57">
-        <f t="shared" si="29"/>
+      <c r="P23" s="56">
+        <f t="shared" si="45"/>
         <v>7.2005288257235955E-2</v>
       </c>
-      <c r="Q23" s="57">
-        <f t="shared" ref="Q23:W23" si="30">(Q9/M9)-1</f>
+      <c r="Q23" s="56">
+        <f t="shared" ref="Q23:X23" si="46">(Q9/M9)-1</f>
         <v>0.1222359771194399</v>
       </c>
-      <c r="R23" s="56">
-        <f t="shared" si="30"/>
+      <c r="R23" s="55">
+        <f t="shared" si="46"/>
         <v>0.12689053107171566</v>
       </c>
-      <c r="S23" s="57">
-        <f t="shared" si="30"/>
+      <c r="S23" s="56">
+        <f t="shared" si="46"/>
         <v>0.15579627949183306</v>
       </c>
-      <c r="T23" s="57">
-        <f t="shared" si="30"/>
+      <c r="T23" s="56">
+        <f t="shared" si="46"/>
         <v>0.17303118393234662</v>
       </c>
-      <c r="U23" s="57">
-        <f t="shared" si="30"/>
+      <c r="U23" s="56">
+        <f t="shared" si="46"/>
         <v>0.19629509880370488</v>
       </c>
-      <c r="V23" s="56">
-        <f t="shared" si="30"/>
+      <c r="V23" s="55">
+        <f t="shared" si="46"/>
         <v>-4.5111163965433243E-2</v>
       </c>
-      <c r="W23" s="57">
-        <f t="shared" si="30"/>
-        <v>-0.10038111127467819</v>
-      </c>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="W23" s="56">
+        <f t="shared" si="46"/>
+        <v>-5.1065639465462831E-2</v>
+      </c>
+      <c r="X23" s="56">
+        <f t="shared" si="46"/>
+        <v>1.0213085515817122E-2</v>
+      </c>
+      <c r="Y23" s="56">
+        <f t="shared" ref="Y23" si="47">(Y9/U9)-1</f>
+        <v>1.8124006359300449E-2</v>
+      </c>
+      <c r="Z23" s="55">
+        <f t="shared" ref="Z23:AB23" si="48">(Z9/V9)-1</f>
+        <v>8.9064167951607098E-2</v>
+      </c>
+      <c r="AA23" s="56">
+        <f t="shared" si="48"/>
+        <v>5.1366026027750422E-3</v>
+      </c>
+      <c r="AB23" s="56">
+        <f t="shared" si="48"/>
+        <v>0.10920106301919752</v>
+      </c>
+      <c r="AC23" s="56">
+        <f t="shared" ref="AC23" si="49">(AC9/Y9)-1</f>
+        <v>1.0274828232354816E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f>F12/B12-1</f>
         <v>0.42481203007518786</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="58">
         <f>G12/C12-1</f>
         <v>0.34880450070323499</v>
       </c>
-      <c r="H24" s="59">
-        <f t="shared" ref="H24:V24" si="31">H12/D12-1</f>
+      <c r="H24" s="58">
+        <f t="shared" ref="H24:X25" si="50">H12/D12-1</f>
         <v>0.26887086712414221</v>
       </c>
-      <c r="I24" s="59">
-        <f t="shared" si="31"/>
+      <c r="I24" s="58">
+        <f t="shared" si="50"/>
         <v>0.31672597864768681</v>
       </c>
-      <c r="J24" s="58">
-        <f t="shared" si="31"/>
+      <c r="J24" s="57">
+        <f t="shared" si="50"/>
         <v>0.2686015831134565</v>
       </c>
-      <c r="K24" s="59">
-        <f t="shared" si="31"/>
+      <c r="K24" s="58">
+        <f t="shared" si="50"/>
         <v>0.3091762252346193</v>
       </c>
-      <c r="L24" s="59">
-        <f t="shared" si="31"/>
+      <c r="L24" s="58">
+        <f t="shared" si="50"/>
         <v>0.25860373647984258</v>
       </c>
-      <c r="M24" s="59">
-        <f t="shared" si="31"/>
+      <c r="M24" s="58">
+        <f t="shared" si="50"/>
         <v>0.1576576576576576</v>
       </c>
-      <c r="N24" s="58">
-        <f t="shared" si="31"/>
+      <c r="N24" s="57">
+        <f t="shared" si="50"/>
         <v>0.19425956738768724</v>
       </c>
-      <c r="O24" s="59">
-        <f t="shared" si="31"/>
+      <c r="O24" s="58">
+        <f t="shared" si="50"/>
         <v>0.10553564317005182</v>
       </c>
-      <c r="P24" s="59">
-        <f t="shared" si="31"/>
+      <c r="P24" s="58">
+        <f t="shared" si="50"/>
         <v>0.14726562499999996</v>
       </c>
-      <c r="Q24" s="59">
-        <f t="shared" si="31"/>
+      <c r="Q24" s="58">
+        <f t="shared" si="50"/>
         <v>0.16614785992217906</v>
       </c>
-      <c r="R24" s="58">
-        <f t="shared" si="31"/>
+      <c r="R24" s="57">
+        <f t="shared" si="50"/>
         <v>0.18669453152211779</v>
       </c>
-      <c r="S24" s="59">
-        <f t="shared" si="31"/>
+      <c r="S24" s="58">
+        <f t="shared" si="50"/>
         <v>0.2168587896253602</v>
       </c>
-      <c r="T24" s="59">
-        <f t="shared" si="31"/>
+      <c r="T24" s="58">
+        <f t="shared" si="50"/>
         <v>0.26012938372488925</v>
       </c>
-      <c r="U24" s="59">
-        <f t="shared" si="31"/>
+      <c r="U24" s="58">
+        <f t="shared" si="50"/>
         <v>0.25125125125125125</v>
       </c>
-      <c r="V24" s="58">
-        <f t="shared" si="31"/>
+      <c r="V24" s="57">
+        <f t="shared" si="50"/>
         <v>0.14528911065453487</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="58">
+      <c r="W24" s="58">
+        <f t="shared" si="50"/>
+        <v>0.1687388987566607</v>
+      </c>
+      <c r="X24" s="58">
+        <f t="shared" si="50"/>
+        <v>0.15022966765738999</v>
+      </c>
+      <c r="Y24" s="58">
+        <f t="shared" ref="Y24:Y25" si="51">Y12/U12-1</f>
+        <v>9.6000000000000085E-2</v>
+      </c>
+      <c r="Z24" s="57">
+        <f t="shared" ref="Z24:AB25" si="52">Z12/V12-1</f>
+        <v>0.1406970784213224</v>
+      </c>
+      <c r="AA24" s="58">
+        <f t="shared" si="52"/>
+        <v>0.15628166160081047</v>
+      </c>
+      <c r="AB24" s="58">
+        <f t="shared" si="52"/>
+        <v>0.11768851303735017</v>
+      </c>
+      <c r="AC24" s="58">
+        <f t="shared" ref="AC24:AC25" si="53">AC12/Y12-1</f>
+        <v>0.21119221411192224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="57">
         <f>F13/B13-1</f>
         <v>0.17916803144448079</v>
       </c>
-      <c r="G25" s="59">
-        <f t="shared" ref="G25:V25" si="32">G13/C13-1</f>
+      <c r="G25" s="58">
+        <f t="shared" ref="G25:V25" si="54">G13/C13-1</f>
         <v>0.18008185538881305</v>
       </c>
-      <c r="H25" s="59">
-        <f t="shared" si="32"/>
+      <c r="H25" s="58">
+        <f t="shared" si="54"/>
         <v>0.25052631578947371</v>
       </c>
-      <c r="I25" s="59">
-        <f t="shared" si="32"/>
+      <c r="I25" s="58">
+        <f t="shared" si="54"/>
         <v>0.17321089297023429</v>
       </c>
-      <c r="J25" s="58">
-        <f t="shared" si="32"/>
+      <c r="J25" s="57">
+        <f t="shared" si="54"/>
         <v>6.8888888888888999E-2</v>
       </c>
-      <c r="K25" s="59">
-        <f t="shared" si="32"/>
+      <c r="K25" s="58">
+        <f t="shared" si="54"/>
         <v>-1.0693641618497063E-2</v>
       </c>
-      <c r="L25" s="59">
-        <f t="shared" si="32"/>
+      <c r="L25" s="58">
+        <f t="shared" si="54"/>
         <v>-3.4511784511784493E-2</v>
       </c>
-      <c r="M25" s="59">
-        <f t="shared" si="32"/>
+      <c r="M25" s="58">
+        <f t="shared" si="54"/>
         <v>-6.018893387314439E-2</v>
       </c>
-      <c r="N25" s="58">
-        <f t="shared" si="32"/>
+      <c r="N25" s="57">
+        <f t="shared" si="54"/>
         <v>2.5467775467775455E-2</v>
       </c>
-      <c r="O25" s="59">
-        <f t="shared" si="32"/>
+      <c r="O25" s="58">
+        <f t="shared" si="54"/>
         <v>8.618171194858304E-2</v>
       </c>
-      <c r="P25" s="59">
-        <f t="shared" si="32"/>
+      <c r="P25" s="58">
+        <f t="shared" si="54"/>
         <v>9.9389712292938137E-2</v>
       </c>
-      <c r="Q25" s="59">
-        <f t="shared" si="32"/>
+      <c r="Q25" s="58">
+        <f t="shared" si="54"/>
         <v>9.5347501435956383E-2</v>
       </c>
-      <c r="R25" s="58">
-        <f t="shared" si="32"/>
+      <c r="R25" s="57">
+        <f t="shared" si="54"/>
         <v>7.2225038013177922E-2</v>
       </c>
-      <c r="S25" s="59">
-        <f t="shared" si="32"/>
+      <c r="S25" s="58">
+        <f t="shared" si="54"/>
         <v>0.11619150080688545</v>
       </c>
-      <c r="T25" s="59">
-        <f t="shared" si="32"/>
+      <c r="T25" s="58">
+        <f t="shared" si="54"/>
         <v>8.5910652920962116E-2</v>
       </c>
-      <c r="U25" s="59">
-        <f t="shared" si="32"/>
+      <c r="U25" s="58">
+        <f t="shared" si="54"/>
         <v>0.10540115364446767</v>
       </c>
-      <c r="V25" s="58">
-        <f t="shared" si="32"/>
+      <c r="V25" s="57">
+        <f t="shared" si="54"/>
         <v>0.13046561096667464</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W25" s="58">
+        <f t="shared" si="50"/>
+        <v>7.4216867469879544E-2</v>
+      </c>
+      <c r="X25" s="58">
+        <f t="shared" si="50"/>
+        <v>7.7409931840311641E-2</v>
+      </c>
+      <c r="Y25" s="58">
+        <f t="shared" si="51"/>
+        <v>8.5863377609108227E-2</v>
+      </c>
+      <c r="Z25" s="57">
+        <f t="shared" si="52"/>
+        <v>8.6556554463725677E-2</v>
+      </c>
+      <c r="AA25" s="58">
+        <f t="shared" si="52"/>
+        <v>0.11081202332884699</v>
+      </c>
+      <c r="AB25" s="58">
+        <f t="shared" si="52"/>
+        <v>9.1504744690465323E-2</v>
+      </c>
+      <c r="AC25" s="58">
+        <f t="shared" si="53"/>
+        <v>7.8200087374399319E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -6201,275 +7623,366 @@
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="50">
-        <f t="shared" ref="B27:V27" si="33">B11/B9</f>
+      <c r="B27" s="49">
+        <f t="shared" ref="B27:W27" si="55">B11/B9</f>
         <v>0.37931034482758619</v>
       </c>
-      <c r="C27" s="50">
-        <f t="shared" si="33"/>
+      <c r="C27" s="49">
+        <f t="shared" si="55"/>
         <v>0.39317793453971872</v>
       </c>
-      <c r="D27" s="50">
-        <f t="shared" si="33"/>
+      <c r="D27" s="49">
+        <f t="shared" si="55"/>
         <v>0.39364714682624491</v>
       </c>
-      <c r="E27" s="50">
-        <f t="shared" si="33"/>
+      <c r="E27" s="49">
+        <f t="shared" si="55"/>
         <v>0.38005365239892697</v>
       </c>
-      <c r="F27" s="51">
-        <f t="shared" si="33"/>
+      <c r="F27" s="50">
+        <f t="shared" si="55"/>
         <v>0.39867826646469789</v>
       </c>
-      <c r="G27" s="50">
-        <f t="shared" si="33"/>
+      <c r="G27" s="49">
+        <f t="shared" si="55"/>
         <v>0.40779176004137219</v>
       </c>
-      <c r="H27" s="50">
-        <f t="shared" si="33"/>
+      <c r="H27" s="49">
+        <f t="shared" si="55"/>
         <v>0.3967543594395726</v>
       </c>
-      <c r="I27" s="50">
-        <f t="shared" si="33"/>
+      <c r="I27" s="49">
+        <f t="shared" si="55"/>
         <v>0.39898254402827127</v>
       </c>
-      <c r="J27" s="51">
-        <f t="shared" si="33"/>
+      <c r="J27" s="50">
+        <f t="shared" si="55"/>
         <v>0.40097796288485871</v>
       </c>
-      <c r="K27" s="52">
-        <f t="shared" si="33"/>
+      <c r="K27" s="51">
+        <f t="shared" si="55"/>
         <v>0.39403050022746605</v>
       </c>
-      <c r="L27" s="52">
-        <f t="shared" si="33"/>
+      <c r="L27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38023513858066954</v>
       </c>
-      <c r="M27" s="52">
-        <f t="shared" si="33"/>
+      <c r="M27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38019721676769402</v>
       </c>
-      <c r="N27" s="51">
-        <f t="shared" si="33"/>
+      <c r="N27" s="50">
+        <f t="shared" si="55"/>
         <v>0.38513867085295656</v>
       </c>
-      <c r="O27" s="52">
-        <f t="shared" si="33"/>
+      <c r="O27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38927329098608593</v>
       </c>
-      <c r="P27" s="52">
-        <f t="shared" si="33"/>
+      <c r="P27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38513037350246654</v>
       </c>
-      <c r="Q27" s="52">
-        <f t="shared" si="33"/>
+      <c r="Q27" s="51">
+        <f t="shared" si="55"/>
         <v>0.37906768862093232</v>
       </c>
-      <c r="R27" s="51">
-        <f t="shared" si="33"/>
+      <c r="R27" s="50">
+        <f t="shared" si="55"/>
         <v>0.38408480853521798</v>
       </c>
-      <c r="S27" s="52">
-        <f t="shared" si="33"/>
+      <c r="S27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38310679294044525</v>
       </c>
-      <c r="T27" s="52">
-        <f t="shared" si="33"/>
+      <c r="T27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38338496198254013</v>
       </c>
-      <c r="U27" s="52">
-        <f t="shared" si="33"/>
+      <c r="U27" s="51">
+        <f t="shared" si="55"/>
         <v>0.38289348171701115</v>
       </c>
-      <c r="V27" s="51">
-        <f t="shared" si="33"/>
+      <c r="V27" s="50">
+        <f t="shared" si="55"/>
         <v>0.37991934527339583</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="W27" s="51">
+        <f t="shared" si="55"/>
+        <v>0.37612686374213566</v>
+      </c>
+      <c r="X27" s="51">
+        <f t="shared" ref="X27" si="56">X11/X9</f>
+        <v>0.37590365923916075</v>
+      </c>
+      <c r="Y27" s="51">
+        <f t="shared" ref="Y27:Z27" si="57">Y11/Y9</f>
+        <v>0.37965334166146159</v>
+      </c>
+      <c r="Z27" s="50">
+        <f t="shared" si="57"/>
+        <v>0.38354806739345887</v>
+      </c>
+      <c r="AA27" s="51">
+        <f t="shared" ref="AA27:AB27" si="58">AA11/AA9</f>
+        <v>0.38361943305952362</v>
+      </c>
+      <c r="AB27" s="51">
+        <f t="shared" si="58"/>
+        <v>0.37999497361146017</v>
+      </c>
+      <c r="AC27" s="51">
+        <f t="shared" ref="AC27" si="59">AC11/AC9</f>
+        <v>0.38160375900336951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="53">
-        <f t="shared" ref="B28:V28" si="34">B15/B9</f>
+      <c r="B28" s="52">
+        <f t="shared" ref="B28:W28" si="60">B15/B9</f>
         <v>0.30320866756953851</v>
       </c>
-      <c r="C28" s="53">
-        <f t="shared" si="34"/>
+      <c r="C28" s="52">
+        <f t="shared" si="60"/>
         <v>0.29779170135389738</v>
       </c>
-      <c r="D28" s="53">
-        <f t="shared" si="34"/>
+      <c r="D28" s="52">
+        <f t="shared" si="60"/>
         <v>0.27468476170121819</v>
       </c>
-      <c r="E28" s="53">
-        <f t="shared" si="34"/>
+      <c r="E28" s="52">
+        <f t="shared" si="60"/>
         <v>0.26505709469885813</v>
       </c>
-      <c r="F28" s="54">
-        <f t="shared" si="34"/>
+      <c r="F28" s="53">
+        <f t="shared" si="60"/>
         <v>0.32501776163219348</v>
       </c>
-      <c r="G28" s="53">
-        <f t="shared" si="34"/>
+      <c r="G28" s="52">
+        <f t="shared" si="60"/>
         <v>0.31508360627478021</v>
       </c>
-      <c r="H28" s="53">
-        <f t="shared" si="34"/>
+      <c r="H28" s="52">
+        <f t="shared" si="60"/>
         <v>0.28390283237576858</v>
       </c>
-      <c r="I28" s="53">
-        <f t="shared" si="34"/>
+      <c r="I28" s="52">
+        <f t="shared" si="60"/>
         <v>0.28393623424787867</v>
       </c>
-      <c r="J28" s="54">
-        <f t="shared" si="34"/>
+      <c r="J28" s="53">
+        <f t="shared" si="60"/>
         <v>0.31857602277520036</v>
       </c>
-      <c r="K28" s="55">
-        <f t="shared" si="34"/>
+      <c r="K28" s="54">
+        <f t="shared" si="60"/>
         <v>0.27665802955080404</v>
       </c>
-      <c r="L28" s="55">
-        <f t="shared" si="34"/>
+      <c r="L28" s="54">
+        <f t="shared" si="60"/>
         <v>0.23856178289815383</v>
       </c>
-      <c r="M28" s="55">
-        <f t="shared" si="34"/>
+      <c r="M28" s="54">
+        <f t="shared" si="60"/>
         <v>0.25102450268931958</v>
       </c>
-      <c r="N28" s="54">
-        <f t="shared" si="34"/>
+      <c r="N28" s="53">
+        <f t="shared" si="60"/>
         <v>0.29813276154739571</v>
       </c>
-      <c r="O28" s="55">
-        <f t="shared" si="34"/>
+      <c r="O28" s="54">
+        <f t="shared" si="60"/>
         <v>0.2665040834845735</v>
       </c>
-      <c r="P28" s="55">
-        <f t="shared" si="34"/>
+      <c r="P28" s="54">
+        <f t="shared" si="60"/>
         <v>0.23713883016208598</v>
       </c>
-      <c r="Q28" s="55">
-        <f t="shared" si="34"/>
+      <c r="Q28" s="54">
+        <f t="shared" si="60"/>
         <v>0.24952927975047073</v>
       </c>
-      <c r="R28" s="54">
-        <f t="shared" si="34"/>
+      <c r="R28" s="53">
+        <f t="shared" si="60"/>
         <v>0.29757738439060855</v>
       </c>
-      <c r="S28" s="55">
-        <f t="shared" si="34"/>
+      <c r="S28" s="54">
+        <f t="shared" si="60"/>
         <v>0.25997350213455028</v>
       </c>
-      <c r="T28" s="55">
-        <f t="shared" si="34"/>
+      <c r="T28" s="54">
+        <f t="shared" si="60"/>
         <v>0.23677837228949591</v>
       </c>
-      <c r="U28" s="55">
-        <f t="shared" si="34"/>
+      <c r="U28" s="54">
+        <f t="shared" si="60"/>
         <v>0.25624801271860098</v>
       </c>
-      <c r="V28" s="54">
-        <f t="shared" si="34"/>
+      <c r="V28" s="53">
+        <f t="shared" si="60"/>
         <v>0.27690665401494485</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="W28" s="54">
+        <f t="shared" si="60"/>
+        <v>0.2312333017323106</v>
+      </c>
+      <c r="X28" s="54">
+        <f t="shared" ref="X28" si="61">X15/X9</f>
+        <v>0.2145366016837332</v>
+      </c>
+      <c r="Y28" s="54">
+        <f t="shared" ref="Y28:Z28" si="62">Y15/Y9</f>
+        <v>0.24398813241723921</v>
+      </c>
+      <c r="Z28" s="53">
+        <f t="shared" si="62"/>
+        <v>0.2784717759940753</v>
+      </c>
+      <c r="AA28" s="54">
+        <f t="shared" ref="AA28:AB28" si="63">AA15/AA9</f>
+        <v>0.22041397287054346</v>
+      </c>
+      <c r="AB28" s="54">
+        <f t="shared" si="63"/>
+        <v>0.21933484124989527</v>
+      </c>
+      <c r="AC28" s="54">
+        <f t="shared" ref="AC28" si="64">AC15/AC9</f>
+        <v>0.2283687285542057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="53">
-        <f t="shared" ref="B29:V29" si="35">B18/B17</f>
+      <c r="B29" s="52">
+        <f t="shared" ref="B29:W29" si="65">B18/B17</f>
         <v>0.26184425998080074</v>
       </c>
-      <c r="C29" s="53">
-        <f t="shared" si="35"/>
+      <c r="C29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26016789694601244</v>
       </c>
-      <c r="D29" s="53">
-        <f t="shared" si="35"/>
+      <c r="D29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26096909576497518</v>
       </c>
-      <c r="E29" s="53">
-        <f t="shared" si="35"/>
+      <c r="E29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26194211994421202</v>
       </c>
-      <c r="F29" s="54">
-        <f t="shared" si="35"/>
+      <c r="F29" s="53">
+        <f t="shared" si="65"/>
         <v>0.26179554390563564</v>
       </c>
-      <c r="G29" s="53">
-        <f t="shared" si="35"/>
+      <c r="G29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26906916612798965</v>
       </c>
-      <c r="H29" s="53">
-        <f t="shared" si="35"/>
+      <c r="H29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26228148967042081</v>
       </c>
-      <c r="I29" s="53">
-        <f t="shared" si="35"/>
+      <c r="I29" s="52">
+        <f t="shared" si="65"/>
         <v>0.26145266232903996</v>
       </c>
-      <c r="J29" s="54">
-        <f t="shared" si="35"/>
+      <c r="J29" s="53">
+        <f t="shared" si="65"/>
         <v>0.25279778618809262</v>
       </c>
-      <c r="K29" s="55">
-        <f t="shared" si="35"/>
+      <c r="K29" s="54">
+        <f t="shared" si="65"/>
         <v>0.25639937774006505</v>
       </c>
-      <c r="L29" s="55">
-        <f t="shared" si="35"/>
+      <c r="L29" s="54">
+        <f t="shared" si="65"/>
         <v>0.25532524596427547</v>
       </c>
-      <c r="M29" s="55">
-        <f t="shared" si="35"/>
+      <c r="M29" s="54">
+        <f t="shared" si="65"/>
         <v>0.26042008532983263</v>
       </c>
-      <c r="N29" s="54">
-        <f t="shared" si="35"/>
+      <c r="N29" s="53">
+        <f t="shared" si="65"/>
         <v>0.26009098428453264</v>
       </c>
-      <c r="O29" s="55">
-        <f t="shared" si="35"/>
+      <c r="O29" s="54">
+        <f t="shared" si="65"/>
         <v>0.24891037864342141</v>
       </c>
-      <c r="P29" s="55">
-        <f t="shared" si="35"/>
+      <c r="P29" s="54">
+        <f t="shared" si="65"/>
         <v>0.22912981959674567</v>
       </c>
-      <c r="Q29" s="55">
-        <f t="shared" si="35"/>
+      <c r="Q29" s="54">
+        <f t="shared" si="65"/>
         <v>0.23015017604368757</v>
       </c>
-      <c r="R29" s="54">
-        <f t="shared" si="35"/>
+      <c r="R29" s="53">
+        <f t="shared" si="65"/>
         <v>0.25767665556788755</v>
       </c>
-      <c r="S29" s="55">
-        <f t="shared" si="35"/>
+      <c r="S29" s="54">
+        <f t="shared" si="65"/>
         <v>0.14510143493320138</v>
       </c>
-      <c r="T29" s="55">
-        <f t="shared" si="35"/>
+      <c r="T29" s="54">
+        <f t="shared" si="65"/>
         <v>0.13286660644384221</v>
       </c>
-      <c r="U29" s="55">
-        <f t="shared" si="35"/>
+      <c r="U29" s="54">
+        <f t="shared" si="65"/>
         <v>0.13982096096461846</v>
       </c>
-      <c r="V29" s="54">
-        <f t="shared" si="35"/>
+      <c r="V29" s="53">
+        <f t="shared" si="65"/>
         <v>0.16485401154521878</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W29" s="54">
+        <f t="shared" si="65"/>
+        <v>0.16182121365910243</v>
+      </c>
+      <c r="X29" s="54">
+        <f t="shared" ref="X29" si="66">X18/X17</f>
+        <v>0.15674586516665268</v>
+      </c>
+      <c r="Y29" s="54">
+        <f t="shared" ref="Y29:Z29" si="67">Y18/Y17</f>
+        <v>0.15136107149500838</v>
+      </c>
+      <c r="Z29" s="53">
+        <f t="shared" si="67"/>
+        <v>0.14206343082027933</v>
+      </c>
+      <c r="AA29" s="54">
+        <f t="shared" ref="AA29:AB29" si="68">AA18/AA17</f>
+        <v>0.14358583936048724</v>
+      </c>
+      <c r="AB29" s="54">
+        <f t="shared" si="68"/>
+        <v>0.14341173783968944</v>
+      </c>
+      <c r="AC29" s="54">
+        <f t="shared" ref="AC29" si="69">AC18/AC17</f>
+        <v>0.14952016643178309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
@@ -6479,17 +7992,20 @@
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
-    </row>
-    <row r="31" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="Y30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+    </row>
+    <row r="31" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="38">
-        <f t="shared" ref="B31:Q31" si="36">B32-B33</f>
+        <f t="shared" ref="B31:Q31" si="70">B32-B33</f>
         <v>141881</v>
       </c>
       <c r="C31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>133627</v>
       </c>
       <c r="D31" s="38">
@@ -6497,59 +8013,59 @@
         <v>135460</v>
       </c>
       <c r="E31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>126252</v>
       </c>
       <c r="F31" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>145451</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>153467</v>
       </c>
       <c r="H31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>152929</v>
       </c>
       <c r="I31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>149837</v>
       </c>
       <c r="J31" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>160035</v>
       </c>
       <c r="K31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>161054</v>
       </c>
       <c r="L31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>159081</v>
       </c>
       <c r="M31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>158658</v>
       </c>
       <c r="N31" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>169034</v>
       </c>
       <c r="O31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>168311</v>
       </c>
       <c r="P31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>165157</v>
       </c>
       <c r="Q31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="70"/>
         <v>165192</v>
       </c>
       <c r="R31" s="39">
-        <f t="shared" ref="R31" si="37">R32-R33</f>
+        <f t="shared" ref="R31" si="71">R32-R33</f>
         <v>174677</v>
       </c>
       <c r="S31" s="38">
@@ -6568,12 +8084,28 @@
         <f>V32-V33</f>
         <v>130305</v>
       </c>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="38">
+        <f>Y32-Y33</f>
+        <v>103831</v>
+      </c>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="38">
+        <f>AA32-AA33</f>
+        <v>93366</v>
+      </c>
+      <c r="AB31" s="38">
+        <f>AB32-AB33</f>
+        <v>92060</v>
+      </c>
+      <c r="AC31" s="38">
+        <f>AC32-AC33</f>
+        <v>84390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="33">
@@ -6660,9 +8192,28 @@
         <f>44771+41656+158608</f>
         <v>245035</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33">
+        <f>48844+51713+105341</f>
+        <v>205898</v>
+      </c>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="33">
+        <f>40174+53877+98793</f>
+        <v>192844</v>
+      </c>
+      <c r="AB32" s="33">
+        <f>33383+59642+100592</f>
+        <v>193617</v>
+      </c>
+      <c r="AC32" s="33">
+        <f>38016+52927+100887</f>
+        <v>191830</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="33">
@@ -6745,9 +8296,58 @@
         <f>11969+9772+92989</f>
         <v>114730</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33">
+        <f>10260+91807</f>
+        <v>102067</v>
+      </c>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="33">
+        <f>10392+89086</f>
+        <v>99478</v>
+      </c>
+      <c r="AB33" s="33">
+        <f>7509+94048</f>
+        <v>101557</v>
+      </c>
+      <c r="AC33" s="33">
+        <f>8773+98667</f>
+        <v>107440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="66"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="71"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+    </row>
+    <row r="35" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="66" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="33"/>
@@ -6823,10 +8423,22 @@
       </c>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="Y35" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="33"/>
@@ -6888,10 +8500,22 @@
       </c>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="Y36" s="33">
+        <v>338516</v>
+      </c>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="9">
+        <v>320400</v>
+      </c>
+      <c r="AB36" s="33">
+        <v>317344</v>
+      </c>
+      <c r="AC36" s="33">
+        <v>323888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="66" t="s">
         <v>103</v>
       </c>
       <c r="B37" s="33"/>
@@ -6953,557 +8577,748 @@
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y37" s="33">
+        <v>248028</v>
+      </c>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="9">
+        <v>241975</v>
+      </c>
+      <c r="AB37" s="33">
+        <v>245062</v>
+      </c>
+      <c r="AC37" s="33">
+        <v>258549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="66"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="34"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="71"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+    </row>
+    <row r="39" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="42">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="41">
         <f>E36-E32-E35</f>
         <v>67842</v>
       </c>
-      <c r="F39" s="43">
-        <f t="shared" ref="F39" si="38">F36-F32-F35</f>
+      <c r="F39" s="42">
+        <f t="shared" ref="F39" si="72">F36-F32-F35</f>
         <v>74940</v>
       </c>
-      <c r="G39" s="42">
-        <f t="shared" ref="G39:U39" si="39">G36-G32-G35</f>
+      <c r="G39" s="41">
+        <f t="shared" ref="G39:U39" si="73">G36-G32-G35</f>
         <v>58883</v>
       </c>
-      <c r="H39" s="42">
-        <f t="shared" si="39"/>
+      <c r="H39" s="41">
+        <f t="shared" si="73"/>
         <v>61480</v>
       </c>
-      <c r="I39" s="42">
-        <f t="shared" si="39"/>
+      <c r="I39" s="41">
+        <f t="shared" si="73"/>
         <v>75804</v>
       </c>
-      <c r="J39" s="43">
-        <f t="shared" si="39"/>
+      <c r="J39" s="42">
+        <f t="shared" si="73"/>
         <v>68419</v>
       </c>
-      <c r="K39" s="42">
-        <f t="shared" si="39"/>
+      <c r="K39" s="41">
+        <f t="shared" si="73"/>
         <v>63257</v>
       </c>
-      <c r="L39" s="42">
-        <f t="shared" si="39"/>
+      <c r="L39" s="41">
+        <f t="shared" si="73"/>
         <v>65315</v>
       </c>
-      <c r="M39" s="42">
-        <f t="shared" si="39"/>
+      <c r="M39" s="41">
+        <f t="shared" si="73"/>
         <v>75481</v>
       </c>
-      <c r="N39" s="43">
-        <f t="shared" si="39"/>
+      <c r="N39" s="42">
+        <f t="shared" si="73"/>
         <v>76780</v>
       </c>
-      <c r="O39" s="42">
-        <f t="shared" si="39"/>
+      <c r="O39" s="41">
+        <f t="shared" si="73"/>
         <v>69601</v>
       </c>
-      <c r="P39" s="42">
-        <f t="shared" si="39"/>
+      <c r="P39" s="41">
+        <f t="shared" si="73"/>
         <v>75552</v>
       </c>
-      <c r="Q39" s="42">
-        <f t="shared" si="39"/>
+      <c r="Q39" s="41">
+        <f t="shared" si="73"/>
         <v>98409</v>
       </c>
-      <c r="R39" s="43">
-        <f t="shared" si="39"/>
+      <c r="R39" s="42">
+        <f t="shared" si="73"/>
         <v>113659</v>
       </c>
-      <c r="S39" s="42">
-        <f t="shared" si="39"/>
+      <c r="S39" s="41">
+        <f t="shared" si="73"/>
         <v>100276</v>
       </c>
-      <c r="T39" s="42">
-        <f t="shared" si="39"/>
+      <c r="T39" s="41">
+        <f t="shared" si="73"/>
         <v>105454</v>
       </c>
-      <c r="U39" s="42">
-        <f t="shared" si="39"/>
+      <c r="U39" s="41">
+        <f t="shared" si="73"/>
         <v>128645</v>
       </c>
-      <c r="V39" s="43">
-        <f t="shared" ref="V39" si="40">V36-V32-V35</f>
+      <c r="V39" s="42">
+        <f t="shared" ref="V39" si="74">V36-V32-V35</f>
         <v>128684</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="41">
+        <f t="shared" ref="Y39" si="75">Y36-Y32-Y35</f>
+        <v>132618</v>
+      </c>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="41">
+        <f t="shared" ref="AA39:AB39" si="76">AA36-AA32-AA35</f>
+        <v>127556</v>
+      </c>
+      <c r="AB39" s="41">
+        <f t="shared" si="76"/>
+        <v>123727</v>
+      </c>
+      <c r="AC39" s="41">
+        <f t="shared" ref="AC39" si="77">AC36-AC32-AC35</f>
+        <v>132058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="42">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="41">
         <f>E36-E37</f>
         <v>111547</v>
       </c>
-      <c r="F40" s="43">
-        <f t="shared" ref="F40" si="41">F36-F37</f>
+      <c r="F40" s="42">
+        <f t="shared" ref="F40" si="78">F36-F37</f>
         <v>123328</v>
       </c>
-      <c r="G40" s="42">
-        <f t="shared" ref="G40:U40" si="42">G36-G37</f>
+      <c r="G40" s="41">
+        <f t="shared" ref="G40:U40" si="79">G36-G37</f>
         <v>129006</v>
       </c>
-      <c r="H40" s="42">
-        <f t="shared" si="42"/>
+      <c r="H40" s="41">
+        <f t="shared" si="79"/>
         <v>125677</v>
       </c>
-      <c r="I40" s="42">
-        <f t="shared" si="42"/>
+      <c r="I40" s="41">
+        <f t="shared" si="79"/>
         <v>119355</v>
       </c>
-      <c r="J40" s="43">
-        <f t="shared" si="42"/>
+      <c r="J40" s="42">
+        <f t="shared" si="79"/>
         <v>128267</v>
       </c>
-      <c r="K40" s="42">
-        <f t="shared" si="42"/>
+      <c r="K40" s="41">
+        <f t="shared" si="79"/>
         <v>130457</v>
       </c>
-      <c r="L40" s="42">
-        <f t="shared" si="42"/>
+      <c r="L40" s="41">
+        <f t="shared" si="79"/>
         <v>234116</v>
       </c>
-      <c r="M40" s="42">
-        <f t="shared" si="42"/>
+      <c r="M40" s="41">
+        <f t="shared" si="79"/>
         <v>242680</v>
       </c>
-      <c r="N40" s="43">
-        <f t="shared" si="42"/>
+      <c r="N40" s="42">
+        <f t="shared" si="79"/>
         <v>247011</v>
       </c>
-      <c r="O40" s="42">
-        <f t="shared" si="42"/>
+      <c r="O40" s="41">
+        <f t="shared" si="79"/>
         <v>261190</v>
       </c>
-      <c r="P40" s="42">
-        <f t="shared" si="42"/>
+      <c r="P40" s="41">
+        <f t="shared" si="79"/>
         <v>263871</v>
       </c>
-      <c r="Q40" s="42">
-        <f t="shared" si="42"/>
+      <c r="Q40" s="41">
+        <f t="shared" si="79"/>
         <v>274505</v>
       </c>
-      <c r="R40" s="43">
-        <f t="shared" si="42"/>
+      <c r="R40" s="42">
+        <f t="shared" si="79"/>
         <v>291006</v>
       </c>
-      <c r="S40" s="42">
-        <f t="shared" si="42"/>
+      <c r="S40" s="41">
+        <f t="shared" si="79"/>
         <v>278182</v>
       </c>
-      <c r="T40" s="42">
-        <f t="shared" si="42"/>
+      <c r="T40" s="41">
+        <f t="shared" si="79"/>
         <v>260649</v>
       </c>
-      <c r="U40" s="42">
-        <f t="shared" si="42"/>
+      <c r="U40" s="41">
+        <f t="shared" si="79"/>
         <v>248859</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="42">
         <f>V36-V37</f>
         <v>117892</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="41">
+        <f t="shared" ref="Y40" si="80">Y36-Y37</f>
+        <v>90488</v>
+      </c>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="41">
+        <f t="shared" ref="AA40:AB40" si="81">AA36-AA37</f>
+        <v>78425</v>
+      </c>
+      <c r="AB40" s="41">
+        <f t="shared" si="81"/>
+        <v>72282</v>
+      </c>
+      <c r="AC40" s="41">
+        <f t="shared" ref="AC40" si="82">AC36-AC37</f>
+        <v>65339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="66"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+    </row>
+    <row r="42" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42:V42" si="43">SUM(B19:E19)</f>
+        <f t="shared" ref="E42:V42" si="83">SUM(B19:E19)</f>
         <v>39510</v>
       </c>
       <c r="F42" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>44462</v>
       </c>
       <c r="G42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>47808</v>
       </c>
       <c r="H42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>50737</v>
       </c>
       <c r="I42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>53394</v>
       </c>
       <c r="J42" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>53731</v>
       </c>
       <c r="K42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>50678</v>
       </c>
       <c r="L42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>47797</v>
       </c>
       <c r="M42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>45687</v>
       </c>
       <c r="N42" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>45217</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>45730</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>46651</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>48351</v>
       </c>
       <c r="R42" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>50525</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>53318</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>56120</v>
       </c>
       <c r="U42" s="40">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>59531</v>
       </c>
       <c r="V42" s="39">
-        <f t="shared" si="43"/>
+        <f t="shared" si="83"/>
         <v>59431</v>
       </c>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="40">
+        <f t="shared" ref="Y42" si="84">SUM(V19:Y19)</f>
+        <v>55256</v>
+      </c>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="40">
+        <f t="shared" ref="AA42:AB42" si="85">SUM(X19:AA19)</f>
+        <v>57215</v>
+      </c>
+      <c r="AB42" s="40">
+        <f t="shared" si="85"/>
+        <v>58424</v>
+      </c>
+      <c r="AC42" s="40">
+        <f t="shared" ref="AC42" si="86">SUM(Z19:AC19)</f>
+        <v>57411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="47">
         <f>E42/E40</f>
         <v>0.35420047155010892</v>
       </c>
-      <c r="F43" s="49">
-        <f t="shared" ref="F43:I43" si="44">F42/F40</f>
+      <c r="F43" s="48">
+        <f t="shared" ref="F43:I43" si="87">F42/F40</f>
         <v>0.36051829268292684</v>
       </c>
-      <c r="G43" s="48">
-        <f t="shared" si="44"/>
+      <c r="G43" s="47">
+        <f t="shared" si="87"/>
         <v>0.37058741453885868</v>
       </c>
-      <c r="H43" s="48">
-        <f t="shared" si="44"/>
+      <c r="H43" s="47">
+        <f t="shared" si="87"/>
         <v>0.40370950929764399</v>
       </c>
-      <c r="I43" s="48">
-        <f t="shared" si="44"/>
+      <c r="I43" s="47">
+        <f t="shared" si="87"/>
         <v>0.44735453060198566</v>
       </c>
-      <c r="J43" s="49">
+      <c r="J43" s="48">
         <f>J42/J40</f>
         <v>0.41889963903420208</v>
       </c>
-      <c r="K43" s="48">
-        <f t="shared" ref="K43:U43" si="45">K42/K40</f>
+      <c r="K43" s="47">
+        <f t="shared" ref="K43:U43" si="88">K42/K40</f>
         <v>0.38846516476693471</v>
       </c>
-      <c r="L43" s="48">
-        <f t="shared" si="45"/>
+      <c r="L43" s="47">
+        <f t="shared" si="88"/>
         <v>0.20415947649882965</v>
       </c>
-      <c r="M43" s="48">
-        <f t="shared" si="45"/>
+      <c r="M43" s="47">
+        <f t="shared" si="88"/>
         <v>0.18826026042525135</v>
       </c>
-      <c r="N43" s="49">
-        <f t="shared" si="45"/>
+      <c r="N43" s="48">
+        <f t="shared" si="88"/>
         <v>0.18305662500860287</v>
       </c>
-      <c r="O43" s="48">
-        <f t="shared" si="45"/>
+      <c r="O43" s="47">
+        <f t="shared" si="88"/>
         <v>0.17508327271335045</v>
       </c>
-      <c r="P43" s="48">
-        <f t="shared" si="45"/>
+      <c r="P43" s="47">
+        <f t="shared" si="88"/>
         <v>0.17679472166323695</v>
       </c>
-      <c r="Q43" s="48">
-        <f t="shared" si="45"/>
+      <c r="Q43" s="47">
+        <f t="shared" si="88"/>
         <v>0.17613886814447824</v>
       </c>
-      <c r="R43" s="49">
-        <f t="shared" si="45"/>
+      <c r="R43" s="48">
+        <f t="shared" si="88"/>
         <v>0.17362184972131159</v>
       </c>
-      <c r="S43" s="48">
-        <f t="shared" si="45"/>
+      <c r="S43" s="47">
+        <f t="shared" si="88"/>
         <v>0.19166588780007332</v>
       </c>
-      <c r="T43" s="48">
-        <f t="shared" si="45"/>
+      <c r="T43" s="47">
+        <f t="shared" si="88"/>
         <v>0.2153087101811248</v>
       </c>
-      <c r="U43" s="48">
-        <f t="shared" si="45"/>
+      <c r="U43" s="47">
+        <f t="shared" si="88"/>
         <v>0.23921578082367928</v>
       </c>
-      <c r="V43" s="49">
-        <f t="shared" ref="V43" si="46">V42/V40</f>
+      <c r="V43" s="48">
+        <f t="shared" ref="V43" si="89">V42/V40</f>
         <v>0.50411393478777189</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+      <c r="Y43" s="47">
+        <f t="shared" ref="Y43" si="90">Y42/Y40</f>
+        <v>0.61064450534877557</v>
+      </c>
+      <c r="AA43" s="47">
+        <f t="shared" ref="AA43:AB43" si="91">AA42/AA40</f>
+        <v>0.72955052598023584</v>
+      </c>
+      <c r="AB43" s="47">
+        <f t="shared" si="91"/>
+        <v>0.80827868625660604</v>
+      </c>
+      <c r="AC43" s="47">
+        <f t="shared" ref="AC43" si="92">AC42/AC40</f>
+        <v>0.87866358530127486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="47">
         <f>E42/E36</f>
         <v>0.17041998973425523</v>
       </c>
-      <c r="F44" s="49">
-        <f t="shared" ref="F44:I44" si="47">F42/F36</f>
+      <c r="F44" s="48">
+        <f t="shared" ref="F44:I44" si="93">F42/F36</f>
         <v>0.16977097604374289</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="47">
         <f>G42/G36</f>
         <v>0.18303636377558444</v>
       </c>
-      <c r="H44" s="48">
-        <f t="shared" si="47"/>
+      <c r="H44" s="47">
+        <f t="shared" si="93"/>
         <v>0.18574707762373194</v>
       </c>
-      <c r="I44" s="48">
-        <f t="shared" si="47"/>
+      <c r="I44" s="47">
+        <f t="shared" si="93"/>
         <v>0.18381363196651049</v>
       </c>
-      <c r="J44" s="49">
+      <c r="J44" s="48">
         <f>J42/J36</f>
         <v>0.18320467533176035</v>
       </c>
-      <c r="K44" s="48">
-        <f t="shared" ref="K44" si="48">K42/K36</f>
+      <c r="K44" s="47">
+        <f t="shared" ref="K44" si="94">K42/K36</f>
         <v>0.16600661038990819</v>
       </c>
-      <c r="L44" s="48">
+      <c r="L44" s="47">
         <f>L42/L36</f>
         <v>0.15640277223316601</v>
       </c>
-      <c r="M44" s="48">
-        <f t="shared" ref="M44:N44" si="49">M42/M36</f>
+      <c r="M44" s="47">
+        <f t="shared" ref="M44:N44" si="95">M42/M36</f>
         <v>0.14202358821956815</v>
       </c>
-      <c r="N44" s="49">
-        <f t="shared" si="49"/>
+      <c r="N44" s="48">
+        <f t="shared" si="95"/>
         <v>0.13654908332100224</v>
       </c>
-      <c r="O44" s="48">
-        <f t="shared" ref="O44:P44" si="50">O42/O36</f>
+      <c r="O44" s="47">
+        <f t="shared" ref="O44:P44" si="96">O42/O36</f>
         <v>0.1366984324369567</v>
       </c>
-      <c r="P44" s="48">
-        <f t="shared" si="50"/>
+      <c r="P44" s="47">
+        <f t="shared" si="96"/>
         <v>0.13515251772299688</v>
       </c>
-      <c r="Q44" s="48">
-        <f t="shared" ref="Q44:R44" si="51">Q42/Q36</f>
+      <c r="Q44" s="47">
+        <f t="shared" ref="Q44:R44" si="97">Q42/Q36</f>
         <v>0.12882641166580963</v>
       </c>
-      <c r="R44" s="49">
-        <f t="shared" si="51"/>
+      <c r="R44" s="48">
+        <f t="shared" si="97"/>
         <v>0.1242029135139653</v>
       </c>
-      <c r="S44" s="48">
-        <f t="shared" ref="S44:T44" si="52">S42/S36</f>
+      <c r="S44" s="47">
+        <f t="shared" ref="S44:T44" si="98">S42/S36</f>
         <v>0.14508220363426594</v>
       </c>
-      <c r="T44" s="48">
-        <f t="shared" si="52"/>
+      <c r="T44" s="47">
+        <f t="shared" si="98"/>
         <v>0.16071157541445086</v>
       </c>
-      <c r="U44" s="48">
-        <f t="shared" ref="U44:V44" si="53">U42/U36</f>
+      <c r="U44" s="47">
+        <f t="shared" ref="U44:V44" si="99">U42/U36</f>
         <v>0.16277530931710985</v>
       </c>
-      <c r="V44" s="49">
-        <f t="shared" si="53"/>
+      <c r="V44" s="48">
+        <f t="shared" si="99"/>
         <v>0.15902589913812248</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+      <c r="Y44" s="47">
+        <f t="shared" ref="Y44" si="100">Y42/Y36</f>
+        <v>0.16323009842961633</v>
+      </c>
+      <c r="AA44" s="47">
+        <f t="shared" ref="AA44:AB44" si="101">AA42/AA36</f>
+        <v>0.1785736579275905</v>
+      </c>
+      <c r="AB44" s="47">
+        <f t="shared" si="101"/>
+        <v>0.18410305535948371</v>
+      </c>
+      <c r="AC44" s="47">
+        <f t="shared" ref="AC44" si="102">AC42/AC36</f>
+        <v>0.1772557180259843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="47">
         <f>E42/(E40-E35)</f>
         <v>0.38437965151913145</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="48">
         <f>F42/(F40-F35)</f>
         <v>0.38889520594074994</v>
       </c>
-      <c r="G45" s="48">
-        <f t="shared" ref="G45:I45" si="54">G42/(G40-G35)</f>
+      <c r="G45" s="47">
+        <f t="shared" ref="G45:I45" si="103">G42/(G40-G35)</f>
         <v>0.39762463196766307</v>
       </c>
-      <c r="H45" s="48">
-        <f t="shared" si="54"/>
+      <c r="H45" s="47">
+        <f t="shared" si="103"/>
         <v>0.43419138412035529</v>
       </c>
-      <c r="I45" s="48">
-        <f t="shared" si="54"/>
+      <c r="I45" s="47">
+        <f t="shared" si="103"/>
         <v>0.48387798379642216</v>
       </c>
-      <c r="J45" s="49">
+      <c r="J45" s="48">
         <f>J42/(J40-J35)</f>
         <v>0.45098664607481892</v>
       </c>
-      <c r="K45" s="48">
-        <f t="shared" ref="K45:L45" si="55">K42/(K40-K35)</f>
+      <c r="K45" s="47">
+        <f t="shared" ref="K45:L45" si="104">K42/(K40-K35)</f>
         <v>0.41756684381823428</v>
       </c>
-      <c r="L45" s="48">
-        <f t="shared" si="55"/>
+      <c r="L45" s="47">
+        <f t="shared" si="104"/>
         <v>0.21210211716049329</v>
       </c>
-      <c r="M45" s="48">
-        <f t="shared" ref="M45:N45" si="56">M42/(M40-M35)</f>
+      <c r="M45" s="47">
+        <f t="shared" ref="M45:N45" si="105">M42/(M40-M35)</f>
         <v>0.19519354011791848</v>
       </c>
-      <c r="N45" s="49">
-        <f t="shared" si="56"/>
+      <c r="N45" s="48">
+        <f t="shared" si="105"/>
         <v>0.18939850883806653</v>
       </c>
-      <c r="O45" s="48">
-        <f t="shared" ref="O45:P45" si="57">O42/(O40-O35)</f>
+      <c r="O45" s="47">
+        <f t="shared" ref="O45:P45" si="106">O42/(O40-O35)</f>
         <v>0.18067957329118925</v>
       </c>
-      <c r="P45" s="48">
-        <f t="shared" si="57"/>
+      <c r="P45" s="47">
+        <f t="shared" si="106"/>
         <v>0.18239719118256531</v>
       </c>
-      <c r="Q45" s="48">
-        <f t="shared" ref="Q45:R45" si="58">Q42/(Q40-Q35)</f>
+      <c r="Q45" s="47">
+        <f t="shared" ref="Q45:R45" si="107">Q42/(Q40-Q35)</f>
         <v>0.18143645164921759</v>
       </c>
-      <c r="R45" s="49">
-        <f t="shared" si="58"/>
+      <c r="R45" s="48">
+        <f t="shared" si="107"/>
         <v>0.1785537587289022</v>
       </c>
-      <c r="S45" s="48">
-        <f t="shared" ref="S45:T45" si="59">S42/(S40-S35)</f>
+      <c r="S45" s="47">
+        <f t="shared" ref="S45:T45" si="108">S42/(S40-S35)</f>
         <v>0.19166588780007332</v>
       </c>
-      <c r="T45" s="48">
-        <f t="shared" si="59"/>
+      <c r="T45" s="47">
+        <f t="shared" si="108"/>
         <v>0.2153087101811248</v>
       </c>
-      <c r="U45" s="48">
-        <f t="shared" ref="U45:V45" si="60">U42/(U40-U35)</f>
+      <c r="U45" s="47">
+        <f t="shared" ref="U45:V45" si="109">U42/(U40-U35)</f>
         <v>0.23921578082367928</v>
       </c>
-      <c r="V45" s="49">
-        <f t="shared" si="60"/>
+      <c r="V45" s="48">
+        <f t="shared" si="109"/>
         <v>0.50411393478777189</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="Y45" s="47">
+        <f t="shared" ref="Y45" si="110">Y42/(Y40-Y35)</f>
+        <v>0.61064450534877557</v>
+      </c>
+      <c r="AA45" s="47">
+        <f t="shared" ref="AA45:AB45" si="111">AA42/(AA40-AA35)</f>
+        <v>0.72955052598023584</v>
+      </c>
+      <c r="AB45" s="47">
+        <f t="shared" si="111"/>
+        <v>0.80827868625660604</v>
+      </c>
+      <c r="AC45" s="47">
+        <f t="shared" ref="AC45" si="112">AC42/(AC40-AC35)</f>
+        <v>0.87866358530127486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="47">
         <f>E42/E39</f>
         <v>0.58238259485274613</v>
       </c>
-      <c r="F46" s="49">
-        <f t="shared" ref="F46:H46" si="61">F42/F39</f>
+      <c r="F46" s="48">
+        <f t="shared" ref="F46:H46" si="113">F42/F39</f>
         <v>0.59330130771283696</v>
       </c>
-      <c r="G46" s="48">
-        <f t="shared" si="61"/>
+      <c r="G46" s="47">
+        <f t="shared" si="113"/>
         <v>0.81191515377952894</v>
       </c>
-      <c r="H46" s="48">
-        <f t="shared" si="61"/>
+      <c r="H46" s="47">
+        <f t="shared" si="113"/>
         <v>0.82526024723487312</v>
       </c>
-      <c r="I46" s="48">
-        <f t="shared" ref="I46:U46" si="62">I42/I39</f>
+      <c r="I46" s="47">
+        <f t="shared" ref="I46:U46" si="114">I42/I39</f>
         <v>0.70436916257717275</v>
       </c>
-      <c r="J46" s="49">
-        <f t="shared" si="62"/>
+      <c r="J46" s="48">
+        <f t="shared" si="114"/>
         <v>0.7853227904529444</v>
       </c>
-      <c r="K46" s="48">
-        <f t="shared" si="62"/>
+      <c r="K46" s="47">
+        <f t="shared" si="114"/>
         <v>0.80114453736345381</v>
       </c>
-      <c r="L46" s="48">
-        <f t="shared" si="62"/>
+      <c r="L46" s="47">
+        <f t="shared" si="114"/>
         <v>0.73179208451351141</v>
       </c>
-      <c r="M46" s="48">
-        <f t="shared" si="62"/>
+      <c r="M46" s="47">
+        <f t="shared" si="114"/>
         <v>0.60527814946807801</v>
       </c>
-      <c r="N46" s="49">
-        <f t="shared" si="62"/>
+      <c r="N46" s="48">
+        <f t="shared" si="114"/>
         <v>0.58891638447512373</v>
       </c>
-      <c r="O46" s="48">
-        <f t="shared" si="62"/>
+      <c r="O46" s="47">
+        <f t="shared" si="114"/>
         <v>0.65703078978750307</v>
       </c>
-      <c r="P46" s="48">
-        <f t="shared" si="62"/>
+      <c r="P46" s="47">
+        <f t="shared" si="114"/>
         <v>0.61746876323591704</v>
       </c>
-      <c r="Q46" s="48">
-        <f t="shared" si="62"/>
+      <c r="Q46" s="47">
+        <f t="shared" si="114"/>
         <v>0.49132701277322194</v>
       </c>
-      <c r="R46" s="49">
-        <f t="shared" si="62"/>
+      <c r="R46" s="48">
+        <f t="shared" si="114"/>
         <v>0.44453144933529243</v>
       </c>
-      <c r="S46" s="48">
-        <f t="shared" si="62"/>
+      <c r="S46" s="47">
+        <f t="shared" si="114"/>
         <v>0.53171247357293872</v>
       </c>
-      <c r="T46" s="48">
-        <f t="shared" si="62"/>
+      <c r="T46" s="47">
+        <f t="shared" si="114"/>
         <v>0.53217516642327456</v>
       </c>
-      <c r="U46" s="48">
-        <f t="shared" si="62"/>
+      <c r="U46" s="47">
+        <f t="shared" si="114"/>
         <v>0.46275409071475765</v>
       </c>
-      <c r="V46" s="49">
-        <f t="shared" ref="V46" si="63">V42/V39</f>
+      <c r="V46" s="48">
+        <f t="shared" ref="V46" si="115">V42/V39</f>
         <v>0.4618367473811818</v>
+      </c>
+      <c r="Y46" s="47">
+        <f t="shared" ref="Y46" si="116">Y42/Y39</f>
+        <v>0.41665535598485876</v>
+      </c>
+      <c r="AA46" s="47">
+        <f t="shared" ref="AA46:AB46" si="117">AA42/AA39</f>
+        <v>0.44854808868261781</v>
+      </c>
+      <c r="AB46" s="47">
+        <f t="shared" si="117"/>
+        <v>0.47220089390351339</v>
+      </c>
+      <c r="AC46" s="47">
+        <f t="shared" ref="AC46" si="118">AC42/AC39</f>
+        <v>0.43474079571097546</v>
       </c>
     </row>
   </sheetData>
